--- a/03 PE/004 PE加载过程 RVA&FOA.xlsx
+++ b/03 PE/004 PE加载过程 RVA&FOA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\03 PE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CB3A6F-8E8B-4D8D-8F58-794D57971804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C121CE-50F2-4B35-8C36-DE71292FFFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="索引" sheetId="1" r:id="rId1"/>
@@ -27,15 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="472">
   <si>
     <t>PE 加载 过程</t>
   </si>
   <si>
     <t>练习</t>
-  </si>
-  <si>
-    <t>文件偏移、内存偏移的计算</t>
   </si>
   <si>
     <t>1、实现如下功能:</t>
@@ -1420,9 +1417,6 @@
     <t>// 确定所在节</t>
   </si>
   <si>
-    <t>if(roa&gt;=GetPE_sectionPtr(p,i)-&gt;VirtualAddress &amp;&amp; roa&lt;(GetPE_sectionPtr(p,i)-&gt;VirtualAddress+GetPE_sectionPtr(p,i)-&gt;Misc.VirtualSize))</t>
-  </si>
-  <si>
     <t>virtual_address=GetPE_sectionPtr(p,i)-&gt;VirtualAddress;</t>
   </si>
   <si>
@@ -1460,13 +1454,28 @@
   </si>
   <si>
     <t>printf("FOA: 0x%I64X\n",RVAtoFOA(rva,file_buffer));</t>
+  </si>
+  <si>
+    <t>if((size_t)roa&gt;=(size_t)GetPE_sectionPtr(p,i)-&gt;VirtualAddress &amp;&amp; (size_t)roa&lt;(size_t)(GetPE_sectionPtr(p,i)-&gt;VirtualAddress+GetPE_sectionPtr(p,i)-&gt;Misc.VirtualSize))</t>
+  </si>
+  <si>
+    <t>// vc++6.0 __int64类型变量作比较存在问题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   注意:  vc++6.0 __int64类型变量作比较存在问题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件偏移(FOA)、内存(RVA)偏移的计算</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1500,6 +1509,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1596,7 +1613,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1661,6 +1678,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3075,30 +3095,30 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B5:R75"/>
+  <dimension ref="A5:R75"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E8" s="14" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="E8" s="14" t="s">
-        <v>3</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
@@ -3107,14 +3127,14 @@
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
       <c r="N8" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
       <c r="R8" s="14"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
@@ -3122,64 +3142,67 @@
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N9" s="14" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
         <v>4</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>5</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>6</v>
       </c>
-      <c r="K10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E12" s="4"/>
       <c r="G12" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E13" s="4"/>
       <c r="G13" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E14" s="4"/>
       <c r="G14" s="6"/>
       <c r="I14" s="4"/>
       <c r="K14" s="6"/>
       <c r="M14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E15" s="4"/>
       <c r="G15" s="7"/>
       <c r="I15" s="4"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E16" s="4"/>
       <c r="G16" s="6"/>
       <c r="I16" s="4"/>
@@ -3226,246 +3249,247 @@
     </row>
     <row r="29" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E73" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E75" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B5" location="'01'!A1" display="PE 加载 过程" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B7" location="'02'!A1" display="文件偏移、内存偏移的计算" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A5" location="'01'!A1" display="PE 加载 过程" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A7" location="'02'!A1" display="文件偏移、内存偏移的计算" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="E8:K9" location="PEanalysis.cpp!A1" display="1、实现如下功能:" xr:uid="{32DBD369-5278-4DC5-BACB-B88D8F5B04B0}"/>
     <hyperlink ref="N8:R8" location="RVAtoFOA.cpp!A1" display="2、编写一个函数，能够将RVA的值转换成FOA." xr:uid="{683F6E92-9050-436D-A79C-7170109F0752}"/>
+    <hyperlink ref="N9" location="petool.h!D316" display="   注意:  vc++6.0 __int64类型变量作比较存在问题" xr:uid="{7ECE602F-674E-4BF7-842E-94108FBB94F8}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3489,79 +3513,79 @@
   <sheetData>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" t="s">
         <v>43</v>
-      </c>
-      <c r="J13" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" t="s">
         <v>46</v>
-      </c>
-      <c r="J16" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" t="s">
         <v>49</v>
       </c>
-      <c r="G19" t="s">
+      <c r="J19" t="s">
         <v>50</v>
-      </c>
-      <c r="J19" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" t="s">
         <v>5</v>
-      </c>
-      <c r="I23" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C24" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24" s="7"/>
       <c r="H24">
         <v>500000</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J24" s="7"/>
     </row>
@@ -3573,11 +3597,11 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C26" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D26" s="6"/>
       <c r="I26" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J26" s="6"/>
     </row>
@@ -3589,14 +3613,14 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C28" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J28" s="8"/>
     </row>
@@ -3608,11 +3632,11 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C30" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D30" s="9"/>
       <c r="I30" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J30" s="9"/>
     </row>
@@ -3626,7 +3650,7 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -3642,7 +3666,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -3659,7 +3683,7 @@
       <c r="C36" s="10"/>
       <c r="D36" s="1"/>
       <c r="E36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H36">
         <v>1000</v>
@@ -3674,7 +3698,7 @@
         <v>800</v>
       </c>
       <c r="G37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
@@ -3686,13 +3710,13 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="I38" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J38" s="10"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -3705,14 +3729,14 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="L40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C41" s="10"/>
       <c r="D41" s="1"/>
       <c r="E41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -3737,12 +3761,12 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="G44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
@@ -3751,7 +3775,7 @@
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
@@ -3760,7 +3784,7 @@
       <c r="C46" s="10"/>
       <c r="D46" s="1"/>
       <c r="E46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I46" s="10"/>
       <c r="J46" s="1"/>
@@ -3788,7 +3812,7 @@
     </row>
     <row r="51" spans="3:10" x14ac:dyDescent="0.25">
       <c r="G51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
@@ -3815,7 +3839,7 @@
     </row>
     <row r="58" spans="3:10" x14ac:dyDescent="0.25">
       <c r="H58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="3:10" x14ac:dyDescent="0.25">
@@ -3823,10 +3847,10 @@
     </row>
     <row r="60" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" t="s">
         <v>4</v>
-      </c>
-      <c r="E60" t="s">
-        <v>5</v>
       </c>
       <c r="H60" s="4"/>
     </row>
@@ -3925,36 +3949,36 @@
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J7" s="17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
       <c r="M7" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -3964,22 +3988,22 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="J9" s="16" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10" s="2"/>
       <c r="J10" s="16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
@@ -3990,22 +4014,22 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="J11" s="17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G12" s="3"/>
       <c r="J12" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
@@ -4016,7 +4040,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="J13" s="16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
@@ -4027,7 +4051,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="J14" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
@@ -4044,7 +4068,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="J16" s="19" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
@@ -4058,7 +4082,7 @@
       <c r="G17" s="5"/>
       <c r="J17" s="19"/>
       <c r="K17" s="19" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
@@ -4081,7 +4105,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="J19" s="19" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
@@ -4095,7 +4119,7 @@
       <c r="G20" s="4"/>
       <c r="J20" s="19"/>
       <c r="K20" s="19" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L20" s="19"/>
       <c r="M20" s="20"/>
@@ -4108,7 +4132,7 @@
       <c r="G21" s="4"/>
       <c r="J21" s="19"/>
       <c r="K21" s="19" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L21" s="19"/>
       <c r="M21" s="20"/>
@@ -4116,17 +4140,17 @@
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="J22" s="19"/>
       <c r="K22" s="19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L22" s="19"/>
       <c r="M22" s="20"/>
@@ -4147,14 +4171,14 @@
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="F24" s="18" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="15" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J24" s="19" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
@@ -4168,7 +4192,7 @@
       <c r="G25" s="5"/>
       <c r="J25" s="19"/>
       <c r="K25" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L25" s="19"/>
       <c r="M25" s="20"/>
@@ -4191,7 +4215,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="J27" s="19" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K27" s="20"/>
       <c r="L27" s="19"/>
@@ -4205,7 +4229,7 @@
       <c r="G28" s="4"/>
       <c r="J28" s="20"/>
       <c r="K28" s="19" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L28" s="20"/>
       <c r="M28" s="20"/>
@@ -4272,15 +4296,13 @@
   </sheetPr>
   <dimension ref="B5:I50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A172" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B287" sqref="B287"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -4291,7 +4313,7 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -4302,7 +4324,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -4322,7 +4344,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -4342,7 +4364,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -4353,7 +4375,7 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -4374,7 +4396,7 @@
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="13"/>
       <c r="C14" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -4385,7 +4407,7 @@
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="13"/>
       <c r="C15" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -4396,7 +4418,7 @@
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="13"/>
       <c r="C16" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -4407,7 +4429,7 @@
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="13"/>
       <c r="C17" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -4418,7 +4440,7 @@
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="13"/>
       <c r="C18" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
@@ -4429,7 +4451,7 @@
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="13"/>
       <c r="C19" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
@@ -4449,7 +4471,7 @@
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="13"/>
       <c r="C21" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
@@ -4460,7 +4482,7 @@
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="13"/>
       <c r="C22" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
@@ -4471,7 +4493,7 @@
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="13"/>
       <c r="C23" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
@@ -4483,7 +4505,7 @@
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
@@ -4494,7 +4516,7 @@
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
@@ -4505,7 +4527,7 @@
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
@@ -4515,7 +4537,7 @@
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="13"/>
       <c r="C27" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
@@ -4535,7 +4557,7 @@
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="13"/>
       <c r="C29" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
@@ -4546,7 +4568,7 @@
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="13"/>
       <c r="C30" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
@@ -4557,7 +4579,7 @@
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="13"/>
       <c r="C31" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
@@ -4578,7 +4600,7 @@
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="13"/>
       <c r="C33" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
@@ -4589,7 +4611,7 @@
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="13"/>
       <c r="C34" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
@@ -4600,7 +4622,7 @@
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="13"/>
       <c r="C35" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
@@ -4612,7 +4634,7 @@
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
@@ -4623,7 +4645,7 @@
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
@@ -4643,7 +4665,7 @@
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
@@ -4654,7 +4676,7 @@
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
@@ -4666,7 +4688,7 @@
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
@@ -4676,7 +4698,7 @@
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
@@ -4688,7 +4710,7 @@
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
@@ -4698,7 +4720,7 @@
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
@@ -4708,7 +4730,7 @@
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="13"/>
       <c r="C45" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
@@ -4728,7 +4750,7 @@
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="13"/>
       <c r="C47" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
@@ -4739,7 +4761,7 @@
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="13"/>
       <c r="C48" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="13"/>
@@ -4750,7 +4772,7 @@
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="13"/>
       <c r="C49" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
@@ -4760,7 +4782,7 @@
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
@@ -4788,15 +4810,15 @@
   </sheetPr>
   <dimension ref="B4:P331"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A278" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B287" sqref="B287:E287"/>
+    <sheetView showGridLines="0" topLeftCell="A301" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D316" sqref="D316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -4815,7 +4837,7 @@
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -4851,7 +4873,7 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -4870,7 +4892,7 @@
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -4889,7 +4911,7 @@
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -4908,7 +4930,7 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -4944,7 +4966,7 @@
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -4963,7 +4985,7 @@
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -4983,7 +5005,7 @@
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="13"/>
       <c r="C14" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -5002,7 +5024,7 @@
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="13"/>
       <c r="C15" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -5021,7 +5043,7 @@
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="13"/>
       <c r="C16" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -5057,7 +5079,7 @@
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="13"/>
       <c r="C18" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
@@ -5076,7 +5098,7 @@
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="13"/>
       <c r="C19" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
@@ -5096,7 +5118,7 @@
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
@@ -5115,7 +5137,7 @@
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
@@ -5134,7 +5156,7 @@
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
@@ -5153,7 +5175,7 @@
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
@@ -5172,7 +5194,7 @@
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
@@ -5191,7 +5213,7 @@
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
@@ -5210,7 +5232,7 @@
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
@@ -5230,7 +5252,7 @@
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
@@ -5249,7 +5271,7 @@
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
@@ -5268,7 +5290,7 @@
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
@@ -5288,7 +5310,7 @@
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
       <c r="F30" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
@@ -5306,7 +5328,7 @@
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
@@ -5324,7 +5346,7 @@
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
@@ -5342,7 +5364,7 @@
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="13"/>
       <c r="C33" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
@@ -5378,7 +5400,7 @@
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" s="13"/>
       <c r="C35" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
@@ -5397,7 +5419,7 @@
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="13"/>
       <c r="C36" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
@@ -5417,7 +5439,7 @@
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
@@ -5437,7 +5459,7 @@
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
@@ -5456,7 +5478,7 @@
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
@@ -5474,7 +5496,7 @@
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
@@ -5494,7 +5516,7 @@
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
@@ -5513,7 +5535,7 @@
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
@@ -5532,7 +5554,7 @@
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
@@ -5550,7 +5572,7 @@
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
@@ -5570,7 +5592,7 @@
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
@@ -5589,7 +5611,7 @@
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
       <c r="E46" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
@@ -5608,7 +5630,7 @@
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
       <c r="E47" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
@@ -5627,7 +5649,7 @@
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
       <c r="E48" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
@@ -5662,7 +5684,7 @@
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
       <c r="D50" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
@@ -5682,7 +5704,7 @@
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
@@ -5701,7 +5723,7 @@
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
       <c r="E52" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
@@ -5720,7 +5742,7 @@
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F53" s="13"/>
       <c r="G53" s="13"/>
@@ -5739,7 +5761,7 @@
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
@@ -5756,7 +5778,7 @@
     <row r="55" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B55" s="13"/>
       <c r="C55" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
@@ -5792,7 +5814,7 @@
     <row r="57" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B57" s="13"/>
       <c r="C57" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="13"/>
@@ -5810,7 +5832,7 @@
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B58" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
@@ -5863,7 +5885,7 @@
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B61" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
@@ -5882,7 +5904,7 @@
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B62" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
@@ -5902,7 +5924,7 @@
     <row r="63" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B63" s="13"/>
       <c r="C63" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="13"/>
@@ -5921,7 +5943,7 @@
     <row r="64" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B64" s="13"/>
       <c r="C64" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="13"/>
@@ -5940,7 +5962,7 @@
     <row r="65" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B65" s="13"/>
       <c r="C65" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
@@ -5960,7 +5982,7 @@
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
       <c r="D66" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E66" s="13"/>
       <c r="F66" s="13"/>
@@ -5978,7 +6000,7 @@
     <row r="67" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B67" s="13"/>
       <c r="C67" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D67" s="13"/>
       <c r="E67" s="13"/>
@@ -5998,7 +6020,7 @@
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
       <c r="D68" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E68" s="13"/>
       <c r="F68" s="13"/>
@@ -6016,7 +6038,7 @@
     <row r="69" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B69" s="13"/>
       <c r="C69" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D69" s="13"/>
       <c r="E69" s="13"/>
@@ -6034,7 +6056,7 @@
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B70" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
@@ -6087,7 +6109,7 @@
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B73" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C73" s="13"/>
       <c r="D73" s="13"/>
@@ -6106,7 +6128,7 @@
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B74" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
@@ -6126,7 +6148,7 @@
     <row r="75" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B75" s="13"/>
       <c r="C75" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D75" s="13"/>
       <c r="E75" s="13"/>
@@ -6145,7 +6167,7 @@
     <row r="76" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B76" s="13"/>
       <c r="C76" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
@@ -6164,7 +6186,7 @@
     <row r="77" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B77" s="13"/>
       <c r="C77" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
@@ -6184,7 +6206,7 @@
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
       <c r="D78" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
@@ -6202,7 +6224,7 @@
     <row r="79" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B79" s="13"/>
       <c r="C79" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
@@ -6222,7 +6244,7 @@
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
       <c r="D80" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E80" s="13"/>
       <c r="F80" s="13"/>
@@ -6240,7 +6262,7 @@
     <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B81" s="13"/>
       <c r="C81" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="13"/>
@@ -6258,7 +6280,7 @@
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B82" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C82" s="13"/>
       <c r="D82" s="13"/>
@@ -6311,7 +6333,7 @@
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B85" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C85" s="13"/>
       <c r="D85" s="13"/>
@@ -6330,7 +6352,7 @@
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B86" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
@@ -6350,7 +6372,7 @@
     <row r="87" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B87" s="13"/>
       <c r="C87" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D87" s="13"/>
       <c r="E87" s="13"/>
@@ -6369,7 +6391,7 @@
     <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B88" s="13"/>
       <c r="C88" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D88" s="13"/>
       <c r="E88" s="13"/>
@@ -6388,7 +6410,7 @@
     <row r="89" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B89" s="13"/>
       <c r="C89" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D89" s="13"/>
       <c r="E89" s="13"/>
@@ -6408,7 +6430,7 @@
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
       <c r="D90" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E90" s="13"/>
       <c r="F90" s="13"/>
@@ -6426,7 +6448,7 @@
     <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B91" s="13"/>
       <c r="C91" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D91" s="13"/>
       <c r="E91" s="13"/>
@@ -6446,7 +6468,7 @@
       <c r="B92" s="13"/>
       <c r="C92" s="13"/>
       <c r="D92" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E92" s="13"/>
       <c r="F92" s="13"/>
@@ -6464,7 +6486,7 @@
     <row r="93" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B93" s="13"/>
       <c r="C93" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D93" s="13"/>
       <c r="E93" s="13"/>
@@ -6482,7 +6504,7 @@
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B94" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C94" s="13"/>
       <c r="D94" s="13"/>
@@ -6518,7 +6540,7 @@
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B96" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C96" s="13"/>
       <c r="D96" s="13"/>
@@ -6537,7 +6559,7 @@
     </row>
     <row r="97" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B97" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C97" s="13"/>
       <c r="D97" s="13"/>
@@ -6557,7 +6579,7 @@
     <row r="98" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B98" s="13"/>
       <c r="C98" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D98" s="13"/>
       <c r="E98" s="13"/>
@@ -6593,7 +6615,7 @@
     <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B100" s="13"/>
       <c r="C100" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D100" s="13"/>
       <c r="E100" s="13"/>
@@ -6612,7 +6634,7 @@
     <row r="101" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B101" s="13"/>
       <c r="C101" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D101" s="13"/>
       <c r="E101" s="13"/>
@@ -6632,7 +6654,7 @@
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
       <c r="D102" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E102" s="13"/>
       <c r="F102" s="13"/>
@@ -6650,7 +6672,7 @@
     <row r="103" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B103" s="13"/>
       <c r="C103" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D103" s="13"/>
       <c r="E103" s="13"/>
@@ -6670,7 +6692,7 @@
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
       <c r="D104" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E104" s="13"/>
       <c r="F104" s="13"/>
@@ -6688,7 +6710,7 @@
     <row r="105" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B105" s="13"/>
       <c r="C105" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D105" s="13"/>
       <c r="E105" s="13"/>
@@ -6706,7 +6728,7 @@
     </row>
     <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B106" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C106" s="13"/>
       <c r="D106" s="13"/>
@@ -6759,7 +6781,7 @@
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B109" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C109" s="13"/>
       <c r="D109" s="13"/>
@@ -6778,7 +6800,7 @@
     </row>
     <row r="110" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B110" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C110" s="13"/>
       <c r="D110" s="13"/>
@@ -6798,7 +6820,7 @@
     <row r="111" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B111" s="13"/>
       <c r="C111" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D111" s="13"/>
       <c r="E111" s="13"/>
@@ -6817,7 +6839,7 @@
     <row r="112" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B112" s="13"/>
       <c r="C112" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D112" s="13"/>
       <c r="E112" s="13"/>
@@ -6836,7 +6858,7 @@
     <row r="113" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B113" s="13"/>
       <c r="C113" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D113" s="13"/>
       <c r="E113" s="13"/>
@@ -6856,7 +6878,7 @@
       <c r="B114" s="13"/>
       <c r="C114" s="13"/>
       <c r="D114" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E114" s="13"/>
       <c r="F114" s="13"/>
@@ -6874,7 +6896,7 @@
     <row r="115" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B115" s="13"/>
       <c r="C115" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D115" s="13"/>
       <c r="E115" s="13"/>
@@ -6894,7 +6916,7 @@
       <c r="B116" s="13"/>
       <c r="C116" s="13"/>
       <c r="D116" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E116" s="13"/>
       <c r="F116" s="13"/>
@@ -6912,7 +6934,7 @@
     <row r="117" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B117" s="13"/>
       <c r="C117" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D117" s="13"/>
       <c r="E117" s="13"/>
@@ -6930,7 +6952,7 @@
     </row>
     <row r="118" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B118" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C118" s="13"/>
       <c r="D118" s="13"/>
@@ -7000,7 +7022,7 @@
     </row>
     <row r="122" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B122" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C122" s="13"/>
       <c r="D122" s="13"/>
@@ -7019,7 +7041,7 @@
     </row>
     <row r="123" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B123" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C123" s="13"/>
       <c r="D123" s="13"/>
@@ -7038,7 +7060,7 @@
     </row>
     <row r="124" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B124" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C124" s="13"/>
       <c r="D124" s="13"/>
@@ -7058,7 +7080,7 @@
     <row r="125" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B125" s="13"/>
       <c r="C125" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D125" s="13"/>
       <c r="E125" s="13"/>
@@ -7077,7 +7099,7 @@
     <row r="126" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B126" s="13"/>
       <c r="C126" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D126" s="13"/>
       <c r="E126" s="13"/>
@@ -7096,7 +7118,7 @@
     <row r="127" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B127" s="13"/>
       <c r="C127" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D127" s="13"/>
       <c r="E127" s="13"/>
@@ -7115,7 +7137,7 @@
     <row r="128" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B128" s="13"/>
       <c r="C128" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D128" s="13"/>
       <c r="E128" s="13"/>
@@ -7135,7 +7157,7 @@
       <c r="B129" s="13"/>
       <c r="C129" s="13"/>
       <c r="D129" s="13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E129" s="13"/>
       <c r="F129" s="13"/>
@@ -7153,7 +7175,7 @@
     <row r="130" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B130" s="13"/>
       <c r="C130" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D130" s="13"/>
       <c r="E130" s="13"/>
@@ -7173,7 +7195,7 @@
       <c r="B131" s="13"/>
       <c r="C131" s="13"/>
       <c r="D131" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E131" s="13"/>
       <c r="F131" s="13"/>
@@ -7191,7 +7213,7 @@
     <row r="132" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B132" s="13"/>
       <c r="C132" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D132" s="13"/>
       <c r="E132" s="13"/>
@@ -7209,7 +7231,7 @@
     </row>
     <row r="133" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B133" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C133" s="13"/>
       <c r="D133" s="13"/>
@@ -7245,7 +7267,7 @@
     </row>
     <row r="135" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B135" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C135" s="13"/>
       <c r="D135" s="13"/>
@@ -7264,7 +7286,7 @@
     </row>
     <row r="136" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B136" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C136" s="17"/>
       <c r="D136" s="17"/>
@@ -7283,7 +7305,7 @@
     </row>
     <row r="137" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B137" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C137" s="13"/>
       <c r="D137" s="13"/>
@@ -7303,7 +7325,7 @@
     <row r="138" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B138" s="13"/>
       <c r="C138" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D138" s="13"/>
       <c r="E138" s="13"/>
@@ -7322,7 +7344,7 @@
     <row r="139" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B139" s="13"/>
       <c r="C139" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D139" s="13"/>
       <c r="E139" s="13"/>
@@ -7341,7 +7363,7 @@
     <row r="140" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B140" s="13"/>
       <c r="C140" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D140" s="13"/>
       <c r="E140" s="13"/>
@@ -7360,7 +7382,7 @@
     <row r="141" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B141" s="13"/>
       <c r="C141" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D141" s="13"/>
       <c r="E141" s="13"/>
@@ -7379,7 +7401,7 @@
     <row r="142" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B142" s="13"/>
       <c r="C142" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D142" s="13"/>
       <c r="E142" s="13"/>
@@ -7415,7 +7437,7 @@
     <row r="144" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B144" s="13"/>
       <c r="C144" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D144" s="13"/>
       <c r="E144" s="13"/>
@@ -7434,7 +7456,7 @@
     <row r="145" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B145" s="13"/>
       <c r="C145" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D145" s="13"/>
       <c r="E145" s="13"/>
@@ -7453,7 +7475,7 @@
     <row r="146" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B146" s="13"/>
       <c r="C146" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D146" s="13"/>
       <c r="E146" s="13"/>
@@ -7472,7 +7494,7 @@
     <row r="147" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B147" s="13"/>
       <c r="C147" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D147" s="13"/>
       <c r="E147" s="13"/>
@@ -7491,7 +7513,7 @@
     <row r="148" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B148" s="13"/>
       <c r="C148" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D148" s="13"/>
       <c r="E148" s="13"/>
@@ -7510,7 +7532,7 @@
     <row r="149" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B149" s="13"/>
       <c r="C149" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D149" s="13"/>
       <c r="E149" s="13"/>
@@ -7546,7 +7568,7 @@
     <row r="151" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B151" s="13"/>
       <c r="C151" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D151" s="13"/>
       <c r="E151" s="13"/>
@@ -7565,7 +7587,7 @@
     <row r="152" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B152" s="13"/>
       <c r="C152" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D152" s="13"/>
       <c r="E152" s="13"/>
@@ -7584,7 +7606,7 @@
     <row r="153" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B153" s="13"/>
       <c r="C153" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D153" s="13"/>
       <c r="E153" s="13"/>
@@ -7604,7 +7626,7 @@
       <c r="B154" s="13"/>
       <c r="C154" s="13"/>
       <c r="D154" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E154" s="13"/>
       <c r="F154" s="13"/>
@@ -7623,7 +7645,7 @@
       <c r="B155" s="13"/>
       <c r="C155" s="13"/>
       <c r="D155" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E155" s="13"/>
       <c r="F155" s="13"/>
@@ -7642,7 +7664,7 @@
       <c r="B156" s="13"/>
       <c r="C156" s="13"/>
       <c r="D156" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E156" s="13"/>
       <c r="F156" s="13"/>
@@ -7661,7 +7683,7 @@
       <c r="B157" s="13"/>
       <c r="C157" s="13"/>
       <c r="D157" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E157" s="13"/>
       <c r="F157" s="13"/>
@@ -7681,7 +7703,7 @@
       <c r="C158" s="13"/>
       <c r="D158" s="13"/>
       <c r="E158" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F158" s="13"/>
       <c r="G158" s="13"/>
@@ -7700,7 +7722,7 @@
       <c r="C159" s="13"/>
       <c r="D159" s="13"/>
       <c r="E159" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F159" s="13"/>
       <c r="G159" s="13"/>
@@ -7718,7 +7740,7 @@
       <c r="B160" s="13"/>
       <c r="C160" s="13"/>
       <c r="D160" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E160" s="13"/>
       <c r="F160" s="13"/>
@@ -7738,7 +7760,7 @@
       <c r="C161" s="13"/>
       <c r="D161" s="13"/>
       <c r="E161" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F161" s="13"/>
       <c r="G161" s="13"/>
@@ -7757,7 +7779,7 @@
       <c r="C162" s="13"/>
       <c r="D162" s="13"/>
       <c r="E162" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F162" s="13"/>
       <c r="G162" s="13"/>
@@ -7775,7 +7797,7 @@
       <c r="B163" s="13"/>
       <c r="C163" s="13"/>
       <c r="D163" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E163" s="13"/>
       <c r="F163" s="13"/>
@@ -7795,7 +7817,7 @@
       <c r="C164" s="13"/>
       <c r="D164" s="13"/>
       <c r="E164" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F164" s="13"/>
       <c r="G164" s="13"/>
@@ -7830,7 +7852,7 @@
       <c r="B166" s="13"/>
       <c r="C166" s="13"/>
       <c r="D166" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E166" s="13"/>
       <c r="F166" s="13"/>
@@ -7849,7 +7871,7 @@
       <c r="B167" s="13"/>
       <c r="C167" s="13"/>
       <c r="D167" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E167" s="13"/>
       <c r="F167" s="13"/>
@@ -7869,7 +7891,7 @@
       <c r="C168" s="13"/>
       <c r="D168" s="13"/>
       <c r="E168" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F168" s="13"/>
       <c r="G168" s="13"/>
@@ -7888,7 +7910,7 @@
       <c r="C169" s="13"/>
       <c r="D169" s="13"/>
       <c r="E169" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F169" s="13"/>
       <c r="G169" s="13"/>
@@ -7907,7 +7929,7 @@
       <c r="C170" s="13"/>
       <c r="D170" s="13"/>
       <c r="E170" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F170" s="13"/>
       <c r="G170" s="13"/>
@@ -7926,7 +7948,7 @@
       <c r="C171" s="13"/>
       <c r="D171" s="13"/>
       <c r="E171" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F171" s="13"/>
       <c r="G171" s="13"/>
@@ -7945,7 +7967,7 @@
       <c r="C172" s="13"/>
       <c r="D172" s="13"/>
       <c r="E172" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F172" s="13"/>
       <c r="G172" s="13"/>
@@ -7965,7 +7987,7 @@
       <c r="D173" s="13"/>
       <c r="E173" s="13"/>
       <c r="F173" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G173" s="13"/>
       <c r="H173" s="13"/>
@@ -7983,7 +8005,7 @@
       <c r="C174" s="13"/>
       <c r="D174" s="13"/>
       <c r="E174" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F174" s="13"/>
       <c r="G174" s="13"/>
@@ -8019,7 +8041,7 @@
       <c r="C176" s="13"/>
       <c r="D176" s="13"/>
       <c r="E176" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F176" s="13"/>
       <c r="G176" s="13"/>
@@ -8038,7 +8060,7 @@
       <c r="C177" s="13"/>
       <c r="D177" s="13"/>
       <c r="E177" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F177" s="13"/>
       <c r="G177" s="13"/>
@@ -8057,7 +8079,7 @@
       <c r="C178" s="13"/>
       <c r="D178" s="13"/>
       <c r="E178" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F178" s="13"/>
       <c r="G178" s="13"/>
@@ -8077,7 +8099,7 @@
       <c r="D179" s="13"/>
       <c r="E179" s="13"/>
       <c r="F179" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G179" s="13"/>
       <c r="H179" s="13"/>
@@ -8096,7 +8118,7 @@
       <c r="D180" s="13"/>
       <c r="E180" s="13"/>
       <c r="F180" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G180" s="13"/>
       <c r="H180" s="13"/>
@@ -8115,7 +8137,7 @@
       <c r="D181" s="13"/>
       <c r="E181" s="13"/>
       <c r="F181" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G181" s="13"/>
       <c r="H181" s="13"/>
@@ -8134,7 +8156,7 @@
       <c r="D182" s="13"/>
       <c r="E182" s="13"/>
       <c r="F182" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G182" s="13"/>
       <c r="H182" s="13"/>
@@ -8170,7 +8192,7 @@
       <c r="D184" s="13"/>
       <c r="E184" s="13"/>
       <c r="F184" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G184" s="13"/>
       <c r="H184" s="13"/>
@@ -8191,7 +8213,7 @@
       <c r="F185" s="13"/>
       <c r="G185" s="13"/>
       <c r="H185" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I185" s="13"/>
       <c r="J185" s="13"/>
@@ -8210,7 +8232,7 @@
       <c r="F186" s="13"/>
       <c r="G186" s="13"/>
       <c r="H186" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I186" s="13"/>
       <c r="J186" s="13"/>
@@ -8229,7 +8251,7 @@
       <c r="F187" s="13"/>
       <c r="G187" s="13"/>
       <c r="H187" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I187" s="13"/>
       <c r="J187" s="13"/>
@@ -8246,7 +8268,7 @@
       <c r="D188" s="13"/>
       <c r="E188" s="13"/>
       <c r="F188" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G188" s="13"/>
       <c r="H188" s="13"/>
@@ -8265,7 +8287,7 @@
       <c r="D189" s="13"/>
       <c r="E189" s="13"/>
       <c r="F189" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G189" s="13"/>
       <c r="H189" s="13"/>
@@ -8285,7 +8307,7 @@
       <c r="E190" s="13"/>
       <c r="F190" s="13"/>
       <c r="G190" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H190" s="13"/>
       <c r="I190" s="13"/>
@@ -8303,7 +8325,7 @@
       <c r="D191" s="13"/>
       <c r="E191" s="13"/>
       <c r="F191" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G191" s="13"/>
       <c r="H191" s="13"/>
@@ -8321,7 +8343,7 @@
       <c r="C192" s="13"/>
       <c r="D192" s="13"/>
       <c r="E192" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F192" s="13"/>
       <c r="G192" s="13"/>
@@ -8339,7 +8361,7 @@
       <c r="B193" s="13"/>
       <c r="C193" s="13"/>
       <c r="D193" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E193" s="13"/>
       <c r="F193" s="13"/>
@@ -8391,7 +8413,7 @@
     <row r="196" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B196" s="13"/>
       <c r="C196" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D196" s="13"/>
       <c r="E196" s="13"/>
@@ -8410,7 +8432,7 @@
     <row r="197" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B197" s="13"/>
       <c r="C197" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D197" s="13"/>
       <c r="E197" s="13"/>
@@ -8429,7 +8451,7 @@
     <row r="198" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B198" s="13"/>
       <c r="C198" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D198" s="13"/>
       <c r="E198" s="13"/>
@@ -8449,7 +8471,7 @@
       <c r="B199" s="13"/>
       <c r="C199" s="13"/>
       <c r="D199" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E199" s="13"/>
       <c r="F199" s="13"/>
@@ -8469,7 +8491,7 @@
       <c r="C200" s="13"/>
       <c r="D200" s="13"/>
       <c r="E200" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F200" s="13"/>
       <c r="G200" s="13"/>
@@ -8488,7 +8510,7 @@
       <c r="C201" s="13"/>
       <c r="D201" s="13"/>
       <c r="E201" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F201" s="13"/>
       <c r="G201" s="13"/>
@@ -8506,7 +8528,7 @@
       <c r="B202" s="13"/>
       <c r="C202" s="13"/>
       <c r="D202" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E202" s="13"/>
       <c r="F202" s="13"/>
@@ -8526,7 +8548,7 @@
       <c r="C203" s="13"/>
       <c r="D203" s="13"/>
       <c r="E203" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F203" s="13"/>
       <c r="G203" s="13"/>
@@ -8545,7 +8567,7 @@
       <c r="C204" s="13"/>
       <c r="D204" s="13"/>
       <c r="E204" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F204" s="13"/>
       <c r="G204" s="13"/>
@@ -8563,7 +8585,7 @@
       <c r="B205" s="13"/>
       <c r="C205" s="13"/>
       <c r="D205" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E205" s="13"/>
       <c r="F205" s="13"/>
@@ -8583,7 +8605,7 @@
       <c r="C206" s="13"/>
       <c r="D206" s="13"/>
       <c r="E206" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F206" s="13"/>
       <c r="G206" s="13"/>
@@ -8600,7 +8622,7 @@
     <row r="207" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B207" s="13"/>
       <c r="C207" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D207" s="13"/>
       <c r="E207" s="13"/>
@@ -8636,7 +8658,7 @@
     <row r="209" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B209" s="13"/>
       <c r="C209" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D209" s="13"/>
       <c r="E209" s="13"/>
@@ -8671,7 +8693,7 @@
     </row>
     <row r="211" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B211" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C211" s="13"/>
       <c r="D211" s="13"/>
@@ -8707,7 +8729,7 @@
     </row>
     <row r="213" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B213" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C213" s="17"/>
       <c r="D213" s="17"/>
@@ -8726,7 +8748,7 @@
     </row>
     <row r="214" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B214" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C214" s="13"/>
       <c r="D214" s="13"/>
@@ -8746,7 +8768,7 @@
     <row r="215" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B215" s="13"/>
       <c r="C215" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D215" s="13"/>
       <c r="E215" s="13"/>
@@ -8765,7 +8787,7 @@
     <row r="216" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B216" s="13"/>
       <c r="C216" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D216" s="13"/>
       <c r="E216" s="13"/>
@@ -8784,7 +8806,7 @@
     <row r="217" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B217" s="13"/>
       <c r="C217" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D217" s="13"/>
       <c r="E217" s="13"/>
@@ -8803,7 +8825,7 @@
     <row r="218" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B218" s="13"/>
       <c r="C218" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D218" s="13"/>
       <c r="E218" s="13"/>
@@ -8839,7 +8861,7 @@
     <row r="220" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B220" s="13"/>
       <c r="C220" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D220" s="13"/>
       <c r="E220" s="13"/>
@@ -8858,7 +8880,7 @@
     <row r="221" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B221" s="13"/>
       <c r="C221" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D221" s="13"/>
       <c r="E221" s="13"/>
@@ -8877,7 +8899,7 @@
     <row r="222" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B222" s="13"/>
       <c r="C222" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D222" s="13"/>
       <c r="E222" s="13"/>
@@ -8896,7 +8918,7 @@
     <row r="223" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B223" s="13"/>
       <c r="C223" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D223" s="13"/>
       <c r="E223" s="13"/>
@@ -8915,7 +8937,7 @@
     <row r="224" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B224" s="13"/>
       <c r="C224" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D224" s="13"/>
       <c r="E224" s="13"/>
@@ -8934,7 +8956,7 @@
     <row r="225" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B225" s="13"/>
       <c r="C225" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D225" s="13"/>
       <c r="E225" s="13"/>
@@ -8970,7 +8992,7 @@
     <row r="227" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B227" s="13"/>
       <c r="C227" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D227" s="13"/>
       <c r="E227" s="13"/>
@@ -8989,7 +9011,7 @@
     <row r="228" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B228" s="13"/>
       <c r="C228" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D228" s="13"/>
       <c r="E228" s="13"/>
@@ -9008,7 +9030,7 @@
     <row r="229" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B229" s="13"/>
       <c r="C229" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D229" s="13"/>
       <c r="E229" s="13"/>
@@ -9028,7 +9050,7 @@
       <c r="B230" s="13"/>
       <c r="C230" s="13"/>
       <c r="D230" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E230" s="13"/>
       <c r="F230" s="13"/>
@@ -9047,7 +9069,7 @@
       <c r="B231" s="13"/>
       <c r="C231" s="13"/>
       <c r="D231" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E231" s="13"/>
       <c r="F231" s="13"/>
@@ -9066,7 +9088,7 @@
       <c r="B232" s="13"/>
       <c r="C232" s="13"/>
       <c r="D232" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E232" s="13"/>
       <c r="F232" s="13"/>
@@ -9085,7 +9107,7 @@
       <c r="B233" s="13"/>
       <c r="C233" s="13"/>
       <c r="D233" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E233" s="13"/>
       <c r="F233" s="13"/>
@@ -9122,7 +9144,7 @@
       <c r="C235" s="13"/>
       <c r="D235" s="13"/>
       <c r="E235" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F235" s="13"/>
       <c r="G235" s="13"/>
@@ -9140,7 +9162,7 @@
       <c r="B236" s="13"/>
       <c r="C236" s="13"/>
       <c r="D236" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E236" s="13"/>
       <c r="F236" s="13"/>
@@ -9160,7 +9182,7 @@
       <c r="C237" s="13"/>
       <c r="D237" s="13"/>
       <c r="E237" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F237" s="13"/>
       <c r="G237" s="13"/>
@@ -9178,7 +9200,7 @@
       <c r="B238" s="13"/>
       <c r="C238" s="13"/>
       <c r="D238" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E238" s="13"/>
       <c r="F238" s="13"/>
@@ -9198,7 +9220,7 @@
       <c r="C239" s="13"/>
       <c r="D239" s="13"/>
       <c r="E239" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F239" s="13"/>
       <c r="G239" s="13"/>
@@ -9233,7 +9255,7 @@
       <c r="B241" s="13"/>
       <c r="C241" s="13"/>
       <c r="D241" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E241" s="13"/>
       <c r="F241" s="13"/>
@@ -9252,7 +9274,7 @@
       <c r="B242" s="13"/>
       <c r="C242" s="13"/>
       <c r="D242" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E242" s="13"/>
       <c r="F242" s="13"/>
@@ -9272,7 +9294,7 @@
       <c r="C243" s="13"/>
       <c r="D243" s="13"/>
       <c r="E243" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F243" s="13"/>
       <c r="G243" s="13"/>
@@ -9291,7 +9313,7 @@
       <c r="C244" s="13"/>
       <c r="D244" s="13"/>
       <c r="E244" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F244" s="13"/>
       <c r="G244" s="13"/>
@@ -9310,7 +9332,7 @@
       <c r="C245" s="13"/>
       <c r="D245" s="13"/>
       <c r="E245" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F245" s="13"/>
       <c r="G245" s="13"/>
@@ -9329,7 +9351,7 @@
       <c r="C246" s="13"/>
       <c r="D246" s="13"/>
       <c r="E246" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F246" s="13"/>
       <c r="G246" s="13"/>
@@ -9348,7 +9370,7 @@
       <c r="C247" s="13"/>
       <c r="D247" s="13"/>
       <c r="E247" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F247" s="13"/>
       <c r="G247" s="13"/>
@@ -9368,7 +9390,7 @@
       <c r="D248" s="13"/>
       <c r="E248" s="13"/>
       <c r="F248" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G248" s="13"/>
       <c r="H248" s="13"/>
@@ -9386,7 +9408,7 @@
       <c r="C249" s="13"/>
       <c r="D249" s="13"/>
       <c r="E249" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F249" s="13"/>
       <c r="G249" s="13"/>
@@ -9422,7 +9444,7 @@
       <c r="C251" s="13"/>
       <c r="D251" s="13"/>
       <c r="E251" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F251" s="13"/>
       <c r="G251" s="13"/>
@@ -9441,7 +9463,7 @@
       <c r="C252" s="13"/>
       <c r="D252" s="13"/>
       <c r="E252" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F252" s="13"/>
       <c r="G252" s="13"/>
@@ -9460,7 +9482,7 @@
       <c r="C253" s="13"/>
       <c r="D253" s="13"/>
       <c r="E253" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F253" s="13"/>
       <c r="G253" s="13"/>
@@ -9480,7 +9502,7 @@
       <c r="D254" s="13"/>
       <c r="E254" s="13"/>
       <c r="F254" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G254" s="13"/>
       <c r="H254" s="13"/>
@@ -9499,7 +9521,7 @@
       <c r="D255" s="13"/>
       <c r="E255" s="13"/>
       <c r="F255" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G255" s="13"/>
       <c r="H255" s="13"/>
@@ -9518,7 +9540,7 @@
       <c r="D256" s="13"/>
       <c r="E256" s="13"/>
       <c r="F256" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G256" s="13"/>
       <c r="H256" s="13"/>
@@ -9537,7 +9559,7 @@
       <c r="D257" s="13"/>
       <c r="E257" s="13"/>
       <c r="F257" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G257" s="13"/>
       <c r="H257" s="13"/>
@@ -9573,7 +9595,7 @@
       <c r="D259" s="13"/>
       <c r="E259" s="13"/>
       <c r="F259" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G259" s="13"/>
       <c r="H259" s="13"/>
@@ -9594,7 +9616,7 @@
       <c r="F260" s="13"/>
       <c r="G260" s="13"/>
       <c r="H260" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I260" s="13"/>
       <c r="J260" s="13"/>
@@ -9613,7 +9635,7 @@
       <c r="F261" s="13"/>
       <c r="G261" s="13"/>
       <c r="H261" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I261" s="13"/>
       <c r="J261" s="13"/>
@@ -9632,7 +9654,7 @@
       <c r="F262" s="13"/>
       <c r="G262" s="13"/>
       <c r="H262" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I262" s="13"/>
       <c r="J262" s="13"/>
@@ -9649,7 +9671,7 @@
       <c r="D263" s="13"/>
       <c r="E263" s="13"/>
       <c r="F263" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G263" s="13"/>
       <c r="H263" s="13"/>
@@ -9668,7 +9690,7 @@
       <c r="D264" s="13"/>
       <c r="E264" s="13"/>
       <c r="F264" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G264" s="13"/>
       <c r="H264" s="13"/>
@@ -9688,7 +9710,7 @@
       <c r="E265" s="13"/>
       <c r="F265" s="13"/>
       <c r="G265" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H265" s="13"/>
       <c r="I265" s="13"/>
@@ -9706,7 +9728,7 @@
       <c r="D266" s="13"/>
       <c r="E266" s="13"/>
       <c r="F266" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G266" s="13"/>
       <c r="H266" s="13"/>
@@ -9724,7 +9746,7 @@
       <c r="C267" s="13"/>
       <c r="D267" s="13"/>
       <c r="E267" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F267" s="13"/>
       <c r="G267" s="13"/>
@@ -9742,7 +9764,7 @@
       <c r="B268" s="13"/>
       <c r="C268" s="13"/>
       <c r="D268" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E268" s="13"/>
       <c r="F268" s="13"/>
@@ -9794,7 +9816,7 @@
     <row r="271" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B271" s="13"/>
       <c r="C271" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D271" s="13"/>
       <c r="E271" s="13"/>
@@ -9813,7 +9835,7 @@
     <row r="272" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B272" s="13"/>
       <c r="C272" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D272" s="13"/>
       <c r="E272" s="13"/>
@@ -9832,7 +9854,7 @@
     <row r="273" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B273" s="13"/>
       <c r="C273" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D273" s="13"/>
       <c r="E273" s="13"/>
@@ -9852,7 +9874,7 @@
       <c r="B274" s="13"/>
       <c r="C274" s="13"/>
       <c r="D274" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E274" s="13"/>
       <c r="F274" s="13"/>
@@ -9872,7 +9894,7 @@
       <c r="C275" s="13"/>
       <c r="D275" s="13"/>
       <c r="E275" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F275" s="13"/>
       <c r="G275" s="13"/>
@@ -9891,7 +9913,7 @@
       <c r="C276" s="13"/>
       <c r="D276" s="13"/>
       <c r="E276" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F276" s="13"/>
       <c r="G276" s="13"/>
@@ -9909,7 +9931,7 @@
       <c r="B277" s="13"/>
       <c r="C277" s="13"/>
       <c r="D277" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E277" s="13"/>
       <c r="F277" s="13"/>
@@ -9929,7 +9951,7 @@
       <c r="C278" s="13"/>
       <c r="D278" s="13"/>
       <c r="E278" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F278" s="13"/>
       <c r="G278" s="13"/>
@@ -9948,7 +9970,7 @@
       <c r="C279" s="13"/>
       <c r="D279" s="13"/>
       <c r="E279" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F279" s="13"/>
       <c r="G279" s="13"/>
@@ -9966,7 +9988,7 @@
       <c r="B280" s="13"/>
       <c r="C280" s="13"/>
       <c r="D280" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E280" s="13"/>
       <c r="F280" s="13"/>
@@ -9986,7 +10008,7 @@
       <c r="C281" s="13"/>
       <c r="D281" s="13"/>
       <c r="E281" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F281" s="13"/>
       <c r="G281" s="13"/>
@@ -10003,7 +10025,7 @@
     <row r="282" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B282" s="13"/>
       <c r="C282" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D282" s="13"/>
       <c r="E282" s="13"/>
@@ -10039,7 +10061,7 @@
     <row r="284" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B284" s="13"/>
       <c r="C284" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D284" s="13"/>
       <c r="E284" s="13"/>
@@ -10057,7 +10079,7 @@
     </row>
     <row r="285" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B285" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C285" s="13"/>
       <c r="D285" s="13"/>
@@ -10093,7 +10115,7 @@
     </row>
     <row r="287" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B287" s="17" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C287" s="17"/>
       <c r="D287" s="17"/>
@@ -10112,7 +10134,7 @@
     </row>
     <row r="288" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B288" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C288" s="13"/>
       <c r="D288" s="13"/>
@@ -10149,7 +10171,7 @@
     <row r="290" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B290" s="13"/>
       <c r="C290" s="13" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D290" s="13"/>
       <c r="E290" s="13"/>
@@ -10168,7 +10190,7 @@
     <row r="291" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B291" s="13"/>
       <c r="C291" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D291" s="13"/>
       <c r="E291" s="13"/>
@@ -10188,7 +10210,7 @@
       <c r="B292" s="13"/>
       <c r="C292" s="13"/>
       <c r="D292" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E292" s="13"/>
       <c r="F292" s="13"/>
@@ -10207,7 +10229,7 @@
       <c r="B293" s="13"/>
       <c r="C293" s="13"/>
       <c r="D293" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E293" s="13"/>
       <c r="F293" s="13"/>
@@ -10225,7 +10247,7 @@
     <row r="294" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B294" s="13"/>
       <c r="C294" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D294" s="13"/>
       <c r="E294" s="13"/>
@@ -10244,7 +10266,7 @@
     <row r="295" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B295" s="13"/>
       <c r="C295" s="13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D295" s="13"/>
       <c r="E295" s="13"/>
@@ -10263,7 +10285,7 @@
     <row r="296" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B296" s="13"/>
       <c r="C296" s="13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D296" s="13"/>
       <c r="E296" s="13"/>
@@ -10282,7 +10304,7 @@
     <row r="297" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B297" s="13"/>
       <c r="C297" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D297" s="13"/>
       <c r="E297" s="13"/>
@@ -10301,7 +10323,7 @@
     <row r="298" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B298" s="13"/>
       <c r="C298" s="13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D298" s="13"/>
       <c r="E298" s="13"/>
@@ -10337,7 +10359,7 @@
     <row r="300" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B300" s="13"/>
       <c r="C300" s="13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D300" s="13"/>
       <c r="E300" s="13"/>
@@ -10356,7 +10378,7 @@
     <row r="301" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B301" s="13"/>
       <c r="C301" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D301" s="13"/>
       <c r="E301" s="13"/>
@@ -10392,7 +10414,7 @@
     <row r="303" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B303" s="13"/>
       <c r="C303" s="13" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D303" s="13"/>
       <c r="E303" s="13"/>
@@ -10411,7 +10433,7 @@
     <row r="304" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B304" s="13"/>
       <c r="C304" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D304" s="13"/>
       <c r="E304" s="13"/>
@@ -10431,7 +10453,7 @@
       <c r="B305" s="13"/>
       <c r="C305" s="13"/>
       <c r="D305" s="13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E305" s="13"/>
       <c r="F305" s="13"/>
@@ -10449,7 +10471,7 @@
     <row r="306" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B306" s="13"/>
       <c r="C306" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D306" s="13"/>
       <c r="E306" s="13"/>
@@ -10469,7 +10491,7 @@
       <c r="B307" s="13"/>
       <c r="C307" s="13"/>
       <c r="D307" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E307" s="13"/>
       <c r="F307" s="13"/>
@@ -10487,7 +10509,7 @@
     <row r="308" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B308" s="13"/>
       <c r="C308" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D308" s="13"/>
       <c r="E308" s="13"/>
@@ -10523,7 +10545,7 @@
     <row r="310" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B310" s="13"/>
       <c r="C310" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D310" s="13"/>
       <c r="E310" s="13"/>
@@ -10542,7 +10564,7 @@
     <row r="311" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B311" s="13"/>
       <c r="C311" s="13" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D311" s="13"/>
       <c r="E311" s="13"/>
@@ -10578,7 +10600,7 @@
     <row r="313" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B313" s="13"/>
       <c r="C313" s="13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D313" s="13"/>
       <c r="E313" s="13"/>
@@ -10597,7 +10619,7 @@
     <row r="314" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B314" s="13"/>
       <c r="C314" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D314" s="13"/>
       <c r="E314" s="13"/>
@@ -10616,7 +10638,7 @@
     <row r="315" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B315" s="13"/>
       <c r="C315" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D315" s="13"/>
       <c r="E315" s="13"/>
@@ -10635,8 +10657,8 @@
     <row r="316" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B316" s="13"/>
       <c r="C316" s="13"/>
-      <c r="D316" s="13" t="s">
-        <v>456</v>
+      <c r="D316" s="17" t="s">
+        <v>469</v>
       </c>
       <c r="E316" s="13"/>
       <c r="F316" s="13"/>
@@ -10654,8 +10676,8 @@
     <row r="317" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B317" s="13"/>
       <c r="C317" s="13"/>
-      <c r="D317" s="13" t="s">
-        <v>73</v>
+      <c r="D317" s="17" t="s">
+        <v>468</v>
       </c>
       <c r="E317" s="13"/>
       <c r="F317" s="13"/>
@@ -10673,7 +10695,9 @@
     <row r="318" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B318" s="13"/>
       <c r="C318" s="13"/>
-      <c r="D318" s="13"/>
+      <c r="D318" s="13" t="s">
+        <v>72</v>
+      </c>
       <c r="E318" s="13"/>
       <c r="F318" s="13"/>
       <c r="G318" s="13"/>
@@ -10692,7 +10716,7 @@
       <c r="C319" s="13"/>
       <c r="D319" s="13"/>
       <c r="E319" s="13" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F319" s="13"/>
       <c r="G319" s="13"/>
@@ -10711,7 +10735,7 @@
       <c r="C320" s="13"/>
       <c r="D320" s="13"/>
       <c r="E320" s="13" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F320" s="13"/>
       <c r="G320" s="13"/>
@@ -10745,10 +10769,10 @@
     <row r="322" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B322" s="13"/>
       <c r="C322" s="13"/>
-      <c r="D322" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E322" s="13"/>
+      <c r="D322" s="13"/>
+      <c r="E322" s="13" t="s">
+        <v>457</v>
+      </c>
       <c r="F322" s="13"/>
       <c r="G322" s="13"/>
       <c r="H322" s="13"/>
@@ -10763,11 +10787,11 @@
     </row>
     <row r="323" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B323" s="13"/>
-      <c r="C323" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="C323" s="13"/>
       <c r="D323" s="13"/>
-      <c r="E323" s="13"/>
+      <c r="E323" s="13" t="s">
+        <v>458</v>
+      </c>
       <c r="F323" s="13"/>
       <c r="G323" s="13"/>
       <c r="H323" s="13"/>
@@ -10784,7 +10808,9 @@
       <c r="B324" s="13"/>
       <c r="C324" s="13"/>
       <c r="D324" s="13"/>
-      <c r="E324" s="13"/>
+      <c r="E324" s="13" t="s">
+        <v>459</v>
+      </c>
       <c r="F324" s="13"/>
       <c r="G324" s="13"/>
       <c r="H324" s="13"/>
@@ -10799,10 +10825,10 @@
     </row>
     <row r="325" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B325" s="13"/>
-      <c r="C325" s="13" t="s">
-        <v>459</v>
-      </c>
-      <c r="D325" s="13"/>
+      <c r="C325" s="13"/>
+      <c r="D325" s="13" t="s">
+        <v>82</v>
+      </c>
       <c r="E325" s="13"/>
       <c r="F325" s="13"/>
       <c r="G325" s="13"/>
@@ -10819,7 +10845,7 @@
     <row r="326" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B326" s="13"/>
       <c r="C326" s="13" t="s">
-        <v>460</v>
+        <v>82</v>
       </c>
       <c r="D326" s="13"/>
       <c r="E326" s="13"/>
@@ -10838,7 +10864,7 @@
     <row r="327" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B327" s="13"/>
       <c r="C327" s="13" t="s">
-        <v>461</v>
+        <v>101</v>
       </c>
       <c r="D327" s="13"/>
       <c r="E327" s="13"/>
@@ -10856,7 +10882,7 @@
     </row>
     <row r="328" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B328" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C328" s="13"/>
       <c r="D328" s="13"/>
@@ -10909,7 +10935,7 @@
     </row>
     <row r="331" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B331" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C331" s="13"/>
       <c r="D331" s="13"/>
@@ -10946,7 +10972,7 @@
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -10960,7 +10986,7 @@
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -10974,7 +11000,7 @@
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -11000,7 +11026,7 @@
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -11014,7 +11040,7 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -11040,7 +11066,7 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -11054,7 +11080,7 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -11068,7 +11094,7 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -11118,7 +11144,7 @@
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -11132,7 +11158,7 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -11147,7 +11173,7 @@
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="13"/>
       <c r="C18" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
@@ -11161,7 +11187,7 @@
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="13"/>
       <c r="C19" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
@@ -11176,7 +11202,7 @@
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
@@ -11194,7 +11220,7 @@
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
@@ -11208,7 +11234,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
@@ -11222,7 +11248,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
@@ -11236,7 +11262,7 @@
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
@@ -11250,7 +11276,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
@@ -11264,7 +11290,7 @@
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
@@ -11278,7 +11304,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
@@ -11292,7 +11318,7 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
@@ -11306,7 +11332,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
@@ -11320,7 +11346,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
@@ -11334,7 +11360,7 @@
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
       <c r="H31" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I31" s="13"/>
       <c r="J31" s="13"/>
@@ -11348,7 +11374,7 @@
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I32" s="13"/>
       <c r="J32" s="13"/>
@@ -11362,7 +11388,7 @@
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I33" s="13"/>
       <c r="J33" s="13"/>
@@ -11376,7 +11402,7 @@
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
@@ -11390,7 +11416,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
@@ -11404,7 +11430,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I36" s="13"/>
       <c r="J36" s="13"/>
@@ -11418,7 +11444,7 @@
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
       <c r="H37" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I37" s="13"/>
       <c r="J37" s="13"/>
@@ -11432,7 +11458,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
       <c r="H38" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I38" s="13"/>
       <c r="J38" s="13"/>
@@ -11454,7 +11480,7 @@
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
@@ -11469,7 +11495,7 @@
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
@@ -11483,7 +11509,7 @@
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
@@ -11497,7 +11523,7 @@
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
@@ -11511,7 +11537,7 @@
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
@@ -11525,7 +11551,7 @@
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
@@ -11539,7 +11565,7 @@
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
       <c r="E46" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
@@ -11553,7 +11579,7 @@
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
       <c r="E47" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
@@ -11567,7 +11593,7 @@
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
       <c r="E48" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
@@ -11581,7 +11607,7 @@
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
@@ -11595,7 +11621,7 @@
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
@@ -11609,7 +11635,7 @@
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
@@ -11623,7 +11649,7 @@
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
       <c r="E52" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
@@ -11637,7 +11663,7 @@
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F53" s="13"/>
       <c r="G53" s="13"/>
@@ -11651,7 +11677,7 @@
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
@@ -11665,7 +11691,7 @@
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
       <c r="E55" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
@@ -11679,7 +11705,7 @@
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
@@ -11693,7 +11719,7 @@
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
       <c r="E57" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
@@ -11707,7 +11733,7 @@
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F58" s="13"/>
       <c r="G58" s="13"/>
@@ -11725,7 +11751,7 @@
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
       <c r="I59" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J59" s="13"/>
       <c r="K59" s="13"/>
@@ -11739,7 +11765,7 @@
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
       <c r="I60" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J60" s="13"/>
       <c r="K60" s="13"/>
@@ -11749,7 +11775,7 @@
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
       <c r="E61" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
@@ -11761,7 +11787,7 @@
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B62" s="13"/>
       <c r="C62" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="13"/>
@@ -11776,7 +11802,7 @@
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
       <c r="D63" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E63" s="13"/>
       <c r="F63" s="13"/>
@@ -11789,7 +11815,7 @@
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B64" s="13"/>
       <c r="C64" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="13"/>
@@ -11802,7 +11828,7 @@
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B65" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
@@ -11864,7 +11890,7 @@
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
@@ -11878,7 +11904,7 @@
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
@@ -11893,7 +11919,7 @@
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B72" s="13"/>
       <c r="C72" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13"/>
@@ -11907,7 +11933,7 @@
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B73" s="13"/>
       <c r="C73" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="13"/>
@@ -11922,7 +11948,7 @@
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
       <c r="D74" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E74" s="13"/>
       <c r="F74" s="13"/>
@@ -11940,7 +11966,7 @@
       <c r="F75" s="13"/>
       <c r="G75" s="13"/>
       <c r="H75" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I75" s="13"/>
       <c r="J75" s="13"/>
@@ -11954,7 +11980,7 @@
       <c r="F76" s="13"/>
       <c r="G76" s="13"/>
       <c r="H76" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I76" s="13"/>
       <c r="J76" s="13"/>
@@ -11964,7 +11990,7 @@
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
       <c r="D77" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E77" s="13"/>
       <c r="F77" s="13"/>
@@ -11980,7 +12006,7 @@
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
       <c r="F78" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G78" s="13"/>
       <c r="H78" s="13"/>
@@ -11994,7 +12020,7 @@
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
       <c r="F79" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G79" s="13"/>
       <c r="H79" s="13"/>
@@ -12008,7 +12034,7 @@
       <c r="D80" s="13"/>
       <c r="E80" s="13"/>
       <c r="F80" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G80" s="13"/>
       <c r="H80" s="13"/>
@@ -12031,7 +12057,7 @@
     <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" s="13"/>
       <c r="C82" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D82" s="13"/>
       <c r="E82" s="13"/>
@@ -12046,7 +12072,7 @@
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
       <c r="D83" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E83" s="13"/>
       <c r="F83" s="13"/>
@@ -12059,7 +12085,7 @@
     <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" s="13"/>
       <c r="C84" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="13"/>
@@ -12072,7 +12098,7 @@
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C85" s="13"/>
       <c r="D85" s="13"/>
@@ -12122,7 +12148,7 @@
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B89" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
@@ -12136,7 +12162,7 @@
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B90" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C90" s="13"/>
       <c r="D90" s="13"/>
@@ -12151,7 +12177,7 @@
     <row r="91" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B91" s="13"/>
       <c r="C91" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D91" s="13"/>
       <c r="E91" s="13"/>
@@ -12165,7 +12191,7 @@
     <row r="92" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B92" s="13"/>
       <c r="C92" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D92" s="13"/>
       <c r="E92" s="13"/>
@@ -12180,7 +12206,7 @@
       <c r="B93" s="13"/>
       <c r="C93" s="13"/>
       <c r="D93" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E93" s="13"/>
       <c r="F93" s="13"/>
@@ -12198,7 +12224,7 @@
       <c r="F94" s="13"/>
       <c r="G94" s="13"/>
       <c r="H94" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I94" s="13"/>
       <c r="J94" s="13"/>
@@ -12212,7 +12238,7 @@
       <c r="F95" s="13"/>
       <c r="G95" s="13"/>
       <c r="H95" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I95" s="13"/>
       <c r="J95" s="13"/>
@@ -12226,7 +12252,7 @@
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
       <c r="H96" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I96" s="13"/>
       <c r="J96" s="13"/>
@@ -12240,7 +12266,7 @@
       <c r="F97" s="13"/>
       <c r="G97" s="13"/>
       <c r="H97" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I97" s="13"/>
       <c r="J97" s="13"/>
@@ -12254,7 +12280,7 @@
       <c r="F98" s="13"/>
       <c r="G98" s="13"/>
       <c r="H98" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I98" s="13"/>
       <c r="J98" s="13"/>
@@ -12268,7 +12294,7 @@
       <c r="F99" s="13"/>
       <c r="G99" s="13"/>
       <c r="H99" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I99" s="13"/>
       <c r="J99" s="13"/>
@@ -12282,7 +12308,7 @@
       <c r="F100" s="13"/>
       <c r="G100" s="13"/>
       <c r="H100" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I100" s="13"/>
       <c r="J100" s="13"/>
@@ -12292,7 +12318,7 @@
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
       <c r="D101" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E101" s="13"/>
       <c r="F101" s="13"/>
@@ -12308,7 +12334,7 @@
       <c r="D102" s="13"/>
       <c r="E102" s="13"/>
       <c r="F102" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G102" s="13"/>
       <c r="H102" s="13"/>
@@ -12322,7 +12348,7 @@
       <c r="D103" s="13"/>
       <c r="E103" s="13"/>
       <c r="F103" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G103" s="13"/>
       <c r="H103" s="13"/>
@@ -12336,7 +12362,7 @@
       <c r="D104" s="13"/>
       <c r="E104" s="13"/>
       <c r="F104" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G104" s="13"/>
       <c r="H104" s="13"/>
@@ -12350,7 +12376,7 @@
       <c r="D105" s="13"/>
       <c r="E105" s="13"/>
       <c r="F105" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G105" s="13"/>
       <c r="H105" s="13"/>
@@ -12364,7 +12390,7 @@
       <c r="D106" s="13"/>
       <c r="E106" s="13"/>
       <c r="F106" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G106" s="13"/>
       <c r="H106" s="13"/>
@@ -12378,7 +12404,7 @@
       <c r="D107" s="13"/>
       <c r="E107" s="13"/>
       <c r="F107" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G107" s="13"/>
       <c r="H107" s="13"/>
@@ -12392,7 +12418,7 @@
       <c r="D108" s="13"/>
       <c r="E108" s="13"/>
       <c r="F108" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G108" s="13"/>
       <c r="H108" s="13"/>
@@ -12415,7 +12441,7 @@
     <row r="110" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B110" s="13"/>
       <c r="C110" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D110" s="13"/>
       <c r="E110" s="13"/>
@@ -12430,7 +12456,7 @@
       <c r="B111" s="13"/>
       <c r="C111" s="13"/>
       <c r="D111" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E111" s="13"/>
       <c r="F111" s="13"/>
@@ -12443,7 +12469,7 @@
     <row r="112" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B112" s="13"/>
       <c r="C112" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D112" s="13"/>
       <c r="E112" s="13"/>
@@ -12456,7 +12482,7 @@
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B113" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C113" s="13"/>
       <c r="D113" s="13"/>
@@ -12506,7 +12532,7 @@
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B117" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C117" s="13"/>
       <c r="D117" s="13"/>
@@ -12520,7 +12546,7 @@
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B118" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C118" s="13"/>
       <c r="D118" s="13"/>
@@ -12535,7 +12561,7 @@
     <row r="119" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B119" s="13"/>
       <c r="C119" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D119" s="13"/>
       <c r="E119" s="13"/>
@@ -12549,7 +12575,7 @@
     <row r="120" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B120" s="13"/>
       <c r="C120" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D120" s="13"/>
       <c r="E120" s="13"/>
@@ -12564,7 +12590,7 @@
       <c r="B121" s="13"/>
       <c r="C121" s="13"/>
       <c r="D121" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E121" s="13"/>
       <c r="F121" s="13"/>
@@ -12582,7 +12608,7 @@
       <c r="F122" s="13"/>
       <c r="G122" s="13"/>
       <c r="H122" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I122" s="13"/>
       <c r="J122" s="13"/>
@@ -12596,7 +12622,7 @@
       <c r="F123" s="13"/>
       <c r="G123" s="13"/>
       <c r="H123" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I123" s="13"/>
       <c r="J123" s="13"/>
@@ -12610,7 +12636,7 @@
       <c r="F124" s="13"/>
       <c r="G124" s="13"/>
       <c r="H124" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I124" s="13"/>
       <c r="J124" s="13"/>
@@ -12624,7 +12650,7 @@
       <c r="F125" s="13"/>
       <c r="G125" s="13"/>
       <c r="H125" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I125" s="13"/>
       <c r="J125" s="13"/>
@@ -12638,7 +12664,7 @@
       <c r="F126" s="13"/>
       <c r="G126" s="13"/>
       <c r="H126" s="13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I126" s="13"/>
       <c r="J126" s="13"/>
@@ -12652,7 +12678,7 @@
       <c r="F127" s="13"/>
       <c r="G127" s="13"/>
       <c r="H127" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I127" s="13"/>
       <c r="J127" s="13"/>
@@ -12666,7 +12692,7 @@
       <c r="F128" s="13"/>
       <c r="G128" s="13"/>
       <c r="H128" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I128" s="13"/>
       <c r="J128" s="13"/>
@@ -12680,7 +12706,7 @@
       <c r="F129" s="13"/>
       <c r="G129" s="13"/>
       <c r="H129" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I129" s="13"/>
       <c r="J129" s="13"/>
@@ -12694,7 +12720,7 @@
       <c r="F130" s="13"/>
       <c r="G130" s="13"/>
       <c r="H130" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I130" s="13"/>
       <c r="J130" s="13"/>
@@ -12708,7 +12734,7 @@
       <c r="F131" s="13"/>
       <c r="G131" s="13"/>
       <c r="H131" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I131" s="13"/>
       <c r="J131" s="13"/>
@@ -12722,7 +12748,7 @@
       <c r="F132" s="13"/>
       <c r="G132" s="13"/>
       <c r="H132" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I132" s="13"/>
       <c r="J132" s="13"/>
@@ -12736,7 +12762,7 @@
       <c r="F133" s="13"/>
       <c r="G133" s="13"/>
       <c r="H133" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I133" s="13"/>
       <c r="J133" s="13"/>
@@ -12750,7 +12776,7 @@
       <c r="F134" s="13"/>
       <c r="G134" s="13"/>
       <c r="H134" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I134" s="13"/>
       <c r="J134" s="13"/>
@@ -12764,7 +12790,7 @@
       <c r="F135" s="13"/>
       <c r="G135" s="13"/>
       <c r="H135" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I135" s="13"/>
       <c r="J135" s="13"/>
@@ -12778,7 +12804,7 @@
       <c r="F136" s="13"/>
       <c r="G136" s="13"/>
       <c r="H136" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I136" s="13"/>
       <c r="J136" s="13"/>
@@ -12792,7 +12818,7 @@
       <c r="F137" s="13"/>
       <c r="G137" s="13"/>
       <c r="H137" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I137" s="13"/>
       <c r="J137" s="13"/>
@@ -12806,7 +12832,7 @@
       <c r="F138" s="13"/>
       <c r="G138" s="13"/>
       <c r="H138" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I138" s="13"/>
       <c r="J138" s="13"/>
@@ -12820,7 +12846,7 @@
       <c r="F139" s="13"/>
       <c r="G139" s="13"/>
       <c r="H139" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I139" s="13"/>
       <c r="J139" s="13"/>
@@ -12834,7 +12860,7 @@
       <c r="F140" s="13"/>
       <c r="G140" s="13"/>
       <c r="H140" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I140" s="13"/>
       <c r="J140" s="13"/>
@@ -12848,7 +12874,7 @@
       <c r="F141" s="13"/>
       <c r="G141" s="13"/>
       <c r="H141" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I141" s="13"/>
       <c r="J141" s="13"/>
@@ -12862,7 +12888,7 @@
       <c r="F142" s="13"/>
       <c r="G142" s="13"/>
       <c r="H142" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I142" s="13"/>
       <c r="J142" s="13"/>
@@ -12876,7 +12902,7 @@
       <c r="F143" s="13"/>
       <c r="G143" s="13"/>
       <c r="H143" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I143" s="13"/>
       <c r="J143" s="13"/>
@@ -12890,7 +12916,7 @@
       <c r="F144" s="13"/>
       <c r="G144" s="13"/>
       <c r="H144" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I144" s="13"/>
       <c r="J144" s="13"/>
@@ -12904,7 +12930,7 @@
       <c r="F145" s="13"/>
       <c r="G145" s="13"/>
       <c r="H145" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I145" s="13"/>
       <c r="J145" s="13"/>
@@ -12918,7 +12944,7 @@
       <c r="F146" s="13"/>
       <c r="G146" s="13"/>
       <c r="H146" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I146" s="13"/>
       <c r="J146" s="13"/>
@@ -12932,7 +12958,7 @@
       <c r="F147" s="13"/>
       <c r="G147" s="13"/>
       <c r="H147" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I147" s="13"/>
       <c r="J147" s="13"/>
@@ -12946,7 +12972,7 @@
       <c r="F148" s="13"/>
       <c r="G148" s="13"/>
       <c r="H148" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I148" s="13"/>
       <c r="J148" s="13"/>
@@ -12960,7 +12986,7 @@
       <c r="F149" s="13"/>
       <c r="G149" s="13"/>
       <c r="H149" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I149" s="13"/>
       <c r="J149" s="13"/>
@@ -12974,7 +13000,7 @@
       <c r="F150" s="13"/>
       <c r="G150" s="13"/>
       <c r="H150" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I150" s="13"/>
       <c r="J150" s="13"/>
@@ -12988,7 +13014,7 @@
       <c r="F151" s="13"/>
       <c r="G151" s="13"/>
       <c r="H151" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I151" s="13"/>
       <c r="J151" s="13"/>
@@ -13002,7 +13028,7 @@
       <c r="F152" s="13"/>
       <c r="G152" s="13"/>
       <c r="H152" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I152" s="13"/>
       <c r="J152" s="13"/>
@@ -13012,7 +13038,7 @@
       <c r="B153" s="13"/>
       <c r="C153" s="13"/>
       <c r="D153" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E153" s="13"/>
       <c r="F153" s="13"/>
@@ -13028,7 +13054,7 @@
       <c r="D154" s="13"/>
       <c r="E154" s="13"/>
       <c r="F154" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G154" s="13"/>
       <c r="H154" s="13"/>
@@ -13042,7 +13068,7 @@
       <c r="D155" s="13"/>
       <c r="E155" s="13"/>
       <c r="F155" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G155" s="13"/>
       <c r="H155" s="13"/>
@@ -13056,7 +13082,7 @@
       <c r="D156" s="13"/>
       <c r="E156" s="13"/>
       <c r="F156" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G156" s="13"/>
       <c r="H156" s="13"/>
@@ -13070,7 +13096,7 @@
       <c r="D157" s="13"/>
       <c r="E157" s="13"/>
       <c r="F157" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G157" s="13"/>
       <c r="H157" s="13"/>
@@ -13084,7 +13110,7 @@
       <c r="D158" s="13"/>
       <c r="E158" s="13"/>
       <c r="F158" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G158" s="13"/>
       <c r="H158" s="13"/>
@@ -13098,7 +13124,7 @@
       <c r="D159" s="13"/>
       <c r="E159" s="13"/>
       <c r="F159" s="13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G159" s="13"/>
       <c r="H159" s="13"/>
@@ -13112,7 +13138,7 @@
       <c r="D160" s="13"/>
       <c r="E160" s="13"/>
       <c r="F160" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G160" s="13"/>
       <c r="H160" s="13"/>
@@ -13126,7 +13152,7 @@
       <c r="D161" s="13"/>
       <c r="E161" s="13"/>
       <c r="F161" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G161" s="13"/>
       <c r="H161" s="13"/>
@@ -13140,7 +13166,7 @@
       <c r="D162" s="13"/>
       <c r="E162" s="13"/>
       <c r="F162" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G162" s="13"/>
       <c r="H162" s="13"/>
@@ -13154,7 +13180,7 @@
       <c r="D163" s="13"/>
       <c r="E163" s="13"/>
       <c r="F163" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G163" s="13"/>
       <c r="H163" s="13"/>
@@ -13168,7 +13194,7 @@
       <c r="D164" s="13"/>
       <c r="E164" s="13"/>
       <c r="F164" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G164" s="13"/>
       <c r="H164" s="13"/>
@@ -13182,7 +13208,7 @@
       <c r="D165" s="13"/>
       <c r="E165" s="13"/>
       <c r="F165" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G165" s="13"/>
       <c r="H165" s="13"/>
@@ -13196,7 +13222,7 @@
       <c r="D166" s="13"/>
       <c r="E166" s="13"/>
       <c r="F166" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G166" s="13"/>
       <c r="H166" s="13"/>
@@ -13210,7 +13236,7 @@
       <c r="D167" s="13"/>
       <c r="E167" s="13"/>
       <c r="F167" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G167" s="13"/>
       <c r="H167" s="13"/>
@@ -13224,7 +13250,7 @@
       <c r="D168" s="13"/>
       <c r="E168" s="13"/>
       <c r="F168" s="13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G168" s="13"/>
       <c r="H168" s="13"/>
@@ -13238,7 +13264,7 @@
       <c r="D169" s="13"/>
       <c r="E169" s="13"/>
       <c r="F169" s="13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G169" s="13"/>
       <c r="H169" s="13"/>
@@ -13252,7 +13278,7 @@
       <c r="D170" s="13"/>
       <c r="E170" s="13"/>
       <c r="F170" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G170" s="13"/>
       <c r="H170" s="13"/>
@@ -13266,7 +13292,7 @@
       <c r="D171" s="13"/>
       <c r="E171" s="13"/>
       <c r="F171" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G171" s="13"/>
       <c r="H171" s="13"/>
@@ -13280,7 +13306,7 @@
       <c r="D172" s="13"/>
       <c r="E172" s="13"/>
       <c r="F172" s="13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G172" s="13"/>
       <c r="H172" s="13"/>
@@ -13294,7 +13320,7 @@
       <c r="D173" s="13"/>
       <c r="E173" s="13"/>
       <c r="F173" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G173" s="13"/>
       <c r="H173" s="13"/>
@@ -13308,7 +13334,7 @@
       <c r="D174" s="13"/>
       <c r="E174" s="13"/>
       <c r="F174" s="13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G174" s="13"/>
       <c r="H174" s="13"/>
@@ -13322,7 +13348,7 @@
       <c r="D175" s="13"/>
       <c r="E175" s="13"/>
       <c r="F175" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G175" s="13"/>
       <c r="H175" s="13"/>
@@ -13336,7 +13362,7 @@
       <c r="D176" s="13"/>
       <c r="E176" s="13"/>
       <c r="F176" s="13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G176" s="13"/>
       <c r="H176" s="13"/>
@@ -13350,7 +13376,7 @@
       <c r="D177" s="13"/>
       <c r="E177" s="13"/>
       <c r="F177" s="13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G177" s="13"/>
       <c r="H177" s="13"/>
@@ -13364,7 +13390,7 @@
       <c r="D178" s="13"/>
       <c r="E178" s="13"/>
       <c r="F178" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G178" s="13"/>
       <c r="H178" s="13"/>
@@ -13378,7 +13404,7 @@
       <c r="D179" s="13"/>
       <c r="E179" s="13"/>
       <c r="F179" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G179" s="13"/>
       <c r="H179" s="13"/>
@@ -13392,7 +13418,7 @@
       <c r="D180" s="13"/>
       <c r="E180" s="13"/>
       <c r="F180" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G180" s="13"/>
       <c r="H180" s="13"/>
@@ -13406,7 +13432,7 @@
       <c r="D181" s="13"/>
       <c r="E181" s="13"/>
       <c r="F181" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G181" s="13"/>
       <c r="H181" s="13"/>
@@ -13420,7 +13446,7 @@
       <c r="D182" s="13"/>
       <c r="E182" s="13"/>
       <c r="F182" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G182" s="13"/>
       <c r="H182" s="13"/>
@@ -13434,7 +13460,7 @@
       <c r="D183" s="13"/>
       <c r="E183" s="13"/>
       <c r="F183" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G183" s="13"/>
       <c r="H183" s="13"/>
@@ -13448,7 +13474,7 @@
       <c r="D184" s="13"/>
       <c r="E184" s="13"/>
       <c r="F184" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G184" s="13"/>
       <c r="H184" s="13"/>
@@ -13459,7 +13485,7 @@
     <row r="185" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B185" s="13"/>
       <c r="C185" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D185" s="13"/>
       <c r="E185" s="13"/>
@@ -13474,7 +13500,7 @@
       <c r="B186" s="13"/>
       <c r="C186" s="13"/>
       <c r="D186" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E186" s="13"/>
       <c r="F186" s="13"/>
@@ -13487,7 +13513,7 @@
     <row r="187" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B187" s="13"/>
       <c r="C187" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D187" s="13"/>
       <c r="E187" s="13"/>
@@ -13500,7 +13526,7 @@
     </row>
     <row r="188" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B188" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C188" s="13"/>
       <c r="D188" s="13"/>
@@ -13550,7 +13576,7 @@
     </row>
     <row r="192" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B192" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C192" s="13"/>
       <c r="D192" s="13"/>
@@ -13564,7 +13590,7 @@
     </row>
     <row r="193" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B193" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C193" s="13"/>
       <c r="D193" s="13"/>
@@ -13591,7 +13617,7 @@
     <row r="195" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B195" s="13"/>
       <c r="C195" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D195" s="13"/>
       <c r="E195" s="13"/>
@@ -13605,7 +13631,7 @@
     <row r="196" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B196" s="13"/>
       <c r="C196" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D196" s="13"/>
       <c r="E196" s="13"/>
@@ -13620,7 +13646,7 @@
       <c r="B197" s="13"/>
       <c r="C197" s="13"/>
       <c r="D197" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E197" s="13"/>
       <c r="F197" s="13"/>
@@ -13638,7 +13664,7 @@
       <c r="F198" s="13"/>
       <c r="G198" s="13"/>
       <c r="H198" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I198" s="13"/>
       <c r="J198" s="13"/>
@@ -13652,7 +13678,7 @@
       <c r="F199" s="13"/>
       <c r="G199" s="13"/>
       <c r="H199" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I199" s="13"/>
       <c r="J199" s="13"/>
@@ -13666,7 +13692,7 @@
       <c r="F200" s="13"/>
       <c r="G200" s="13"/>
       <c r="H200" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I200" s="13"/>
       <c r="J200" s="13"/>
@@ -13680,7 +13706,7 @@
       <c r="F201" s="13"/>
       <c r="G201" s="13"/>
       <c r="H201" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I201" s="13"/>
       <c r="J201" s="13"/>
@@ -13694,7 +13720,7 @@
       <c r="F202" s="13"/>
       <c r="G202" s="13"/>
       <c r="H202" s="13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I202" s="13"/>
       <c r="J202" s="13"/>
@@ -13708,7 +13734,7 @@
       <c r="F203" s="13"/>
       <c r="G203" s="13"/>
       <c r="H203" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I203" s="13"/>
       <c r="J203" s="13"/>
@@ -13722,7 +13748,7 @@
       <c r="F204" s="13"/>
       <c r="G204" s="13"/>
       <c r="H204" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I204" s="13"/>
       <c r="J204" s="13"/>
@@ -13736,7 +13762,7 @@
       <c r="F205" s="13"/>
       <c r="G205" s="13"/>
       <c r="H205" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I205" s="13"/>
       <c r="J205" s="13"/>
@@ -13750,10 +13776,10 @@
       <c r="F206" s="13"/>
       <c r="G206" s="13"/>
       <c r="H206" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="I206" s="13" t="s">
         <v>358</v>
-      </c>
-      <c r="I206" s="13" t="s">
-        <v>359</v>
       </c>
       <c r="J206" s="13"/>
       <c r="K206" s="13"/>
@@ -13766,7 +13792,7 @@
       <c r="F207" s="13"/>
       <c r="G207" s="13"/>
       <c r="H207" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I207" s="13"/>
       <c r="J207" s="13"/>
@@ -13780,7 +13806,7 @@
       <c r="F208" s="13"/>
       <c r="G208" s="13"/>
       <c r="H208" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I208" s="13"/>
       <c r="J208" s="13"/>
@@ -13794,7 +13820,7 @@
       <c r="F209" s="13"/>
       <c r="G209" s="13"/>
       <c r="H209" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I209" s="13"/>
       <c r="J209" s="13"/>
@@ -13808,7 +13834,7 @@
       <c r="F210" s="13"/>
       <c r="G210" s="13"/>
       <c r="H210" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I210" s="13"/>
       <c r="J210" s="13"/>
@@ -13822,7 +13848,7 @@
       <c r="F211" s="13"/>
       <c r="G211" s="13"/>
       <c r="H211" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I211" s="13"/>
       <c r="J211" s="13"/>
@@ -13836,7 +13862,7 @@
       <c r="F212" s="13"/>
       <c r="G212" s="13"/>
       <c r="H212" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I212" s="13"/>
       <c r="J212" s="13"/>
@@ -13850,7 +13876,7 @@
       <c r="F213" s="13"/>
       <c r="G213" s="13"/>
       <c r="H213" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I213" s="13"/>
       <c r="J213" s="13"/>
@@ -13864,7 +13890,7 @@
       <c r="F214" s="13"/>
       <c r="G214" s="13"/>
       <c r="H214" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I214" s="13"/>
       <c r="J214" s="13"/>
@@ -13878,7 +13904,7 @@
       <c r="F215" s="13"/>
       <c r="G215" s="13"/>
       <c r="H215" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I215" s="13"/>
       <c r="J215" s="13"/>
@@ -13892,7 +13918,7 @@
       <c r="F216" s="13"/>
       <c r="G216" s="13"/>
       <c r="H216" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I216" s="13"/>
       <c r="J216" s="13"/>
@@ -13906,7 +13932,7 @@
       <c r="F217" s="13"/>
       <c r="G217" s="13"/>
       <c r="H217" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I217" s="13"/>
       <c r="J217" s="13"/>
@@ -13920,7 +13946,7 @@
       <c r="F218" s="13"/>
       <c r="G218" s="13"/>
       <c r="H218" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I218" s="13"/>
       <c r="J218" s="13"/>
@@ -13934,7 +13960,7 @@
       <c r="F219" s="13"/>
       <c r="G219" s="13"/>
       <c r="H219" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I219" s="13"/>
       <c r="J219" s="13"/>
@@ -13948,7 +13974,7 @@
       <c r="F220" s="13"/>
       <c r="G220" s="13"/>
       <c r="H220" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I220" s="13"/>
       <c r="J220" s="13"/>
@@ -13962,7 +13988,7 @@
       <c r="F221" s="13"/>
       <c r="G221" s="13"/>
       <c r="H221" s="13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I221" s="13"/>
       <c r="J221" s="13"/>
@@ -13976,7 +14002,7 @@
       <c r="F222" s="13"/>
       <c r="G222" s="13"/>
       <c r="H222" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I222" s="13"/>
       <c r="J222" s="13"/>
@@ -13990,7 +14016,7 @@
       <c r="F223" s="13"/>
       <c r="G223" s="13"/>
       <c r="H223" s="13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I223" s="13"/>
       <c r="J223" s="13"/>
@@ -14004,7 +14030,7 @@
       <c r="F224" s="13"/>
       <c r="G224" s="13"/>
       <c r="H224" s="13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I224" s="13"/>
       <c r="J224" s="13"/>
@@ -14018,7 +14044,7 @@
       <c r="F225" s="13"/>
       <c r="G225" s="13"/>
       <c r="H225" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I225" s="13"/>
       <c r="J225" s="13"/>
@@ -14032,7 +14058,7 @@
       <c r="F226" s="13"/>
       <c r="G226" s="13"/>
       <c r="H226" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I226" s="13"/>
       <c r="J226" s="13"/>
@@ -14046,7 +14072,7 @@
       <c r="F227" s="13"/>
       <c r="G227" s="13"/>
       <c r="H227" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I227" s="13"/>
       <c r="J227" s="13"/>
@@ -14056,7 +14082,7 @@
       <c r="B228" s="13"/>
       <c r="C228" s="13"/>
       <c r="D228" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E228" s="13"/>
       <c r="F228" s="13"/>
@@ -14072,7 +14098,7 @@
       <c r="D229" s="13"/>
       <c r="E229" s="13"/>
       <c r="F229" s="13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G229" s="13"/>
       <c r="H229" s="13"/>
@@ -14086,7 +14112,7 @@
       <c r="D230" s="13"/>
       <c r="E230" s="13"/>
       <c r="F230" s="13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G230" s="13"/>
       <c r="H230" s="13"/>
@@ -14100,7 +14126,7 @@
       <c r="D231" s="13"/>
       <c r="E231" s="13"/>
       <c r="F231" s="13" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G231" s="13"/>
       <c r="H231" s="13"/>
@@ -14114,7 +14140,7 @@
       <c r="D232" s="13"/>
       <c r="E232" s="13"/>
       <c r="F232" s="13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G232" s="13"/>
       <c r="H232" s="13"/>
@@ -14128,7 +14154,7 @@
       <c r="D233" s="13"/>
       <c r="E233" s="13"/>
       <c r="F233" s="13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G233" s="13"/>
       <c r="H233" s="13"/>
@@ -14142,7 +14168,7 @@
       <c r="D234" s="13"/>
       <c r="E234" s="13"/>
       <c r="F234" s="13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G234" s="13"/>
       <c r="H234" s="13"/>
@@ -14156,7 +14182,7 @@
       <c r="D235" s="13"/>
       <c r="E235" s="13"/>
       <c r="F235" s="13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G235" s="13"/>
       <c r="H235" s="13"/>
@@ -14170,7 +14196,7 @@
       <c r="D236" s="13"/>
       <c r="E236" s="13"/>
       <c r="F236" s="13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G236" s="13"/>
       <c r="H236" s="13"/>
@@ -14184,7 +14210,7 @@
       <c r="D237" s="13"/>
       <c r="E237" s="13"/>
       <c r="F237" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G237" s="13"/>
       <c r="H237" s="13"/>
@@ -14198,7 +14224,7 @@
       <c r="D238" s="13"/>
       <c r="E238" s="13"/>
       <c r="F238" s="13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G238" s="13"/>
       <c r="H238" s="13"/>
@@ -14212,7 +14238,7 @@
       <c r="D239" s="13"/>
       <c r="E239" s="13"/>
       <c r="F239" s="13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G239" s="13"/>
       <c r="H239" s="13"/>
@@ -14226,7 +14252,7 @@
       <c r="D240" s="13"/>
       <c r="E240" s="13"/>
       <c r="F240" s="13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G240" s="13"/>
       <c r="H240" s="13"/>
@@ -14240,7 +14266,7 @@
       <c r="D241" s="13"/>
       <c r="E241" s="13"/>
       <c r="F241" s="13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G241" s="13"/>
       <c r="H241" s="13"/>
@@ -14254,7 +14280,7 @@
       <c r="D242" s="13"/>
       <c r="E242" s="13"/>
       <c r="F242" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G242" s="13"/>
       <c r="H242" s="13"/>
@@ -14268,7 +14294,7 @@
       <c r="D243" s="13"/>
       <c r="E243" s="13"/>
       <c r="F243" s="13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G243" s="13"/>
       <c r="H243" s="13"/>
@@ -14282,7 +14308,7 @@
       <c r="D244" s="13"/>
       <c r="E244" s="13"/>
       <c r="F244" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G244" s="13"/>
       <c r="H244" s="13"/>
@@ -14296,7 +14322,7 @@
       <c r="D245" s="13"/>
       <c r="E245" s="13"/>
       <c r="F245" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G245" s="13"/>
       <c r="H245" s="13"/>
@@ -14310,7 +14336,7 @@
       <c r="D246" s="13"/>
       <c r="E246" s="13"/>
       <c r="F246" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G246" s="13"/>
       <c r="H246" s="13"/>
@@ -14324,7 +14350,7 @@
       <c r="D247" s="13"/>
       <c r="E247" s="13"/>
       <c r="F247" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G247" s="13"/>
       <c r="H247" s="13"/>
@@ -14338,7 +14364,7 @@
       <c r="D248" s="13"/>
       <c r="E248" s="13"/>
       <c r="F248" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G248" s="13"/>
       <c r="H248" s="13"/>
@@ -14352,7 +14378,7 @@
       <c r="D249" s="13"/>
       <c r="E249" s="13"/>
       <c r="F249" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G249" s="13"/>
       <c r="H249" s="13"/>
@@ -14366,7 +14392,7 @@
       <c r="D250" s="13"/>
       <c r="E250" s="13"/>
       <c r="F250" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G250" s="13"/>
       <c r="H250" s="13"/>
@@ -14380,7 +14406,7 @@
       <c r="D251" s="13"/>
       <c r="E251" s="13"/>
       <c r="F251" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G251" s="13"/>
       <c r="H251" s="13"/>
@@ -14394,7 +14420,7 @@
       <c r="D252" s="13"/>
       <c r="E252" s="13"/>
       <c r="F252" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G252" s="13"/>
       <c r="H252" s="13"/>
@@ -14408,7 +14434,7 @@
       <c r="D253" s="13"/>
       <c r="E253" s="13"/>
       <c r="F253" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G253" s="13"/>
       <c r="H253" s="13"/>
@@ -14422,7 +14448,7 @@
       <c r="D254" s="13"/>
       <c r="E254" s="13"/>
       <c r="F254" s="13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G254" s="13"/>
       <c r="H254" s="13"/>
@@ -14436,7 +14462,7 @@
       <c r="D255" s="13"/>
       <c r="E255" s="13"/>
       <c r="F255" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G255" s="13"/>
       <c r="H255" s="13"/>
@@ -14450,7 +14476,7 @@
       <c r="D256" s="13"/>
       <c r="E256" s="13"/>
       <c r="F256" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G256" s="13"/>
       <c r="H256" s="13"/>
@@ -14464,7 +14490,7 @@
       <c r="D257" s="13"/>
       <c r="E257" s="13"/>
       <c r="F257" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G257" s="13"/>
       <c r="H257" s="13"/>
@@ -14478,7 +14504,7 @@
       <c r="D258" s="13"/>
       <c r="E258" s="13"/>
       <c r="F258" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G258" s="13"/>
       <c r="H258" s="13"/>
@@ -14489,7 +14515,7 @@
     <row r="259" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B259" s="13"/>
       <c r="C259" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D259" s="13"/>
       <c r="E259" s="13"/>
@@ -14504,7 +14530,7 @@
       <c r="B260" s="13"/>
       <c r="C260" s="13"/>
       <c r="D260" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E260" s="13"/>
       <c r="F260" s="13"/>
@@ -14517,7 +14543,7 @@
     <row r="261" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B261" s="13"/>
       <c r="C261" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D261" s="13"/>
       <c r="E261" s="13"/>
@@ -14530,7 +14556,7 @@
     </row>
     <row r="262" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B262" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C262" s="13"/>
       <c r="D262" s="13"/>
@@ -14556,7 +14582,7 @@
     </row>
     <row r="264" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B264" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C264" s="13"/>
       <c r="D264" s="13"/>
@@ -14570,7 +14596,7 @@
     </row>
     <row r="265" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B265" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C265" s="13"/>
       <c r="D265" s="13"/>
@@ -14585,7 +14611,7 @@
     <row r="266" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B266" s="13"/>
       <c r="C266" s="13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D266" s="13"/>
       <c r="E266" s="13"/>
@@ -14599,7 +14625,7 @@
     <row r="267" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B267" s="13"/>
       <c r="C267" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D267" s="13"/>
       <c r="E267" s="13"/>
@@ -14617,7 +14643,7 @@
       <c r="E268" s="13"/>
       <c r="F268" s="13"/>
       <c r="G268" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H268" s="13"/>
       <c r="I268" s="13"/>
@@ -14631,7 +14657,7 @@
       <c r="E269" s="13"/>
       <c r="F269" s="13"/>
       <c r="G269" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H269" s="13"/>
       <c r="I269" s="13"/>
@@ -14645,7 +14671,7 @@
       <c r="E270" s="13"/>
       <c r="F270" s="13"/>
       <c r="G270" s="13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H270" s="13"/>
       <c r="I270" s="13"/>
@@ -14659,7 +14685,7 @@
       <c r="E271" s="13"/>
       <c r="F271" s="13"/>
       <c r="G271" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H271" s="13"/>
       <c r="I271" s="13"/>
@@ -14673,7 +14699,7 @@
       <c r="E272" s="13"/>
       <c r="F272" s="13"/>
       <c r="G272" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H272" s="13"/>
       <c r="I272" s="13"/>
@@ -14687,7 +14713,7 @@
       <c r="E273" s="13"/>
       <c r="F273" s="13"/>
       <c r="G273" s="13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H273" s="13"/>
       <c r="I273" s="13"/>
@@ -14701,7 +14727,7 @@
       <c r="E274" s="13"/>
       <c r="F274" s="13"/>
       <c r="G274" s="13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H274" s="13"/>
       <c r="I274" s="13"/>
@@ -14715,7 +14741,7 @@
       <c r="E275" s="13"/>
       <c r="F275" s="13"/>
       <c r="G275" s="13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H275" s="13"/>
       <c r="I275" s="13"/>
@@ -14729,7 +14755,7 @@
       <c r="E276" s="13"/>
       <c r="F276" s="13"/>
       <c r="G276" s="13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H276" s="13"/>
       <c r="I276" s="13"/>
@@ -14743,7 +14769,7 @@
       <c r="E277" s="13"/>
       <c r="F277" s="13"/>
       <c r="G277" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H277" s="13"/>
       <c r="I277" s="13"/>
@@ -14753,7 +14779,7 @@
     <row r="278" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B278" s="13"/>
       <c r="C278" s="13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D278" s="13"/>
       <c r="E278" s="13"/>
@@ -14767,7 +14793,7 @@
     <row r="279" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B279" s="13"/>
       <c r="C279" s="13" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D279" s="13"/>
       <c r="E279" s="13"/>
@@ -14781,7 +14807,7 @@
     <row r="280" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B280" s="13"/>
       <c r="C280" s="13" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D280" s="13"/>
       <c r="E280" s="13"/>
@@ -14795,7 +14821,7 @@
     <row r="281" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B281" s="13"/>
       <c r="C281" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D281" s="13"/>
       <c r="E281" s="13"/>
@@ -14811,7 +14837,7 @@
       <c r="C282" s="13"/>
       <c r="D282" s="13"/>
       <c r="E282" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F282" s="13"/>
       <c r="G282" s="13"/>
@@ -14825,7 +14851,7 @@
       <c r="C283" s="13"/>
       <c r="D283" s="13"/>
       <c r="E283" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F283" s="13"/>
       <c r="G283" s="13"/>
@@ -14839,7 +14865,7 @@
       <c r="C284" s="13"/>
       <c r="D284" s="13"/>
       <c r="E284" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F284" s="13"/>
       <c r="G284" s="13"/>
@@ -14853,7 +14879,7 @@
       <c r="C285" s="13"/>
       <c r="D285" s="13"/>
       <c r="E285" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F285" s="13"/>
       <c r="G285" s="13"/>
@@ -14867,7 +14893,7 @@
       <c r="C286" s="13"/>
       <c r="D286" s="13"/>
       <c r="E286" s="13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F286" s="13"/>
       <c r="G286" s="13"/>
@@ -14881,7 +14907,7 @@
       <c r="C287" s="13"/>
       <c r="D287" s="13"/>
       <c r="E287" s="13" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F287" s="13"/>
       <c r="G287" s="13"/>
@@ -14895,7 +14921,7 @@
       <c r="C288" s="13"/>
       <c r="D288" s="13"/>
       <c r="E288" s="13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F288" s="13"/>
       <c r="G288" s="13"/>
@@ -14909,7 +14935,7 @@
       <c r="C289" s="13"/>
       <c r="D289" s="13"/>
       <c r="E289" s="13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F289" s="13"/>
       <c r="G289" s="13"/>
@@ -14923,7 +14949,7 @@
       <c r="C290" s="13"/>
       <c r="D290" s="13"/>
       <c r="E290" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F290" s="13"/>
       <c r="G290" s="13"/>
@@ -14937,7 +14963,7 @@
       <c r="C291" s="13"/>
       <c r="D291" s="13"/>
       <c r="E291" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F291" s="13"/>
       <c r="G291" s="13"/>
@@ -14948,7 +14974,7 @@
     </row>
     <row r="292" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B292" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C292" s="13"/>
       <c r="D292" s="13"/>
@@ -15010,7 +15036,7 @@
     </row>
     <row r="297" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B297" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C297" s="13"/>
       <c r="D297" s="13"/>
@@ -15040,7 +15066,7 @@
   <sheetData>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -15056,7 +15082,7 @@
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -15072,7 +15098,7 @@
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -15088,7 +15114,7 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -15118,7 +15144,7 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -15134,7 +15160,7 @@
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -15164,7 +15190,7 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -15180,7 +15206,7 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -15210,7 +15236,7 @@
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -15226,10 +15252,10 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>202</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>203</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -15244,7 +15270,7 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -15260,7 +15286,7 @@
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -15276,7 +15302,7 @@
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -15320,7 +15346,7 @@
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -15336,7 +15362,7 @@
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
@@ -15352,7 +15378,7 @@
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -15368,7 +15394,7 @@
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
@@ -15384,7 +15410,7 @@
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
@@ -15400,7 +15426,7 @@
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -15416,7 +15442,7 @@
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
@@ -15446,7 +15472,7 @@
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
@@ -15490,7 +15516,7 @@
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -15520,7 +15546,7 @@
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -15536,7 +15562,7 @@
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -15566,7 +15592,7 @@
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
@@ -15591,14 +15617,14 @@
   <dimension ref="B4:I29"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -15610,7 +15636,7 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -15622,7 +15648,7 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -15644,7 +15670,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -15666,7 +15692,7 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -15678,7 +15704,7 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -15691,7 +15717,7 @@
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="13"/>
       <c r="C12" s="13" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -15703,7 +15729,7 @@
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="13"/>
       <c r="C13" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -15715,7 +15741,7 @@
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="13"/>
       <c r="C14" s="13" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -15727,7 +15753,7 @@
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="13"/>
       <c r="C15" s="13" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -15749,7 +15775,7 @@
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="13"/>
       <c r="C17" s="13" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -15761,7 +15787,7 @@
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="13"/>
       <c r="C18" s="13" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
@@ -15783,7 +15809,7 @@
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="13"/>
       <c r="C20" s="13" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
@@ -15795,7 +15821,7 @@
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="13"/>
       <c r="C21" s="13" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
@@ -15807,7 +15833,7 @@
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="13"/>
       <c r="C22" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
@@ -15829,7 +15855,7 @@
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="13"/>
       <c r="C24" s="21" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
@@ -15851,7 +15877,7 @@
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="13"/>
       <c r="C26" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
@@ -15863,7 +15889,7 @@
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="13"/>
       <c r="C27" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
@@ -15875,7 +15901,7 @@
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="13"/>
       <c r="C28" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
@@ -15886,7 +15912,7 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>

--- a/03 PE/004 PE加载过程 RVA&FOA.xlsx
+++ b/03 PE/004 PE加载过程 RVA&FOA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\03 PE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C121CE-50F2-4B35-8C36-DE71292FFFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033B0AFD-C4B6-43AD-86F0-D7EABCAB4D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="索引" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="544">
   <si>
     <t>PE 加载 过程</t>
   </si>
@@ -315,9 +315,6 @@
     <t>free(file_buffer);</t>
   </si>
   <si>
-    <t>file_buffer=ImageBufferToFileBuffer(img_buffer,file_size);</t>
-  </si>
-  <si>
     <t>p_pe=fopen("a.exe","wb");</t>
   </si>
   <si>
@@ -586,9 +583,6 @@
   </si>
   <si>
     <t>return Img_buffer;</t>
-  </si>
-  <si>
-    <t>char* ImageBufferToFileBuffer(char* p,int file_size)</t>
   </si>
   <si>
     <t>file_buffer=(char*)malloc(sizeof(char)*file_size);</t>
@@ -1459,15 +1453,237 @@
     <t>if((size_t)roa&gt;=(size_t)GetPE_sectionPtr(p,i)-&gt;VirtualAddress &amp;&amp; (size_t)roa&lt;(size_t)(GetPE_sectionPtr(p,i)-&gt;VirtualAddress+GetPE_sectionPtr(p,i)-&gt;Misc.VirtualSize))</t>
   </si>
   <si>
-    <t>// vc++6.0 __int64类型变量作比较存在问题</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">   注意:  vc++6.0 __int64类型变量作比较存在问题</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>文件偏移(FOA)、内存(RVA)偏移的计算</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>char* ImageBufferToFileBuffer(char* p)</t>
+  </si>
+  <si>
+    <t>p_section=GetPE_sectionPtr(p,section_num-1);</t>
+  </si>
+  <si>
+    <t>file_size=p_section-&gt;PointerToRawData+p_section-&gt;SizeOfRawData;</t>
+  </si>
+  <si>
+    <t>// vc++6.0 __int64类型变量作比较存在问题</t>
+  </si>
+  <si>
+    <t>void AddMessageBoxToSection(char* pbuffer,char* messageBox_title,char* messageBox_content)</t>
+  </si>
+  <si>
+    <t>if(!pbuffer)</t>
+  </si>
+  <si>
+    <t>printf("get a NULL.");</t>
+  </si>
+  <si>
+    <t>exit(0);</t>
+  </si>
+  <si>
+    <t>int section_num=GetPE_StdPtr(pbuffer)-&gt;NumberOfSections;</t>
+  </si>
+  <si>
+    <t>int size_rawdata=0;</t>
+  </si>
+  <si>
+    <t>int p_MessageBox=(int)MessageBox;</t>
+  </si>
+  <si>
+    <t>int foa=0;</t>
+  </si>
+  <si>
+    <t>char* p=NULL;</t>
+  </si>
+  <si>
+    <t>int title_rva=0;</t>
+  </si>
+  <si>
+    <t>int title_len=strlen(messageBox_title)+1;</t>
+  </si>
+  <si>
+    <t>int content_rva=0;</t>
+  </si>
+  <si>
+    <t>int content_len=strlen(messageBox_content)+1;</t>
+  </si>
+  <si>
+    <t>unsigned char shellcode[24]={</t>
+  </si>
+  <si>
+    <t>0x6a,0x00,</t>
+  </si>
+  <si>
+    <t>0x68,0x00,0x00,0x00,0x00,</t>
+  </si>
+  <si>
+    <t>0xe8,0x00,0x00,0x00,0x00,</t>
+  </si>
+  <si>
+    <t>0xe9,0x00,0x00,0x00,0x00</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>int oep=GetPE_OptPtr(pbuffer)-&gt;AddressOfEntryPoint;</t>
+  </si>
+  <si>
+    <t>int img_base=GetPE_OptPtr(pbuffer)-&gt;ImageBase;</t>
+  </si>
+  <si>
+    <t>int e8_rva=0;</t>
+  </si>
+  <si>
+    <t>int e8_x=0;</t>
+  </si>
+  <si>
+    <t>int e9_rva=0;</t>
+  </si>
+  <si>
+    <t>int e9_x=0;</t>
+  </si>
+  <si>
+    <t>// 选择存放的节</t>
+  </si>
+  <si>
+    <t>/*</t>
+  </si>
+  <si>
+    <t>for(int i=0;i&lt;4;i++)</t>
+  </si>
+  <si>
+    <t>p_section = GetPE_sectionPtr(pbuffer,i);</t>
+  </si>
+  <si>
+    <t>GetPEinfo_section(p_section);</t>
+  </si>
+  <si>
+    <t>*/</t>
+  </si>
+  <si>
+    <t>p_section = GetPE_sectionPtr(pbuffer,0);</t>
+  </si>
+  <si>
+    <t>size_rawdata=p_section-&gt;SizeOfRawData;</t>
+  </si>
+  <si>
+    <t>foa=size_rawdata+pointer_rawdata;</t>
+  </si>
+  <si>
+    <t>p=&amp;pbuffer[foa-1-title_len-content_len-24];  //  两个\0</t>
+  </si>
+  <si>
+    <t>// copy title and content</t>
+  </si>
+  <si>
+    <t>while(p[i]=messageBox_title[i++]);</t>
+  </si>
+  <si>
+    <t>while(p[i++]=messageBox_content[j++]);</t>
+  </si>
+  <si>
+    <t>// deal shellcode</t>
+  </si>
+  <si>
+    <t>title_rva=foa-1-title_len-content_len-24-pointer_rawdata; // 得到相对于节的偏移</t>
+  </si>
+  <si>
+    <t>title_rva=title_rva+virtual_address; // 得到在内存中的偏移</t>
+  </si>
+  <si>
+    <t>title_rva+=img_base;</t>
+  </si>
+  <si>
+    <t>// 得到虚拟内存地址</t>
+  </si>
+  <si>
+    <t>content_rva=foa-1-content_len-24-pointer_rawdata;</t>
+  </si>
+  <si>
+    <t>content_rva=content_rva+virtual_address;</t>
+  </si>
+  <si>
+    <t>content_rva+=img_base;</t>
+  </si>
+  <si>
+    <t>// printf("%x,%x\n",title_rva,content_rva);</t>
+  </si>
+  <si>
+    <t>((int*)(&amp;shellcode[3]))[0]=title_rva;</t>
+  </si>
+  <si>
+    <t>((int*)(&amp;shellcode[8]))[0]=content_rva;</t>
+  </si>
+  <si>
+    <t>// printf("%x,%x\n",shellcode[3],shellcode[4]);</t>
+  </si>
+  <si>
+    <t>// deal e8</t>
+  </si>
+  <si>
+    <t>e8_rva=foa-1-10-pointer_rawdata;</t>
+  </si>
+  <si>
+    <t>e8_rva=e8_rva+virtual_address;</t>
+  </si>
+  <si>
+    <t>e8_rva+=img_base;</t>
+  </si>
+  <si>
+    <t>e8_x=p_MessageBox-e8_rva-5;</t>
+  </si>
+  <si>
+    <t>//printf("%x\n",e8_x);</t>
+  </si>
+  <si>
+    <t>((int*)(&amp;shellcode[15]))[0]=e8_x;</t>
+  </si>
+  <si>
+    <t>e9_rva=foa-1-5+-pointer_rawdata;</t>
+  </si>
+  <si>
+    <t>e9_rva=e9_rva+virtual_address;</t>
+  </si>
+  <si>
+    <t>e9_rva+=img_base;</t>
+  </si>
+  <si>
+    <t>e9_x=img_base+oep-e9_rva-5;</t>
+  </si>
+  <si>
+    <t>//printf("%x,%x\n",e8_x,e9_x);</t>
+  </si>
+  <si>
+    <t>((int*)(&amp;shellcode[20]))[0]=e9_x;</t>
+  </si>
+  <si>
+    <t>p=&amp;pbuffer[foa-1-24];</t>
+  </si>
+  <si>
+    <t>for(i=0;i&lt;24;i++)</t>
+  </si>
+  <si>
+    <t>p[i]=shellcode[i];</t>
+  </si>
+  <si>
+    <t>// deal oep</t>
+  </si>
+  <si>
+    <t>foa=foa-1-24-pointer_rawdata;</t>
+  </si>
+  <si>
+    <t>foa=foa+virtual_address;</t>
+  </si>
+  <si>
+    <t>GetPE_OptPtr(pbuffer)-&gt;AddressOfEntryPoint=foa;</t>
+  </si>
+  <si>
+    <t>file_buffer=ImageBufferToFileBuffer(img_buffer);</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1486,6 +1702,7 @@
       <sz val="12"/>
       <color indexed="20"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1493,11 +1710,13 @@
       <sz val="12"/>
       <color indexed="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3097,8 +3316,8 @@
   </sheetPr>
   <dimension ref="A5:R75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B7"/>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -3113,7 +3332,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -3143,7 +3362,7 @@
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="N9" s="14" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -3957,17 +4176,17 @@
         <v>3</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J7" s="17" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
       <c r="M7" s="17" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
@@ -3988,7 +4207,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="J9" s="16" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
@@ -4003,7 +4222,7 @@
       </c>
       <c r="G10" s="2"/>
       <c r="J10" s="16" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
@@ -4014,7 +4233,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="J11" s="17" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
@@ -4029,7 +4248,7 @@
       </c>
       <c r="G12" s="3"/>
       <c r="J12" s="17" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
@@ -4040,7 +4259,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="J13" s="16" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
@@ -4051,7 +4270,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="J14" s="17" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
@@ -4068,7 +4287,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="J16" s="19" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
@@ -4082,7 +4301,7 @@
       <c r="G17" s="5"/>
       <c r="J17" s="19"/>
       <c r="K17" s="19" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
@@ -4105,7 +4324,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="J19" s="19" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
@@ -4119,7 +4338,7 @@
       <c r="G20" s="4"/>
       <c r="J20" s="19"/>
       <c r="K20" s="19" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="L20" s="19"/>
       <c r="M20" s="20"/>
@@ -4132,7 +4351,7 @@
       <c r="G21" s="4"/>
       <c r="J21" s="19"/>
       <c r="K21" s="19" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="L21" s="19"/>
       <c r="M21" s="20"/>
@@ -4140,17 +4359,17 @@
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="15" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="J22" s="19"/>
       <c r="K22" s="19" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L22" s="19"/>
       <c r="M22" s="20"/>
@@ -4171,14 +4390,14 @@
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="F24" s="18" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="J24" s="19" t="s">
         <v>438</v>
-      </c>
-      <c r="J24" s="19" t="s">
-        <v>440</v>
       </c>
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
@@ -4192,7 +4411,7 @@
       <c r="G25" s="5"/>
       <c r="J25" s="19"/>
       <c r="K25" s="19" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="L25" s="19"/>
       <c r="M25" s="20"/>
@@ -4215,7 +4434,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="J27" s="19" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="K27" s="20"/>
       <c r="L27" s="19"/>
@@ -4229,7 +4448,7 @@
       <c r="G28" s="4"/>
       <c r="J28" s="20"/>
       <c r="K28" s="19" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="L28" s="20"/>
       <c r="M28" s="20"/>
@@ -4296,7 +4515,9 @@
   </sheetPr>
   <dimension ref="B5:I50"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4579,7 +4800,7 @@
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="13"/>
       <c r="C31" s="21" t="s">
-        <v>95</v>
+        <v>543</v>
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
@@ -4600,7 +4821,7 @@
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="13"/>
       <c r="C33" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
@@ -4634,7 +4855,7 @@
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
@@ -4665,7 +4886,7 @@
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
@@ -4688,7 +4909,7 @@
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
@@ -4710,7 +4931,7 @@
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
@@ -4772,7 +4993,7 @@
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="13"/>
       <c r="C49" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
@@ -4808,17 +5029,17 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B4:P331"/>
+  <dimension ref="B4:P438"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A301" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D316" sqref="D316"/>
+    <sheetView showGridLines="0" topLeftCell="A288" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B213" sqref="B213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -4837,7 +5058,7 @@
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -4873,7 +5094,7 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -4892,7 +5113,7 @@
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -4911,7 +5132,7 @@
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -4966,7 +5187,7 @@
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -5005,7 +5226,7 @@
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="13"/>
       <c r="C14" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -5024,7 +5245,7 @@
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="13"/>
       <c r="C15" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -5043,7 +5264,7 @@
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="13"/>
       <c r="C16" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -5079,7 +5300,7 @@
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="13"/>
       <c r="C18" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
@@ -5118,7 +5339,7 @@
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
@@ -5137,7 +5358,7 @@
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
@@ -5156,7 +5377,7 @@
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
@@ -5175,7 +5396,7 @@
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
@@ -5194,7 +5415,7 @@
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
@@ -5213,7 +5434,7 @@
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
@@ -5252,7 +5473,7 @@
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
@@ -5271,7 +5492,7 @@
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
@@ -5290,7 +5511,7 @@
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
@@ -5310,7 +5531,7 @@
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
       <c r="F30" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
@@ -5400,7 +5621,7 @@
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" s="13"/>
       <c r="C35" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
@@ -5459,7 +5680,7 @@
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
@@ -5516,7 +5737,7 @@
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
@@ -5535,7 +5756,7 @@
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
@@ -5592,7 +5813,7 @@
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
@@ -5630,7 +5851,7 @@
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
       <c r="E47" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
@@ -5684,7 +5905,7 @@
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
       <c r="D50" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
@@ -5704,7 +5925,7 @@
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
@@ -5723,7 +5944,7 @@
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
       <c r="E52" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
@@ -5742,7 +5963,7 @@
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F53" s="13"/>
       <c r="G53" s="13"/>
@@ -5761,7 +5982,7 @@
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
@@ -5814,7 +6035,7 @@
     <row r="57" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B57" s="13"/>
       <c r="C57" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="13"/>
@@ -5885,7 +6106,7 @@
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B61" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
@@ -5924,7 +6145,7 @@
     <row r="63" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B63" s="13"/>
       <c r="C63" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="13"/>
@@ -5943,7 +6164,7 @@
     <row r="64" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B64" s="13"/>
       <c r="C64" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="13"/>
@@ -5982,7 +6203,7 @@
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
       <c r="D66" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E66" s="13"/>
       <c r="F66" s="13"/>
@@ -6020,7 +6241,7 @@
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
       <c r="D68" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E68" s="13"/>
       <c r="F68" s="13"/>
@@ -6109,7 +6330,7 @@
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B73" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C73" s="13"/>
       <c r="D73" s="13"/>
@@ -6148,7 +6369,7 @@
     <row r="75" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B75" s="13"/>
       <c r="C75" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D75" s="13"/>
       <c r="E75" s="13"/>
@@ -6167,7 +6388,7 @@
     <row r="76" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B76" s="13"/>
       <c r="C76" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
@@ -6206,7 +6427,7 @@
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
       <c r="D78" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
@@ -6244,7 +6465,7 @@
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
       <c r="D80" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E80" s="13"/>
       <c r="F80" s="13"/>
@@ -6333,7 +6554,7 @@
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B85" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C85" s="13"/>
       <c r="D85" s="13"/>
@@ -6372,7 +6593,7 @@
     <row r="87" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B87" s="13"/>
       <c r="C87" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D87" s="13"/>
       <c r="E87" s="13"/>
@@ -6391,7 +6612,7 @@
     <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B88" s="13"/>
       <c r="C88" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D88" s="13"/>
       <c r="E88" s="13"/>
@@ -6430,7 +6651,7 @@
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
       <c r="D90" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E90" s="13"/>
       <c r="F90" s="13"/>
@@ -6468,7 +6689,7 @@
       <c r="B92" s="13"/>
       <c r="C92" s="13"/>
       <c r="D92" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E92" s="13"/>
       <c r="F92" s="13"/>
@@ -6540,7 +6761,7 @@
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B96" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C96" s="13"/>
       <c r="D96" s="13"/>
@@ -6579,7 +6800,7 @@
     <row r="98" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B98" s="13"/>
       <c r="C98" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D98" s="13"/>
       <c r="E98" s="13"/>
@@ -6615,7 +6836,7 @@
     <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B100" s="13"/>
       <c r="C100" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D100" s="13"/>
       <c r="E100" s="13"/>
@@ -6654,7 +6875,7 @@
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
       <c r="D102" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E102" s="13"/>
       <c r="F102" s="13"/>
@@ -6692,7 +6913,7 @@
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
       <c r="D104" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E104" s="13"/>
       <c r="F104" s="13"/>
@@ -6781,7 +7002,7 @@
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B109" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C109" s="13"/>
       <c r="D109" s="13"/>
@@ -6820,7 +7041,7 @@
     <row r="111" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B111" s="13"/>
       <c r="C111" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D111" s="13"/>
       <c r="E111" s="13"/>
@@ -6839,7 +7060,7 @@
     <row r="112" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B112" s="13"/>
       <c r="C112" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D112" s="13"/>
       <c r="E112" s="13"/>
@@ -6878,7 +7099,7 @@
       <c r="B114" s="13"/>
       <c r="C114" s="13"/>
       <c r="D114" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E114" s="13"/>
       <c r="F114" s="13"/>
@@ -6916,7 +7137,7 @@
       <c r="B116" s="13"/>
       <c r="C116" s="13"/>
       <c r="D116" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E116" s="13"/>
       <c r="F116" s="13"/>
@@ -7022,7 +7243,7 @@
     </row>
     <row r="122" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B122" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C122" s="13"/>
       <c r="D122" s="13"/>
@@ -7041,7 +7262,7 @@
     </row>
     <row r="123" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B123" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C123" s="13"/>
       <c r="D123" s="13"/>
@@ -7080,7 +7301,7 @@
     <row r="125" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B125" s="13"/>
       <c r="C125" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D125" s="13"/>
       <c r="E125" s="13"/>
@@ -7099,7 +7320,7 @@
     <row r="126" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B126" s="13"/>
       <c r="C126" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D126" s="13"/>
       <c r="E126" s="13"/>
@@ -7118,7 +7339,7 @@
     <row r="127" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B127" s="13"/>
       <c r="C127" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D127" s="13"/>
       <c r="E127" s="13"/>
@@ -7157,7 +7378,7 @@
       <c r="B129" s="13"/>
       <c r="C129" s="13"/>
       <c r="D129" s="13" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E129" s="13"/>
       <c r="F129" s="13"/>
@@ -7195,7 +7416,7 @@
       <c r="B131" s="13"/>
       <c r="C131" s="13"/>
       <c r="D131" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E131" s="13"/>
       <c r="F131" s="13"/>
@@ -7267,7 +7488,7 @@
     </row>
     <row r="135" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B135" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C135" s="13"/>
       <c r="D135" s="13"/>
@@ -7286,7 +7507,7 @@
     </row>
     <row r="136" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B136" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C136" s="17"/>
       <c r="D136" s="17"/>
@@ -7325,7 +7546,7 @@
     <row r="138" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B138" s="13"/>
       <c r="C138" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D138" s="13"/>
       <c r="E138" s="13"/>
@@ -7344,7 +7565,7 @@
     <row r="139" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B139" s="13"/>
       <c r="C139" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D139" s="13"/>
       <c r="E139" s="13"/>
@@ -7363,7 +7584,7 @@
     <row r="140" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B140" s="13"/>
       <c r="C140" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D140" s="13"/>
       <c r="E140" s="13"/>
@@ -7382,7 +7603,7 @@
     <row r="141" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B141" s="13"/>
       <c r="C141" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D141" s="13"/>
       <c r="E141" s="13"/>
@@ -7401,7 +7622,7 @@
     <row r="142" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B142" s="13"/>
       <c r="C142" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D142" s="13"/>
       <c r="E142" s="13"/>
@@ -7437,7 +7658,7 @@
     <row r="144" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B144" s="13"/>
       <c r="C144" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D144" s="13"/>
       <c r="E144" s="13"/>
@@ -7456,7 +7677,7 @@
     <row r="145" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B145" s="13"/>
       <c r="C145" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D145" s="13"/>
       <c r="E145" s="13"/>
@@ -7494,7 +7715,7 @@
     <row r="147" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B147" s="13"/>
       <c r="C147" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D147" s="13"/>
       <c r="E147" s="13"/>
@@ -7513,7 +7734,7 @@
     <row r="148" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B148" s="13"/>
       <c r="C148" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D148" s="13"/>
       <c r="E148" s="13"/>
@@ -7532,7 +7753,7 @@
     <row r="149" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B149" s="13"/>
       <c r="C149" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D149" s="13"/>
       <c r="E149" s="13"/>
@@ -7568,7 +7789,7 @@
     <row r="151" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B151" s="13"/>
       <c r="C151" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D151" s="13"/>
       <c r="E151" s="13"/>
@@ -7587,7 +7808,7 @@
     <row r="152" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B152" s="13"/>
       <c r="C152" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D152" s="13"/>
       <c r="E152" s="13"/>
@@ -7626,7 +7847,7 @@
       <c r="B154" s="13"/>
       <c r="C154" s="13"/>
       <c r="D154" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E154" s="13"/>
       <c r="F154" s="13"/>
@@ -7645,7 +7866,7 @@
       <c r="B155" s="13"/>
       <c r="C155" s="13"/>
       <c r="D155" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E155" s="13"/>
       <c r="F155" s="13"/>
@@ -7703,7 +7924,7 @@
       <c r="C158" s="13"/>
       <c r="D158" s="13"/>
       <c r="E158" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F158" s="13"/>
       <c r="G158" s="13"/>
@@ -7722,7 +7943,7 @@
       <c r="C159" s="13"/>
       <c r="D159" s="13"/>
       <c r="E159" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F159" s="13"/>
       <c r="G159" s="13"/>
@@ -7760,7 +7981,7 @@
       <c r="C161" s="13"/>
       <c r="D161" s="13"/>
       <c r="E161" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F161" s="13"/>
       <c r="G161" s="13"/>
@@ -7779,7 +8000,7 @@
       <c r="C162" s="13"/>
       <c r="D162" s="13"/>
       <c r="E162" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F162" s="13"/>
       <c r="G162" s="13"/>
@@ -7817,7 +8038,7 @@
       <c r="C164" s="13"/>
       <c r="D164" s="13"/>
       <c r="E164" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F164" s="13"/>
       <c r="G164" s="13"/>
@@ -7852,7 +8073,7 @@
       <c r="B166" s="13"/>
       <c r="C166" s="13"/>
       <c r="D166" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E166" s="13"/>
       <c r="F166" s="13"/>
@@ -7891,7 +8112,7 @@
       <c r="C168" s="13"/>
       <c r="D168" s="13"/>
       <c r="E168" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F168" s="13"/>
       <c r="G168" s="13"/>
@@ -7910,7 +8131,7 @@
       <c r="C169" s="13"/>
       <c r="D169" s="13"/>
       <c r="E169" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F169" s="13"/>
       <c r="G169" s="13"/>
@@ -7929,7 +8150,7 @@
       <c r="C170" s="13"/>
       <c r="D170" s="13"/>
       <c r="E170" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F170" s="13"/>
       <c r="G170" s="13"/>
@@ -7948,7 +8169,7 @@
       <c r="C171" s="13"/>
       <c r="D171" s="13"/>
       <c r="E171" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F171" s="13"/>
       <c r="G171" s="13"/>
@@ -7987,7 +8208,7 @@
       <c r="D173" s="13"/>
       <c r="E173" s="13"/>
       <c r="F173" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G173" s="13"/>
       <c r="H173" s="13"/>
@@ -8041,7 +8262,7 @@
       <c r="C176" s="13"/>
       <c r="D176" s="13"/>
       <c r="E176" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F176" s="13"/>
       <c r="G176" s="13"/>
@@ -8060,7 +8281,7 @@
       <c r="C177" s="13"/>
       <c r="D177" s="13"/>
       <c r="E177" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F177" s="13"/>
       <c r="G177" s="13"/>
@@ -8099,7 +8320,7 @@
       <c r="D179" s="13"/>
       <c r="E179" s="13"/>
       <c r="F179" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G179" s="13"/>
       <c r="H179" s="13"/>
@@ -8118,7 +8339,7 @@
       <c r="D180" s="13"/>
       <c r="E180" s="13"/>
       <c r="F180" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G180" s="13"/>
       <c r="H180" s="13"/>
@@ -8137,7 +8358,7 @@
       <c r="D181" s="13"/>
       <c r="E181" s="13"/>
       <c r="F181" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G181" s="13"/>
       <c r="H181" s="13"/>
@@ -8156,7 +8377,7 @@
       <c r="D182" s="13"/>
       <c r="E182" s="13"/>
       <c r="F182" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G182" s="13"/>
       <c r="H182" s="13"/>
@@ -8192,7 +8413,7 @@
       <c r="D184" s="13"/>
       <c r="E184" s="13"/>
       <c r="F184" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G184" s="13"/>
       <c r="H184" s="13"/>
@@ -8213,7 +8434,7 @@
       <c r="F185" s="13"/>
       <c r="G185" s="13"/>
       <c r="H185" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I185" s="13"/>
       <c r="J185" s="13"/>
@@ -8232,7 +8453,7 @@
       <c r="F186" s="13"/>
       <c r="G186" s="13"/>
       <c r="H186" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I186" s="13"/>
       <c r="J186" s="13"/>
@@ -8251,7 +8472,7 @@
       <c r="F187" s="13"/>
       <c r="G187" s="13"/>
       <c r="H187" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I187" s="13"/>
       <c r="J187" s="13"/>
@@ -8268,7 +8489,7 @@
       <c r="D188" s="13"/>
       <c r="E188" s="13"/>
       <c r="F188" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G188" s="13"/>
       <c r="H188" s="13"/>
@@ -8307,7 +8528,7 @@
       <c r="E190" s="13"/>
       <c r="F190" s="13"/>
       <c r="G190" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H190" s="13"/>
       <c r="I190" s="13"/>
@@ -8432,7 +8653,7 @@
     <row r="197" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B197" s="13"/>
       <c r="C197" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D197" s="13"/>
       <c r="E197" s="13"/>
@@ -8491,7 +8712,7 @@
       <c r="C200" s="13"/>
       <c r="D200" s="13"/>
       <c r="E200" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F200" s="13"/>
       <c r="G200" s="13"/>
@@ -8548,7 +8769,7 @@
       <c r="C203" s="13"/>
       <c r="D203" s="13"/>
       <c r="E203" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F203" s="13"/>
       <c r="G203" s="13"/>
@@ -8585,7 +8806,7 @@
       <c r="B205" s="13"/>
       <c r="C205" s="13"/>
       <c r="D205" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E205" s="13"/>
       <c r="F205" s="13"/>
@@ -8605,7 +8826,7 @@
       <c r="C206" s="13"/>
       <c r="D206" s="13"/>
       <c r="E206" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F206" s="13"/>
       <c r="G206" s="13"/>
@@ -8658,7 +8879,7 @@
     <row r="209" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B209" s="13"/>
       <c r="C209" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D209" s="13"/>
       <c r="E209" s="13"/>
@@ -8729,7 +8950,7 @@
     </row>
     <row r="213" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B213" s="17" t="s">
-        <v>186</v>
+        <v>469</v>
       </c>
       <c r="C213" s="17"/>
       <c r="D213" s="17"/>
@@ -8768,7 +8989,7 @@
     <row r="215" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B215" s="13"/>
       <c r="C215" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D215" s="13"/>
       <c r="E215" s="13"/>
@@ -8787,7 +9008,7 @@
     <row r="216" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B216" s="13"/>
       <c r="C216" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D216" s="13"/>
       <c r="E216" s="13"/>
@@ -8806,7 +9027,7 @@
     <row r="217" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B217" s="13"/>
       <c r="C217" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D217" s="13"/>
       <c r="E217" s="13"/>
@@ -8825,7 +9046,7 @@
     <row r="218" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B218" s="13"/>
       <c r="C218" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D218" s="13"/>
       <c r="E218" s="13"/>
@@ -8861,7 +9082,7 @@
     <row r="220" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B220" s="13"/>
       <c r="C220" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D220" s="13"/>
       <c r="E220" s="13"/>
@@ -8880,7 +9101,7 @@
     <row r="221" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B221" s="13"/>
       <c r="C221" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D221" s="13"/>
       <c r="E221" s="13"/>
@@ -8918,7 +9139,7 @@
     <row r="223" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B223" s="13"/>
       <c r="C223" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D223" s="13"/>
       <c r="E223" s="13"/>
@@ -8937,7 +9158,7 @@
     <row r="224" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B224" s="13"/>
       <c r="C224" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D224" s="13"/>
       <c r="E224" s="13"/>
@@ -8956,7 +9177,7 @@
     <row r="225" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B225" s="13"/>
       <c r="C225" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D225" s="13"/>
       <c r="E225" s="13"/>
@@ -8974,7 +9195,9 @@
     </row>
     <row r="226" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B226" s="13"/>
-      <c r="C226" s="13"/>
+      <c r="C226" s="13" t="s">
+        <v>86</v>
+      </c>
       <c r="D226" s="13"/>
       <c r="E226" s="13"/>
       <c r="F226" s="13"/>
@@ -8991,9 +9214,7 @@
     </row>
     <row r="227" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B227" s="13"/>
-      <c r="C227" s="13" t="s">
-        <v>74</v>
-      </c>
+      <c r="C227" s="13"/>
       <c r="D227" s="13"/>
       <c r="E227" s="13"/>
       <c r="F227" s="13"/>
@@ -9011,7 +9232,7 @@
     <row r="228" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B228" s="13"/>
       <c r="C228" s="13" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="D228" s="13"/>
       <c r="E228" s="13"/>
@@ -9030,7 +9251,7 @@
     <row r="229" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B229" s="13"/>
       <c r="C229" s="13" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="D229" s="13"/>
       <c r="E229" s="13"/>
@@ -9048,10 +9269,10 @@
     </row>
     <row r="230" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B230" s="13"/>
-      <c r="C230" s="13"/>
-      <c r="D230" s="13" t="s">
-        <v>159</v>
-      </c>
+      <c r="C230" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D230" s="13"/>
       <c r="E230" s="13"/>
       <c r="F230" s="13"/>
       <c r="G230" s="13"/>
@@ -9069,7 +9290,7 @@
       <c r="B231" s="13"/>
       <c r="C231" s="13"/>
       <c r="D231" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E231" s="13"/>
       <c r="F231" s="13"/>
@@ -9088,7 +9309,7 @@
       <c r="B232" s="13"/>
       <c r="C232" s="13"/>
       <c r="D232" s="13" t="s">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="E232" s="13"/>
       <c r="F232" s="13"/>
@@ -9107,7 +9328,7 @@
       <c r="B233" s="13"/>
       <c r="C233" s="13"/>
       <c r="D233" s="13" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E233" s="13"/>
       <c r="F233" s="13"/>
@@ -9125,7 +9346,9 @@
     <row r="234" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B234" s="13"/>
       <c r="C234" s="13"/>
-      <c r="D234" s="13"/>
+      <c r="D234" s="13" t="s">
+        <v>72</v>
+      </c>
       <c r="E234" s="13"/>
       <c r="F234" s="13"/>
       <c r="G234" s="13"/>
@@ -9143,9 +9366,7 @@
       <c r="B235" s="13"/>
       <c r="C235" s="13"/>
       <c r="D235" s="13"/>
-      <c r="E235" s="13" t="s">
-        <v>162</v>
-      </c>
+      <c r="E235" s="13"/>
       <c r="F235" s="13"/>
       <c r="G235" s="13"/>
       <c r="H235" s="13"/>
@@ -9161,10 +9382,10 @@
     <row r="236" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B236" s="13"/>
       <c r="C236" s="13"/>
-      <c r="D236" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E236" s="13"/>
+      <c r="D236" s="13"/>
+      <c r="E236" s="13" t="s">
+        <v>161</v>
+      </c>
       <c r="F236" s="13"/>
       <c r="G236" s="13"/>
       <c r="H236" s="13"/>
@@ -9180,10 +9401,10 @@
     <row r="237" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B237" s="13"/>
       <c r="C237" s="13"/>
-      <c r="D237" s="13"/>
-      <c r="E237" s="13" t="s">
-        <v>164</v>
-      </c>
+      <c r="D237" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E237" s="13"/>
       <c r="F237" s="13"/>
       <c r="G237" s="13"/>
       <c r="H237" s="13"/>
@@ -9199,10 +9420,10 @@
     <row r="238" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B238" s="13"/>
       <c r="C238" s="13"/>
-      <c r="D238" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E238" s="13"/>
+      <c r="D238" s="13"/>
+      <c r="E238" s="13" t="s">
+        <v>163</v>
+      </c>
       <c r="F238" s="13"/>
       <c r="G238" s="13"/>
       <c r="H238" s="13"/>
@@ -9218,10 +9439,10 @@
     <row r="239" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B239" s="13"/>
       <c r="C239" s="13"/>
-      <c r="D239" s="13"/>
-      <c r="E239" s="13" t="s">
-        <v>187</v>
-      </c>
+      <c r="D239" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E239" s="13"/>
       <c r="F239" s="13"/>
       <c r="G239" s="13"/>
       <c r="H239" s="13"/>
@@ -9255,7 +9476,7 @@
       <c r="B241" s="13"/>
       <c r="C241" s="13"/>
       <c r="D241" s="13" t="s">
-        <v>188</v>
+        <v>470</v>
       </c>
       <c r="E241" s="13"/>
       <c r="F241" s="13"/>
@@ -9274,7 +9495,7 @@
       <c r="B242" s="13"/>
       <c r="C242" s="13"/>
       <c r="D242" s="13" t="s">
-        <v>72</v>
+        <v>471</v>
       </c>
       <c r="E242" s="13"/>
       <c r="F242" s="13"/>
@@ -9292,10 +9513,10 @@
     <row r="243" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B243" s="13"/>
       <c r="C243" s="13"/>
-      <c r="D243" s="13"/>
-      <c r="E243" s="13" t="s">
-        <v>159</v>
-      </c>
+      <c r="D243" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E243" s="13"/>
       <c r="F243" s="13"/>
       <c r="G243" s="13"/>
       <c r="H243" s="13"/>
@@ -9312,9 +9533,7 @@
       <c r="B244" s="13"/>
       <c r="C244" s="13"/>
       <c r="D244" s="13"/>
-      <c r="E244" s="13" t="s">
-        <v>189</v>
-      </c>
+      <c r="E244" s="13"/>
       <c r="F244" s="13"/>
       <c r="G244" s="13"/>
       <c r="H244" s="13"/>
@@ -9330,10 +9549,10 @@
     <row r="245" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B245" s="13"/>
       <c r="C245" s="13"/>
-      <c r="D245" s="13"/>
-      <c r="E245" s="13" t="s">
-        <v>168</v>
-      </c>
+      <c r="D245" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="E245" s="13"/>
       <c r="F245" s="13"/>
       <c r="G245" s="13"/>
       <c r="H245" s="13"/>
@@ -9349,10 +9568,10 @@
     <row r="246" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B246" s="13"/>
       <c r="C246" s="13"/>
-      <c r="D246" s="13"/>
-      <c r="E246" s="13" t="s">
-        <v>169</v>
-      </c>
+      <c r="D246" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E246" s="13"/>
       <c r="F246" s="13"/>
       <c r="G246" s="13"/>
       <c r="H246" s="13"/>
@@ -9370,7 +9589,7 @@
       <c r="C247" s="13"/>
       <c r="D247" s="13"/>
       <c r="E247" s="13" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
       <c r="F247" s="13"/>
       <c r="G247" s="13"/>
@@ -9388,10 +9607,10 @@
       <c r="B248" s="13"/>
       <c r="C248" s="13"/>
       <c r="D248" s="13"/>
-      <c r="E248" s="13"/>
-      <c r="F248" s="13" t="s">
-        <v>190</v>
-      </c>
+      <c r="E248" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="F248" s="13"/>
       <c r="G248" s="13"/>
       <c r="H248" s="13"/>
       <c r="I248" s="13"/>
@@ -9408,7 +9627,7 @@
       <c r="C249" s="13"/>
       <c r="D249" s="13"/>
       <c r="E249" s="13" t="s">
-        <v>82</v>
+        <v>167</v>
       </c>
       <c r="F249" s="13"/>
       <c r="G249" s="13"/>
@@ -9426,7 +9645,9 @@
       <c r="B250" s="13"/>
       <c r="C250" s="13"/>
       <c r="D250" s="13"/>
-      <c r="E250" s="13"/>
+      <c r="E250" s="13" t="s">
+        <v>168</v>
+      </c>
       <c r="F250" s="13"/>
       <c r="G250" s="13"/>
       <c r="H250" s="13"/>
@@ -9444,7 +9665,7 @@
       <c r="C251" s="13"/>
       <c r="D251" s="13"/>
       <c r="E251" s="13" t="s">
-        <v>171</v>
+        <v>72</v>
       </c>
       <c r="F251" s="13"/>
       <c r="G251" s="13"/>
@@ -9462,10 +9683,10 @@
       <c r="B252" s="13"/>
       <c r="C252" s="13"/>
       <c r="D252" s="13"/>
-      <c r="E252" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="F252" s="13"/>
+      <c r="E252" s="13"/>
+      <c r="F252" s="13" t="s">
+        <v>188</v>
+      </c>
       <c r="G252" s="13"/>
       <c r="H252" s="13"/>
       <c r="I252" s="13"/>
@@ -9482,7 +9703,7 @@
       <c r="C253" s="13"/>
       <c r="D253" s="13"/>
       <c r="E253" s="13" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F253" s="13"/>
       <c r="G253" s="13"/>
@@ -9501,9 +9722,7 @@
       <c r="C254" s="13"/>
       <c r="D254" s="13"/>
       <c r="E254" s="13"/>
-      <c r="F254" s="13" t="s">
-        <v>173</v>
-      </c>
+      <c r="F254" s="13"/>
       <c r="G254" s="13"/>
       <c r="H254" s="13"/>
       <c r="I254" s="13"/>
@@ -9519,10 +9738,10 @@
       <c r="B255" s="13"/>
       <c r="C255" s="13"/>
       <c r="D255" s="13"/>
-      <c r="E255" s="13"/>
-      <c r="F255" s="13" t="s">
-        <v>174</v>
-      </c>
+      <c r="E255" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="F255" s="13"/>
       <c r="G255" s="13"/>
       <c r="H255" s="13"/>
       <c r="I255" s="13"/>
@@ -9538,10 +9757,10 @@
       <c r="B256" s="13"/>
       <c r="C256" s="13"/>
       <c r="D256" s="13"/>
-      <c r="E256" s="13"/>
-      <c r="F256" s="13" t="s">
-        <v>175</v>
-      </c>
+      <c r="E256" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="F256" s="13"/>
       <c r="G256" s="13"/>
       <c r="H256" s="13"/>
       <c r="I256" s="13"/>
@@ -9557,10 +9776,10 @@
       <c r="B257" s="13"/>
       <c r="C257" s="13"/>
       <c r="D257" s="13"/>
-      <c r="E257" s="13"/>
-      <c r="F257" s="13" t="s">
-        <v>176</v>
-      </c>
+      <c r="E257" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F257" s="13"/>
       <c r="G257" s="13"/>
       <c r="H257" s="13"/>
       <c r="I257" s="13"/>
@@ -9577,7 +9796,9 @@
       <c r="C258" s="13"/>
       <c r="D258" s="13"/>
       <c r="E258" s="13"/>
-      <c r="F258" s="13"/>
+      <c r="F258" s="13" t="s">
+        <v>172</v>
+      </c>
       <c r="G258" s="13"/>
       <c r="H258" s="13"/>
       <c r="I258" s="13"/>
@@ -9595,7 +9816,7 @@
       <c r="D259" s="13"/>
       <c r="E259" s="13"/>
       <c r="F259" s="13" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G259" s="13"/>
       <c r="H259" s="13"/>
@@ -9613,11 +9834,11 @@
       <c r="C260" s="13"/>
       <c r="D260" s="13"/>
       <c r="E260" s="13"/>
-      <c r="F260" s="13"/>
+      <c r="F260" s="13" t="s">
+        <v>174</v>
+      </c>
       <c r="G260" s="13"/>
-      <c r="H260" s="13" t="s">
-        <v>178</v>
-      </c>
+      <c r="H260" s="13"/>
       <c r="I260" s="13"/>
       <c r="J260" s="13"/>
       <c r="K260" s="13"/>
@@ -9632,11 +9853,11 @@
       <c r="C261" s="13"/>
       <c r="D261" s="13"/>
       <c r="E261" s="13"/>
-      <c r="F261" s="13"/>
+      <c r="F261" s="13" t="s">
+        <v>175</v>
+      </c>
       <c r="G261" s="13"/>
-      <c r="H261" s="13" t="s">
-        <v>179</v>
-      </c>
+      <c r="H261" s="13"/>
       <c r="I261" s="13"/>
       <c r="J261" s="13"/>
       <c r="K261" s="13"/>
@@ -9653,9 +9874,7 @@
       <c r="E262" s="13"/>
       <c r="F262" s="13"/>
       <c r="G262" s="13"/>
-      <c r="H262" s="13" t="s">
-        <v>180</v>
-      </c>
+      <c r="H262" s="13"/>
       <c r="I262" s="13"/>
       <c r="J262" s="13"/>
       <c r="K262" s="13"/>
@@ -9671,7 +9890,7 @@
       <c r="D263" s="13"/>
       <c r="E263" s="13"/>
       <c r="F263" s="13" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G263" s="13"/>
       <c r="H263" s="13"/>
@@ -9689,11 +9908,11 @@
       <c r="C264" s="13"/>
       <c r="D264" s="13"/>
       <c r="E264" s="13"/>
-      <c r="F264" s="13" t="s">
-        <v>72</v>
-      </c>
+      <c r="F264" s="13"/>
       <c r="G264" s="13"/>
-      <c r="H264" s="13"/>
+      <c r="H264" s="13" t="s">
+        <v>177</v>
+      </c>
       <c r="I264" s="13"/>
       <c r="J264" s="13"/>
       <c r="K264" s="13"/>
@@ -9709,10 +9928,10 @@
       <c r="D265" s="13"/>
       <c r="E265" s="13"/>
       <c r="F265" s="13"/>
-      <c r="G265" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="H265" s="13"/>
+      <c r="G265" s="13"/>
+      <c r="H265" s="13" t="s">
+        <v>178</v>
+      </c>
       <c r="I265" s="13"/>
       <c r="J265" s="13"/>
       <c r="K265" s="13"/>
@@ -9727,11 +9946,11 @@
       <c r="C266" s="13"/>
       <c r="D266" s="13"/>
       <c r="E266" s="13"/>
-      <c r="F266" s="13" t="s">
-        <v>82</v>
-      </c>
+      <c r="F266" s="13"/>
       <c r="G266" s="13"/>
-      <c r="H266" s="13"/>
+      <c r="H266" s="13" t="s">
+        <v>179</v>
+      </c>
       <c r="I266" s="13"/>
       <c r="J266" s="13"/>
       <c r="K266" s="13"/>
@@ -9745,10 +9964,10 @@
       <c r="B267" s="13"/>
       <c r="C267" s="13"/>
       <c r="D267" s="13"/>
-      <c r="E267" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F267" s="13"/>
+      <c r="E267" s="13"/>
+      <c r="F267" s="13" t="s">
+        <v>180</v>
+      </c>
       <c r="G267" s="13"/>
       <c r="H267" s="13"/>
       <c r="I267" s="13"/>
@@ -9763,11 +9982,11 @@
     <row r="268" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B268" s="13"/>
       <c r="C268" s="13"/>
-      <c r="D268" s="13" t="s">
-        <v>82</v>
-      </c>
+      <c r="D268" s="13"/>
       <c r="E268" s="13"/>
-      <c r="F268" s="13"/>
+      <c r="F268" s="13" t="s">
+        <v>72</v>
+      </c>
       <c r="G268" s="13"/>
       <c r="H268" s="13"/>
       <c r="I268" s="13"/>
@@ -9785,7 +10004,9 @@
       <c r="D269" s="13"/>
       <c r="E269" s="13"/>
       <c r="F269" s="13"/>
-      <c r="G269" s="13"/>
+      <c r="G269" s="13" t="s">
+        <v>189</v>
+      </c>
       <c r="H269" s="13"/>
       <c r="I269" s="13"/>
       <c r="J269" s="13"/>
@@ -9801,7 +10022,9 @@
       <c r="C270" s="13"/>
       <c r="D270" s="13"/>
       <c r="E270" s="13"/>
-      <c r="F270" s="13"/>
+      <c r="F270" s="13" t="s">
+        <v>82</v>
+      </c>
       <c r="G270" s="13"/>
       <c r="H270" s="13"/>
       <c r="I270" s="13"/>
@@ -9815,11 +10038,11 @@
     </row>
     <row r="271" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B271" s="13"/>
-      <c r="C271" s="13" t="s">
+      <c r="C271" s="13"/>
+      <c r="D271" s="13"/>
+      <c r="E271" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D271" s="13"/>
-      <c r="E271" s="13"/>
       <c r="F271" s="13"/>
       <c r="G271" s="13"/>
       <c r="H271" s="13"/>
@@ -9834,10 +10057,10 @@
     </row>
     <row r="272" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B272" s="13"/>
-      <c r="C272" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="D272" s="13"/>
+      <c r="C272" s="13"/>
+      <c r="D272" s="13" t="s">
+        <v>82</v>
+      </c>
       <c r="E272" s="13"/>
       <c r="F272" s="13"/>
       <c r="G272" s="13"/>
@@ -9853,9 +10076,7 @@
     </row>
     <row r="273" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B273" s="13"/>
-      <c r="C273" s="13" t="s">
-        <v>72</v>
-      </c>
+      <c r="C273" s="13"/>
       <c r="D273" s="13"/>
       <c r="E273" s="13"/>
       <c r="F273" s="13"/>
@@ -9873,9 +10094,7 @@
     <row r="274" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B274" s="13"/>
       <c r="C274" s="13"/>
-      <c r="D274" s="13" t="s">
-        <v>76</v>
-      </c>
+      <c r="D274" s="13"/>
       <c r="E274" s="13"/>
       <c r="F274" s="13"/>
       <c r="G274" s="13"/>
@@ -9891,11 +10110,11 @@
     </row>
     <row r="275" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B275" s="13"/>
-      <c r="C275" s="13"/>
+      <c r="C275" s="13" t="s">
+        <v>82</v>
+      </c>
       <c r="D275" s="13"/>
-      <c r="E275" s="13" t="s">
-        <v>184</v>
-      </c>
+      <c r="E275" s="13"/>
       <c r="F275" s="13"/>
       <c r="G275" s="13"/>
       <c r="H275" s="13"/>
@@ -9910,11 +10129,11 @@
     </row>
     <row r="276" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B276" s="13"/>
-      <c r="C276" s="13"/>
+      <c r="C276" s="13" t="s">
+        <v>182</v>
+      </c>
       <c r="D276" s="13"/>
-      <c r="E276" s="13" t="s">
-        <v>77</v>
-      </c>
+      <c r="E276" s="13"/>
       <c r="F276" s="13"/>
       <c r="G276" s="13"/>
       <c r="H276" s="13"/>
@@ -9929,10 +10148,10 @@
     </row>
     <row r="277" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B277" s="13"/>
-      <c r="C277" s="13"/>
-      <c r="D277" s="13" t="s">
-        <v>78</v>
-      </c>
+      <c r="C277" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D277" s="13"/>
       <c r="E277" s="13"/>
       <c r="F277" s="13"/>
       <c r="G277" s="13"/>
@@ -9949,10 +10168,10 @@
     <row r="278" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B278" s="13"/>
       <c r="C278" s="13"/>
-      <c r="D278" s="13"/>
-      <c r="E278" s="13" t="s">
-        <v>122</v>
-      </c>
+      <c r="D278" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E278" s="13"/>
       <c r="F278" s="13"/>
       <c r="G278" s="13"/>
       <c r="H278" s="13"/>
@@ -9970,7 +10189,7 @@
       <c r="C279" s="13"/>
       <c r="D279" s="13"/>
       <c r="E279" s="13" t="s">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="F279" s="13"/>
       <c r="G279" s="13"/>
@@ -9987,10 +10206,10 @@
     <row r="280" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B280" s="13"/>
       <c r="C280" s="13"/>
-      <c r="D280" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="E280" s="13"/>
+      <c r="D280" s="13"/>
+      <c r="E280" s="13" t="s">
+        <v>77</v>
+      </c>
       <c r="F280" s="13"/>
       <c r="G280" s="13"/>
       <c r="H280" s="13"/>
@@ -10006,10 +10225,10 @@
     <row r="281" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B281" s="13"/>
       <c r="C281" s="13"/>
-      <c r="D281" s="13"/>
-      <c r="E281" s="13" t="s">
-        <v>192</v>
-      </c>
+      <c r="D281" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E281" s="13"/>
       <c r="F281" s="13"/>
       <c r="G281" s="13"/>
       <c r="H281" s="13"/>
@@ -10024,11 +10243,11 @@
     </row>
     <row r="282" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B282" s="13"/>
-      <c r="C282" s="13" t="s">
-        <v>82</v>
-      </c>
+      <c r="C282" s="13"/>
       <c r="D282" s="13"/>
-      <c r="E282" s="13"/>
+      <c r="E282" s="13" t="s">
+        <v>121</v>
+      </c>
       <c r="F282" s="13"/>
       <c r="G282" s="13"/>
       <c r="H282" s="13"/>
@@ -10045,7 +10264,9 @@
       <c r="B283" s="13"/>
       <c r="C283" s="13"/>
       <c r="D283" s="13"/>
-      <c r="E283" s="13"/>
+      <c r="E283" s="13" t="s">
+        <v>77</v>
+      </c>
       <c r="F283" s="13"/>
       <c r="G283" s="13"/>
       <c r="H283" s="13"/>
@@ -10060,10 +10281,10 @@
     </row>
     <row r="284" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B284" s="13"/>
-      <c r="C284" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="D284" s="13"/>
+      <c r="C284" s="13"/>
+      <c r="D284" s="13" t="s">
+        <v>124</v>
+      </c>
       <c r="E284" s="13"/>
       <c r="F284" s="13"/>
       <c r="G284" s="13"/>
@@ -10078,12 +10299,12 @@
       <c r="P284" s="13"/>
     </row>
     <row r="285" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B285" s="13" t="s">
-        <v>82</v>
-      </c>
+      <c r="B285" s="13"/>
       <c r="C285" s="13"/>
       <c r="D285" s="13"/>
-      <c r="E285" s="13"/>
+      <c r="E285" s="13" t="s">
+        <v>190</v>
+      </c>
       <c r="F285" s="13"/>
       <c r="G285" s="13"/>
       <c r="H285" s="13"/>
@@ -10098,7 +10319,9 @@
     </row>
     <row r="286" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B286" s="13"/>
-      <c r="C286" s="13"/>
+      <c r="C286" s="13" t="s">
+        <v>82</v>
+      </c>
       <c r="D286" s="13"/>
       <c r="E286" s="13"/>
       <c r="F286" s="13"/>
@@ -10114,9 +10337,7 @@
       <c r="P286" s="13"/>
     </row>
     <row r="287" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B287" s="17" t="s">
-        <v>442</v>
-      </c>
+      <c r="B287" s="17"/>
       <c r="C287" s="17"/>
       <c r="D287" s="17"/>
       <c r="E287" s="17"/>
@@ -10133,10 +10354,10 @@
       <c r="P287" s="13"/>
     </row>
     <row r="288" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B288" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C288" s="13"/>
+      <c r="B288" s="13"/>
+      <c r="C288" s="13" t="s">
+        <v>128</v>
+      </c>
       <c r="D288" s="13"/>
       <c r="E288" s="13"/>
       <c r="F288" s="13"/>
@@ -10152,7 +10373,9 @@
       <c r="P288" s="13"/>
     </row>
     <row r="289" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B289" s="13"/>
+      <c r="B289" s="13" t="s">
+        <v>82</v>
+      </c>
       <c r="C289" s="13"/>
       <c r="D289" s="13"/>
       <c r="E289" s="13"/>
@@ -10170,9 +10393,7 @@
     </row>
     <row r="290" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B290" s="13"/>
-      <c r="C290" s="13" t="s">
-        <v>443</v>
-      </c>
+      <c r="C290" s="13"/>
       <c r="D290" s="13"/>
       <c r="E290" s="13"/>
       <c r="F290" s="13"/>
@@ -10188,10 +10409,10 @@
       <c r="P290" s="13"/>
     </row>
     <row r="291" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B291" s="13"/>
-      <c r="C291" s="13" t="s">
-        <v>72</v>
-      </c>
+      <c r="B291" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="C291" s="13"/>
       <c r="D291" s="13"/>
       <c r="E291" s="13"/>
       <c r="F291" s="13"/>
@@ -10207,11 +10428,11 @@
       <c r="P291" s="13"/>
     </row>
     <row r="292" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B292" s="13"/>
+      <c r="B292" s="13" t="s">
+        <v>72</v>
+      </c>
       <c r="C292" s="13"/>
-      <c r="D292" s="13" t="s">
-        <v>184</v>
-      </c>
+      <c r="D292" s="13"/>
       <c r="E292" s="13"/>
       <c r="F292" s="13"/>
       <c r="G292" s="13"/>
@@ -10228,9 +10449,7 @@
     <row r="293" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B293" s="13"/>
       <c r="C293" s="13"/>
-      <c r="D293" s="13" t="s">
-        <v>101</v>
-      </c>
+      <c r="D293" s="13"/>
       <c r="E293" s="13"/>
       <c r="F293" s="13"/>
       <c r="G293" s="13"/>
@@ -10247,7 +10466,7 @@
     <row r="294" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B294" s="13"/>
       <c r="C294" s="13" t="s">
-        <v>82</v>
+        <v>441</v>
       </c>
       <c r="D294" s="13"/>
       <c r="E294" s="13"/>
@@ -10266,7 +10485,7 @@
     <row r="295" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B295" s="13"/>
       <c r="C295" s="13" t="s">
-        <v>444</v>
+        <v>72</v>
       </c>
       <c r="D295" s="13"/>
       <c r="E295" s="13"/>
@@ -10284,10 +10503,10 @@
     </row>
     <row r="296" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B296" s="13"/>
-      <c r="C296" s="13" t="s">
-        <v>445</v>
-      </c>
-      <c r="D296" s="13"/>
+      <c r="C296" s="13"/>
+      <c r="D296" s="13" t="s">
+        <v>183</v>
+      </c>
       <c r="E296" s="13"/>
       <c r="F296" s="13"/>
       <c r="G296" s="13"/>
@@ -10303,10 +10522,10 @@
     </row>
     <row r="297" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B297" s="13"/>
-      <c r="C297" s="13" t="s">
-        <v>446</v>
-      </c>
-      <c r="D297" s="13"/>
+      <c r="C297" s="13"/>
+      <c r="D297" s="13" t="s">
+        <v>100</v>
+      </c>
       <c r="E297" s="13"/>
       <c r="F297" s="13"/>
       <c r="G297" s="13"/>
@@ -10323,7 +10542,7 @@
     <row r="298" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B298" s="13"/>
       <c r="C298" s="13" t="s">
-        <v>447</v>
+        <v>82</v>
       </c>
       <c r="D298" s="13"/>
       <c r="E298" s="13"/>
@@ -10341,7 +10560,9 @@
     </row>
     <row r="299" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B299" s="13"/>
-      <c r="C299" s="13"/>
+      <c r="C299" s="13" t="s">
+        <v>442</v>
+      </c>
       <c r="D299" s="13"/>
       <c r="E299" s="13"/>
       <c r="F299" s="13"/>
@@ -10359,7 +10580,7 @@
     <row r="300" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B300" s="13"/>
       <c r="C300" s="13" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D300" s="13"/>
       <c r="E300" s="13"/>
@@ -10378,7 +10599,7 @@
     <row r="301" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B301" s="13"/>
       <c r="C301" s="13" t="s">
-        <v>109</v>
+        <v>444</v>
       </c>
       <c r="D301" s="13"/>
       <c r="E301" s="13"/>
@@ -10396,7 +10617,9 @@
     </row>
     <row r="302" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B302" s="13"/>
-      <c r="C302" s="13"/>
+      <c r="C302" s="13" t="s">
+        <v>445</v>
+      </c>
       <c r="D302" s="13"/>
       <c r="E302" s="13"/>
       <c r="F302" s="13"/>
@@ -10413,9 +10636,7 @@
     </row>
     <row r="303" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B303" s="13"/>
-      <c r="C303" s="13" t="s">
-        <v>449</v>
-      </c>
+      <c r="C303" s="13"/>
       <c r="D303" s="13"/>
       <c r="E303" s="13"/>
       <c r="F303" s="13"/>
@@ -10433,7 +10654,7 @@
     <row r="304" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B304" s="13"/>
       <c r="C304" s="13" t="s">
-        <v>72</v>
+        <v>446</v>
       </c>
       <c r="D304" s="13"/>
       <c r="E304" s="13"/>
@@ -10451,10 +10672,10 @@
     </row>
     <row r="305" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B305" s="13"/>
-      <c r="C305" s="13"/>
-      <c r="D305" s="13" t="s">
-        <v>450</v>
-      </c>
+      <c r="C305" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D305" s="13"/>
       <c r="E305" s="13"/>
       <c r="F305" s="13"/>
       <c r="G305" s="13"/>
@@ -10470,9 +10691,7 @@
     </row>
     <row r="306" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B306" s="13"/>
-      <c r="C306" s="13" t="s">
-        <v>81</v>
-      </c>
+      <c r="C306" s="13"/>
       <c r="D306" s="13"/>
       <c r="E306" s="13"/>
       <c r="F306" s="13"/>
@@ -10489,10 +10708,10 @@
     </row>
     <row r="307" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B307" s="13"/>
-      <c r="C307" s="13"/>
-      <c r="D307" s="13" t="s">
-        <v>451</v>
-      </c>
+      <c r="C307" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="D307" s="13"/>
       <c r="E307" s="13"/>
       <c r="F307" s="13"/>
       <c r="G307" s="13"/>
@@ -10509,7 +10728,7 @@
     <row r="308" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B308" s="13"/>
       <c r="C308" s="13" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D308" s="13"/>
       <c r="E308" s="13"/>
@@ -10528,7 +10747,9 @@
     <row r="309" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B309" s="13"/>
       <c r="C309" s="13"/>
-      <c r="D309" s="13"/>
+      <c r="D309" s="13" t="s">
+        <v>448</v>
+      </c>
       <c r="E309" s="13"/>
       <c r="F309" s="13"/>
       <c r="G309" s="13"/>
@@ -10545,7 +10766,7 @@
     <row r="310" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B310" s="13"/>
       <c r="C310" s="13" t="s">
-        <v>452</v>
+        <v>81</v>
       </c>
       <c r="D310" s="13"/>
       <c r="E310" s="13"/>
@@ -10563,10 +10784,10 @@
     </row>
     <row r="311" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B311" s="13"/>
-      <c r="C311" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="D311" s="13"/>
+      <c r="C311" s="13"/>
+      <c r="D311" s="13" t="s">
+        <v>449</v>
+      </c>
       <c r="E311" s="13"/>
       <c r="F311" s="13"/>
       <c r="G311" s="13"/>
@@ -10582,7 +10803,9 @@
     </row>
     <row r="312" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B312" s="13"/>
-      <c r="C312" s="13"/>
+      <c r="C312" s="13" t="s">
+        <v>82</v>
+      </c>
       <c r="D312" s="13"/>
       <c r="E312" s="13"/>
       <c r="F312" s="13"/>
@@ -10599,9 +10822,7 @@
     </row>
     <row r="313" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B313" s="13"/>
-      <c r="C313" s="13" t="s">
-        <v>454</v>
-      </c>
+      <c r="C313" s="13"/>
       <c r="D313" s="13"/>
       <c r="E313" s="13"/>
       <c r="F313" s="13"/>
@@ -10619,7 +10840,7 @@
     <row r="314" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B314" s="13"/>
       <c r="C314" s="13" t="s">
-        <v>172</v>
+        <v>450</v>
       </c>
       <c r="D314" s="13"/>
       <c r="E314" s="13"/>
@@ -10638,7 +10859,7 @@
     <row r="315" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B315" s="13"/>
       <c r="C315" s="13" t="s">
-        <v>72</v>
+        <v>451</v>
       </c>
       <c r="D315" s="13"/>
       <c r="E315" s="13"/>
@@ -10657,9 +10878,7 @@
     <row r="316" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B316" s="13"/>
       <c r="C316" s="13"/>
-      <c r="D316" s="17" t="s">
-        <v>469</v>
-      </c>
+      <c r="D316" s="17"/>
       <c r="E316" s="13"/>
       <c r="F316" s="13"/>
       <c r="G316" s="13"/>
@@ -10675,10 +10894,10 @@
     </row>
     <row r="317" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B317" s="13"/>
-      <c r="C317" s="13"/>
-      <c r="D317" s="17" t="s">
-        <v>468</v>
-      </c>
+      <c r="C317" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D317" s="17"/>
       <c r="E317" s="13"/>
       <c r="F317" s="13"/>
       <c r="G317" s="13"/>
@@ -10694,10 +10913,10 @@
     </row>
     <row r="318" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B318" s="13"/>
-      <c r="C318" s="13"/>
-      <c r="D318" s="13" t="s">
-        <v>72</v>
-      </c>
+      <c r="C318" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D318" s="13"/>
       <c r="E318" s="13"/>
       <c r="F318" s="13"/>
       <c r="G318" s="13"/>
@@ -10713,11 +10932,11 @@
     </row>
     <row r="319" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B319" s="13"/>
-      <c r="C319" s="13"/>
+      <c r="C319" s="13" t="s">
+        <v>72</v>
+      </c>
       <c r="D319" s="13"/>
-      <c r="E319" s="13" t="s">
-        <v>455</v>
-      </c>
+      <c r="E319" s="13"/>
       <c r="F319" s="13"/>
       <c r="G319" s="13"/>
       <c r="H319" s="13"/>
@@ -10733,10 +10952,10 @@
     <row r="320" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B320" s="13"/>
       <c r="C320" s="13"/>
-      <c r="D320" s="13"/>
-      <c r="E320" s="13" t="s">
-        <v>456</v>
-      </c>
+      <c r="D320" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="E320" s="13"/>
       <c r="F320" s="13"/>
       <c r="G320" s="13"/>
       <c r="H320" s="13"/>
@@ -10752,7 +10971,9 @@
     <row r="321" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B321" s="13"/>
       <c r="C321" s="13"/>
-      <c r="D321" s="13"/>
+      <c r="D321" s="13" t="s">
+        <v>466</v>
+      </c>
       <c r="E321" s="13"/>
       <c r="F321" s="13"/>
       <c r="G321" s="13"/>
@@ -10769,10 +10990,10 @@
     <row r="322" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B322" s="13"/>
       <c r="C322" s="13"/>
-      <c r="D322" s="13"/>
-      <c r="E322" s="13" t="s">
-        <v>457</v>
-      </c>
+      <c r="D322" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E322" s="13"/>
       <c r="F322" s="13"/>
       <c r="G322" s="13"/>
       <c r="H322" s="13"/>
@@ -10790,7 +11011,7 @@
       <c r="C323" s="13"/>
       <c r="D323" s="13"/>
       <c r="E323" s="13" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="F323" s="13"/>
       <c r="G323" s="13"/>
@@ -10809,7 +11030,7 @@
       <c r="C324" s="13"/>
       <c r="D324" s="13"/>
       <c r="E324" s="13" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F324" s="13"/>
       <c r="G324" s="13"/>
@@ -10826,9 +11047,7 @@
     <row r="325" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B325" s="13"/>
       <c r="C325" s="13"/>
-      <c r="D325" s="13" t="s">
-        <v>82</v>
-      </c>
+      <c r="D325" s="13"/>
       <c r="E325" s="13"/>
       <c r="F325" s="13"/>
       <c r="G325" s="13"/>
@@ -10844,11 +11063,11 @@
     </row>
     <row r="326" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B326" s="13"/>
-      <c r="C326" s="13" t="s">
-        <v>82</v>
-      </c>
+      <c r="C326" s="13"/>
       <c r="D326" s="13"/>
-      <c r="E326" s="13"/>
+      <c r="E326" s="13" t="s">
+        <v>455</v>
+      </c>
       <c r="F326" s="13"/>
       <c r="G326" s="13"/>
       <c r="H326" s="13"/>
@@ -10863,11 +11082,11 @@
     </row>
     <row r="327" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B327" s="13"/>
-      <c r="C327" s="13" t="s">
-        <v>101</v>
-      </c>
+      <c r="C327" s="13"/>
       <c r="D327" s="13"/>
-      <c r="E327" s="13"/>
+      <c r="E327" s="13" t="s">
+        <v>456</v>
+      </c>
       <c r="F327" s="13"/>
       <c r="G327" s="13"/>
       <c r="H327" s="13"/>
@@ -10881,12 +11100,12 @@
       <c r="P327" s="13"/>
     </row>
     <row r="328" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B328" s="13" t="s">
-        <v>82</v>
-      </c>
+      <c r="B328" s="13"/>
       <c r="C328" s="13"/>
       <c r="D328" s="13"/>
-      <c r="E328" s="13"/>
+      <c r="E328" s="13" t="s">
+        <v>457</v>
+      </c>
       <c r="F328" s="13"/>
       <c r="G328" s="13"/>
       <c r="H328" s="13"/>
@@ -10902,7 +11121,9 @@
     <row r="329" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B329" s="13"/>
       <c r="C329" s="13"/>
-      <c r="D329" s="13"/>
+      <c r="D329" s="13" t="s">
+        <v>82</v>
+      </c>
       <c r="E329" s="13"/>
       <c r="F329" s="13"/>
       <c r="G329" s="13"/>
@@ -10918,7 +11139,9 @@
     </row>
     <row r="330" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B330" s="13"/>
-      <c r="C330" s="13"/>
+      <c r="C330" s="13" t="s">
+        <v>82</v>
+      </c>
       <c r="D330" s="13"/>
       <c r="E330" s="13"/>
       <c r="F330" s="13"/>
@@ -10934,10 +11157,10 @@
       <c r="P330" s="13"/>
     </row>
     <row r="331" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B331" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="C331" s="13"/>
+      <c r="B331" s="13"/>
+      <c r="C331" s="13" t="s">
+        <v>100</v>
+      </c>
       <c r="D331" s="13"/>
       <c r="E331" s="13"/>
       <c r="F331" s="13"/>
@@ -10951,6 +11174,2003 @@
       <c r="N331" s="13"/>
       <c r="O331" s="13"/>
       <c r="P331" s="13"/>
+    </row>
+    <row r="332" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B332" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C332" s="13"/>
+      <c r="D332" s="13"/>
+      <c r="E332" s="13"/>
+      <c r="F332" s="13"/>
+      <c r="G332" s="13"/>
+      <c r="H332" s="13"/>
+      <c r="I332" s="13"/>
+      <c r="J332" s="13"/>
+      <c r="K332" s="13"/>
+      <c r="L332" s="13"/>
+      <c r="M332" s="13"/>
+      <c r="N332" s="13"/>
+      <c r="O332" s="13"/>
+      <c r="P332" s="13"/>
+    </row>
+    <row r="333" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B333" s="13"/>
+      <c r="C333" s="13"/>
+      <c r="D333" s="13"/>
+      <c r="E333" s="13"/>
+      <c r="F333" s="13"/>
+      <c r="G333" s="13"/>
+      <c r="H333" s="13"/>
+      <c r="I333" s="13"/>
+      <c r="J333" s="13"/>
+      <c r="K333" s="13"/>
+      <c r="L333" s="13"/>
+      <c r="M333" s="13"/>
+      <c r="N333" s="13"/>
+      <c r="O333" s="13"/>
+      <c r="P333" s="13"/>
+    </row>
+    <row r="334" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B334" s="13"/>
+      <c r="C334" s="13"/>
+      <c r="D334" s="13"/>
+      <c r="E334" s="13"/>
+      <c r="F334" s="13"/>
+      <c r="G334" s="13"/>
+      <c r="H334" s="13"/>
+      <c r="I334" s="13"/>
+      <c r="J334" s="13"/>
+      <c r="K334" s="13"/>
+      <c r="L334" s="13"/>
+      <c r="M334" s="13"/>
+      <c r="N334" s="13"/>
+      <c r="O334" s="13"/>
+      <c r="P334" s="13"/>
+    </row>
+    <row r="335" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B335" s="13"/>
+      <c r="C335" s="13"/>
+      <c r="D335" s="13"/>
+      <c r="E335" s="13"/>
+      <c r="F335" s="13"/>
+      <c r="G335" s="13"/>
+      <c r="H335" s="13"/>
+      <c r="I335" s="13"/>
+      <c r="J335" s="13"/>
+      <c r="K335" s="13"/>
+      <c r="L335" s="13"/>
+      <c r="M335" s="13"/>
+      <c r="N335" s="13"/>
+      <c r="O335" s="13"/>
+      <c r="P335" s="13"/>
+    </row>
+    <row r="336" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B336" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="C336" s="13"/>
+      <c r="D336" s="13"/>
+      <c r="E336" s="13"/>
+      <c r="F336" s="13"/>
+      <c r="G336" s="13"/>
+      <c r="H336" s="13"/>
+      <c r="I336" s="13"/>
+      <c r="J336" s="13"/>
+      <c r="K336" s="13"/>
+      <c r="L336" s="13"/>
+      <c r="M336" s="13"/>
+      <c r="N336" s="13"/>
+      <c r="O336" s="13"/>
+      <c r="P336" s="13"/>
+    </row>
+    <row r="337" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B337" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C337" s="13"/>
+      <c r="D337" s="13"/>
+      <c r="E337" s="13"/>
+      <c r="F337" s="13"/>
+      <c r="G337" s="13"/>
+      <c r="H337" s="13"/>
+      <c r="I337" s="13"/>
+      <c r="J337" s="13"/>
+      <c r="K337" s="13"/>
+      <c r="L337" s="13"/>
+      <c r="M337" s="13"/>
+      <c r="N337" s="13"/>
+      <c r="O337" s="13"/>
+      <c r="P337" s="13"/>
+    </row>
+    <row r="338" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B338" s="13"/>
+      <c r="C338" s="13"/>
+      <c r="D338" s="13"/>
+      <c r="E338" s="13"/>
+      <c r="F338" s="13"/>
+      <c r="G338" s="13"/>
+      <c r="H338" s="13"/>
+      <c r="I338" s="13"/>
+      <c r="J338" s="13"/>
+      <c r="K338" s="13"/>
+      <c r="L338" s="13"/>
+      <c r="M338" s="13"/>
+      <c r="N338" s="13"/>
+      <c r="O338" s="13"/>
+      <c r="P338" s="13"/>
+    </row>
+    <row r="339" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B339" s="13"/>
+      <c r="C339" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="D339" s="13"/>
+      <c r="E339" s="13"/>
+      <c r="F339" s="13"/>
+      <c r="G339" s="13"/>
+      <c r="H339" s="13"/>
+      <c r="I339" s="13"/>
+      <c r="J339" s="13"/>
+      <c r="K339" s="13"/>
+      <c r="L339" s="13"/>
+      <c r="M339" s="13"/>
+      <c r="N339" s="13"/>
+      <c r="O339" s="13"/>
+      <c r="P339" s="13"/>
+    </row>
+    <row r="340" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B340" s="13"/>
+      <c r="C340" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D340" s="13"/>
+      <c r="E340" s="13"/>
+      <c r="F340" s="13"/>
+      <c r="G340" s="13"/>
+      <c r="H340" s="13"/>
+      <c r="I340" s="13"/>
+      <c r="J340" s="13"/>
+      <c r="K340" s="13"/>
+      <c r="L340" s="13"/>
+      <c r="M340" s="13"/>
+      <c r="N340" s="13"/>
+      <c r="O340" s="13"/>
+      <c r="P340" s="13"/>
+    </row>
+    <row r="341" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B341" s="13"/>
+      <c r="C341" s="13"/>
+      <c r="D341" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="E341" s="13"/>
+      <c r="F341" s="13"/>
+      <c r="G341" s="13"/>
+      <c r="H341" s="13"/>
+      <c r="I341" s="13"/>
+      <c r="J341" s="13"/>
+      <c r="K341" s="13"/>
+      <c r="L341" s="13"/>
+      <c r="M341" s="13"/>
+      <c r="N341" s="13"/>
+      <c r="O341" s="13"/>
+      <c r="P341" s="13"/>
+    </row>
+    <row r="342" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B342" s="13"/>
+      <c r="C342" s="13"/>
+      <c r="D342" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="E342" s="13"/>
+      <c r="F342" s="13"/>
+      <c r="G342" s="13"/>
+      <c r="H342" s="13"/>
+      <c r="I342" s="13"/>
+      <c r="J342" s="13"/>
+      <c r="K342" s="13"/>
+      <c r="L342" s="13"/>
+      <c r="M342" s="13"/>
+      <c r="N342" s="13"/>
+      <c r="O342" s="13"/>
+      <c r="P342" s="13"/>
+    </row>
+    <row r="343" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B343" s="13"/>
+      <c r="C343" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D343" s="13"/>
+      <c r="E343" s="13"/>
+      <c r="F343" s="13"/>
+      <c r="G343" s="13"/>
+      <c r="H343" s="13"/>
+      <c r="I343" s="13"/>
+      <c r="J343" s="13"/>
+      <c r="K343" s="13"/>
+      <c r="L343" s="13"/>
+      <c r="M343" s="13"/>
+      <c r="N343" s="13"/>
+      <c r="O343" s="13"/>
+      <c r="P343" s="13"/>
+    </row>
+    <row r="344" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B344" s="13"/>
+      <c r="C344" s="13"/>
+      <c r="D344" s="13"/>
+      <c r="E344" s="13"/>
+      <c r="F344" s="13"/>
+      <c r="G344" s="13"/>
+      <c r="H344" s="13"/>
+      <c r="I344" s="13"/>
+      <c r="J344" s="13"/>
+      <c r="K344" s="13"/>
+      <c r="L344" s="13"/>
+      <c r="M344" s="13"/>
+      <c r="N344" s="13"/>
+      <c r="O344" s="13"/>
+      <c r="P344" s="13"/>
+    </row>
+    <row r="345" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B345" s="13"/>
+      <c r="C345" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D345" s="13"/>
+      <c r="E345" s="13"/>
+      <c r="F345" s="13"/>
+      <c r="G345" s="13"/>
+      <c r="H345" s="13"/>
+      <c r="I345" s="13"/>
+      <c r="J345" s="13"/>
+      <c r="K345" s="13"/>
+      <c r="L345" s="13"/>
+      <c r="M345" s="13"/>
+      <c r="N345" s="13"/>
+      <c r="O345" s="13"/>
+      <c r="P345" s="13"/>
+    </row>
+    <row r="346" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B346" s="13"/>
+      <c r="C346" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="D346" s="13"/>
+      <c r="E346" s="13"/>
+      <c r="F346" s="13"/>
+      <c r="G346" s="13"/>
+      <c r="H346" s="13"/>
+      <c r="I346" s="13"/>
+      <c r="J346" s="13"/>
+      <c r="K346" s="13"/>
+      <c r="L346" s="13"/>
+      <c r="M346" s="13"/>
+      <c r="N346" s="13"/>
+      <c r="O346" s="13"/>
+      <c r="P346" s="13"/>
+    </row>
+    <row r="347" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B347" s="13"/>
+      <c r="C347" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D347" s="13"/>
+      <c r="E347" s="13"/>
+      <c r="F347" s="13"/>
+      <c r="G347" s="13"/>
+      <c r="H347" s="13"/>
+      <c r="I347" s="13"/>
+      <c r="J347" s="13"/>
+      <c r="K347" s="13"/>
+      <c r="L347" s="13"/>
+      <c r="M347" s="13"/>
+      <c r="N347" s="13"/>
+      <c r="O347" s="13"/>
+      <c r="P347" s="13"/>
+    </row>
+    <row r="348" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B348" s="13"/>
+      <c r="C348" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="D348" s="13"/>
+      <c r="E348" s="13"/>
+      <c r="F348" s="13"/>
+      <c r="G348" s="13"/>
+      <c r="H348" s="13"/>
+      <c r="I348" s="13"/>
+      <c r="J348" s="13"/>
+      <c r="K348" s="13"/>
+      <c r="L348" s="13"/>
+      <c r="M348" s="13"/>
+      <c r="N348" s="13"/>
+      <c r="O348" s="13"/>
+      <c r="P348" s="13"/>
+    </row>
+    <row r="349" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B349" s="13"/>
+      <c r="C349" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D349" s="13"/>
+      <c r="E349" s="13"/>
+      <c r="F349" s="13"/>
+      <c r="G349" s="13"/>
+      <c r="H349" s="13"/>
+      <c r="I349" s="13"/>
+      <c r="J349" s="13"/>
+      <c r="K349" s="13"/>
+      <c r="L349" s="13"/>
+      <c r="M349" s="13"/>
+      <c r="N349" s="13"/>
+      <c r="O349" s="13"/>
+      <c r="P349" s="13"/>
+    </row>
+    <row r="350" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B350" s="13"/>
+      <c r="C350" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="D350" s="13"/>
+      <c r="E350" s="13"/>
+      <c r="F350" s="13"/>
+      <c r="G350" s="13"/>
+      <c r="H350" s="13"/>
+      <c r="I350" s="13"/>
+      <c r="J350" s="13"/>
+      <c r="K350" s="13"/>
+      <c r="L350" s="13"/>
+      <c r="M350" s="13"/>
+      <c r="N350" s="13"/>
+      <c r="O350" s="13"/>
+      <c r="P350" s="13"/>
+    </row>
+    <row r="351" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B351" s="13"/>
+      <c r="C351" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="D351" s="13"/>
+      <c r="E351" s="13"/>
+      <c r="F351" s="13"/>
+      <c r="G351" s="13"/>
+      <c r="H351" s="13"/>
+      <c r="I351" s="13"/>
+      <c r="J351" s="13"/>
+      <c r="K351" s="13"/>
+      <c r="L351" s="13"/>
+      <c r="M351" s="13"/>
+      <c r="N351" s="13"/>
+      <c r="O351" s="13"/>
+      <c r="P351" s="13"/>
+    </row>
+    <row r="352" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B352" s="13"/>
+      <c r="C352" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="D352" s="13"/>
+      <c r="E352" s="13"/>
+      <c r="F352" s="13"/>
+      <c r="G352" s="13"/>
+      <c r="H352" s="13"/>
+      <c r="I352" s="13"/>
+      <c r="J352" s="13"/>
+      <c r="K352" s="13"/>
+      <c r="L352" s="13"/>
+      <c r="M352" s="13"/>
+      <c r="N352" s="13"/>
+      <c r="O352" s="13"/>
+      <c r="P352" s="13"/>
+    </row>
+    <row r="353" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B353" s="13"/>
+      <c r="C353" s="13"/>
+      <c r="D353" s="13"/>
+      <c r="E353" s="13"/>
+      <c r="F353" s="13"/>
+      <c r="G353" s="13"/>
+      <c r="H353" s="13"/>
+      <c r="I353" s="13"/>
+      <c r="J353" s="13"/>
+      <c r="K353" s="13"/>
+      <c r="L353" s="13"/>
+      <c r="M353" s="13"/>
+      <c r="N353" s="13"/>
+      <c r="O353" s="13"/>
+      <c r="P353" s="13"/>
+    </row>
+    <row r="354" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B354" s="13"/>
+      <c r="C354" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="D354" s="13"/>
+      <c r="E354" s="13"/>
+      <c r="F354" s="13"/>
+      <c r="G354" s="13"/>
+      <c r="H354" s="13"/>
+      <c r="I354" s="13"/>
+      <c r="J354" s="13"/>
+      <c r="K354" s="13"/>
+      <c r="L354" s="13"/>
+      <c r="M354" s="13"/>
+      <c r="N354" s="13"/>
+      <c r="O354" s="13"/>
+      <c r="P354" s="13"/>
+    </row>
+    <row r="355" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B355" s="13"/>
+      <c r="C355" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D355" s="13"/>
+      <c r="E355" s="13"/>
+      <c r="F355" s="13"/>
+      <c r="G355" s="13"/>
+      <c r="H355" s="13"/>
+      <c r="I355" s="13"/>
+      <c r="J355" s="13"/>
+      <c r="K355" s="13"/>
+      <c r="L355" s="13"/>
+      <c r="M355" s="13"/>
+      <c r="N355" s="13"/>
+      <c r="O355" s="13"/>
+      <c r="P355" s="13"/>
+    </row>
+    <row r="356" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B356" s="13"/>
+      <c r="C356" s="13"/>
+      <c r="D356" s="13"/>
+      <c r="E356" s="13"/>
+      <c r="F356" s="13"/>
+      <c r="G356" s="13"/>
+      <c r="H356" s="13"/>
+      <c r="I356" s="13"/>
+      <c r="J356" s="13"/>
+      <c r="K356" s="13"/>
+      <c r="L356" s="13"/>
+      <c r="M356" s="13"/>
+      <c r="N356" s="13"/>
+      <c r="O356" s="13"/>
+      <c r="P356" s="13"/>
+    </row>
+    <row r="357" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B357" s="13"/>
+      <c r="C357" s="13"/>
+      <c r="D357" s="13"/>
+      <c r="E357" s="13"/>
+      <c r="F357" s="13"/>
+      <c r="G357" s="13"/>
+      <c r="H357" s="13"/>
+      <c r="I357" s="13"/>
+      <c r="J357" s="13"/>
+      <c r="K357" s="13"/>
+      <c r="L357" s="13"/>
+      <c r="M357" s="13"/>
+      <c r="N357" s="13"/>
+      <c r="O357" s="13"/>
+      <c r="P357" s="13"/>
+    </row>
+    <row r="358" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B358" s="13"/>
+      <c r="C358" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="D358" s="13"/>
+      <c r="E358" s="13"/>
+      <c r="F358" s="13"/>
+      <c r="G358" s="13"/>
+      <c r="H358" s="13"/>
+      <c r="I358" s="13"/>
+      <c r="J358" s="13"/>
+      <c r="K358" s="13"/>
+      <c r="L358" s="13"/>
+      <c r="M358" s="13"/>
+      <c r="N358" s="13"/>
+      <c r="O358" s="13"/>
+      <c r="P358" s="13"/>
+    </row>
+    <row r="359" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B359" s="13"/>
+      <c r="C359" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="D359" s="13"/>
+      <c r="E359" s="13"/>
+      <c r="F359" s="13"/>
+      <c r="G359" s="13"/>
+      <c r="H359" s="13"/>
+      <c r="I359" s="13"/>
+      <c r="J359" s="13"/>
+      <c r="K359" s="13"/>
+      <c r="L359" s="13"/>
+      <c r="M359" s="13"/>
+      <c r="N359" s="13"/>
+      <c r="O359" s="13"/>
+      <c r="P359" s="13"/>
+    </row>
+    <row r="360" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B360" s="13"/>
+      <c r="C360" s="13"/>
+      <c r="D360" s="13"/>
+      <c r="E360" s="13"/>
+      <c r="F360" s="13"/>
+      <c r="G360" s="13"/>
+      <c r="H360" s="13"/>
+      <c r="I360" s="13"/>
+      <c r="J360" s="13"/>
+      <c r="K360" s="13"/>
+      <c r="L360" s="13"/>
+      <c r="M360" s="13"/>
+      <c r="N360" s="13"/>
+      <c r="O360" s="13"/>
+      <c r="P360" s="13"/>
+    </row>
+    <row r="361" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B361" s="13"/>
+      <c r="C361" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="D361" s="13"/>
+      <c r="E361" s="13"/>
+      <c r="F361" s="13"/>
+      <c r="G361" s="13"/>
+      <c r="H361" s="13"/>
+      <c r="I361" s="13"/>
+      <c r="J361" s="13"/>
+      <c r="K361" s="13"/>
+      <c r="L361" s="13"/>
+      <c r="M361" s="13"/>
+      <c r="N361" s="13"/>
+      <c r="O361" s="13"/>
+      <c r="P361" s="13"/>
+    </row>
+    <row r="362" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B362" s="13"/>
+      <c r="C362" s="13"/>
+      <c r="D362" s="13"/>
+      <c r="E362" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="F362" s="13"/>
+      <c r="G362" s="13"/>
+      <c r="H362" s="13"/>
+      <c r="I362" s="13"/>
+      <c r="J362" s="13"/>
+      <c r="K362" s="13"/>
+      <c r="L362" s="13"/>
+      <c r="M362" s="13"/>
+      <c r="N362" s="13"/>
+      <c r="O362" s="13"/>
+      <c r="P362" s="13"/>
+    </row>
+    <row r="363" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B363" s="13"/>
+      <c r="C363" s="13"/>
+      <c r="D363" s="13"/>
+      <c r="E363" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="F363" s="13"/>
+      <c r="G363" s="13"/>
+      <c r="H363" s="13"/>
+      <c r="I363" s="13"/>
+      <c r="J363" s="13"/>
+      <c r="K363" s="13"/>
+      <c r="L363" s="13"/>
+      <c r="M363" s="13"/>
+      <c r="N363" s="13"/>
+      <c r="O363" s="13"/>
+      <c r="P363" s="13"/>
+    </row>
+    <row r="364" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B364" s="13"/>
+      <c r="C364" s="13"/>
+      <c r="D364" s="13"/>
+      <c r="E364" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="F364" s="13"/>
+      <c r="G364" s="13"/>
+      <c r="H364" s="13"/>
+      <c r="I364" s="13"/>
+      <c r="J364" s="13"/>
+      <c r="K364" s="13"/>
+      <c r="L364" s="13"/>
+      <c r="M364" s="13"/>
+      <c r="N364" s="13"/>
+      <c r="O364" s="13"/>
+      <c r="P364" s="13"/>
+    </row>
+    <row r="365" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B365" s="13"/>
+      <c r="C365" s="13"/>
+      <c r="D365" s="13"/>
+      <c r="E365" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="F365" s="13"/>
+      <c r="G365" s="13"/>
+      <c r="H365" s="13"/>
+      <c r="I365" s="13"/>
+      <c r="J365" s="13"/>
+      <c r="K365" s="13"/>
+      <c r="L365" s="13"/>
+      <c r="M365" s="13"/>
+      <c r="N365" s="13"/>
+      <c r="O365" s="13"/>
+      <c r="P365" s="13"/>
+    </row>
+    <row r="366" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B366" s="13"/>
+      <c r="C366" s="13"/>
+      <c r="D366" s="13"/>
+      <c r="E366" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="F366" s="13"/>
+      <c r="G366" s="13"/>
+      <c r="H366" s="13"/>
+      <c r="I366" s="13"/>
+      <c r="J366" s="13"/>
+      <c r="K366" s="13"/>
+      <c r="L366" s="13"/>
+      <c r="M366" s="13"/>
+      <c r="N366" s="13"/>
+      <c r="O366" s="13"/>
+      <c r="P366" s="13"/>
+    </row>
+    <row r="367" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B367" s="13"/>
+      <c r="C367" s="13"/>
+      <c r="D367" s="13"/>
+      <c r="E367" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="F367" s="13"/>
+      <c r="G367" s="13"/>
+      <c r="H367" s="13"/>
+      <c r="I367" s="13"/>
+      <c r="J367" s="13"/>
+      <c r="K367" s="13"/>
+      <c r="L367" s="13"/>
+      <c r="M367" s="13"/>
+      <c r="N367" s="13"/>
+      <c r="O367" s="13"/>
+      <c r="P367" s="13"/>
+    </row>
+    <row r="368" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B368" s="13"/>
+      <c r="C368" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="D368" s="13"/>
+      <c r="E368" s="13"/>
+      <c r="F368" s="13"/>
+      <c r="G368" s="13"/>
+      <c r="H368" s="13"/>
+      <c r="I368" s="13"/>
+      <c r="J368" s="13"/>
+      <c r="K368" s="13"/>
+      <c r="L368" s="13"/>
+      <c r="M368" s="13"/>
+      <c r="N368" s="13"/>
+      <c r="O368" s="13"/>
+      <c r="P368" s="13"/>
+    </row>
+    <row r="369" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B369" s="13"/>
+      <c r="C369" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="D369" s="13"/>
+      <c r="E369" s="13"/>
+      <c r="F369" s="13"/>
+      <c r="G369" s="13"/>
+      <c r="H369" s="13"/>
+      <c r="I369" s="13"/>
+      <c r="J369" s="13"/>
+      <c r="K369" s="13"/>
+      <c r="L369" s="13"/>
+      <c r="M369" s="13"/>
+      <c r="N369" s="13"/>
+      <c r="O369" s="13"/>
+      <c r="P369" s="13"/>
+    </row>
+    <row r="370" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B370" s="13"/>
+      <c r="C370" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="D370" s="13"/>
+      <c r="E370" s="13"/>
+      <c r="F370" s="13"/>
+      <c r="G370" s="13"/>
+      <c r="H370" s="13"/>
+      <c r="I370" s="13"/>
+      <c r="J370" s="13"/>
+      <c r="K370" s="13"/>
+      <c r="L370" s="13"/>
+      <c r="M370" s="13"/>
+      <c r="N370" s="13"/>
+      <c r="O370" s="13"/>
+      <c r="P370" s="13"/>
+    </row>
+    <row r="371" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B371" s="13"/>
+      <c r="C371" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="D371" s="13"/>
+      <c r="E371" s="13"/>
+      <c r="F371" s="13"/>
+      <c r="G371" s="13"/>
+      <c r="H371" s="13"/>
+      <c r="I371" s="13"/>
+      <c r="J371" s="13"/>
+      <c r="K371" s="13"/>
+      <c r="L371" s="13"/>
+      <c r="M371" s="13"/>
+      <c r="N371" s="13"/>
+      <c r="O371" s="13"/>
+      <c r="P371" s="13"/>
+    </row>
+    <row r="372" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B372" s="13"/>
+      <c r="C372" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="D372" s="13"/>
+      <c r="E372" s="13"/>
+      <c r="F372" s="13"/>
+      <c r="G372" s="13"/>
+      <c r="H372" s="13"/>
+      <c r="I372" s="13"/>
+      <c r="J372" s="13"/>
+      <c r="K372" s="13"/>
+      <c r="L372" s="13"/>
+      <c r="M372" s="13"/>
+      <c r="N372" s="13"/>
+      <c r="O372" s="13"/>
+      <c r="P372" s="13"/>
+    </row>
+    <row r="373" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B373" s="13"/>
+      <c r="C373" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="D373" s="13"/>
+      <c r="E373" s="13"/>
+      <c r="F373" s="13"/>
+      <c r="G373" s="13"/>
+      <c r="H373" s="13"/>
+      <c r="I373" s="13"/>
+      <c r="J373" s="13"/>
+      <c r="K373" s="13"/>
+      <c r="L373" s="13"/>
+      <c r="M373" s="13"/>
+      <c r="N373" s="13"/>
+      <c r="O373" s="13"/>
+      <c r="P373" s="13"/>
+    </row>
+    <row r="374" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B374" s="13"/>
+      <c r="C374" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="D374" s="13"/>
+      <c r="E374" s="13"/>
+      <c r="F374" s="13"/>
+      <c r="G374" s="13"/>
+      <c r="H374" s="13"/>
+      <c r="I374" s="13"/>
+      <c r="J374" s="13"/>
+      <c r="K374" s="13"/>
+      <c r="L374" s="13"/>
+      <c r="M374" s="13"/>
+      <c r="N374" s="13"/>
+      <c r="O374" s="13"/>
+      <c r="P374" s="13"/>
+    </row>
+    <row r="375" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B375" s="13"/>
+      <c r="C375" s="13"/>
+      <c r="D375" s="13"/>
+      <c r="E375" s="13"/>
+      <c r="F375" s="13"/>
+      <c r="G375" s="13"/>
+      <c r="H375" s="13"/>
+      <c r="I375" s="13"/>
+      <c r="J375" s="13"/>
+      <c r="K375" s="13"/>
+      <c r="L375" s="13"/>
+      <c r="M375" s="13"/>
+      <c r="N375" s="13"/>
+      <c r="O375" s="13"/>
+      <c r="P375" s="13"/>
+    </row>
+    <row r="376" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B376" s="13"/>
+      <c r="C376" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="D376" s="13"/>
+      <c r="E376" s="13"/>
+      <c r="F376" s="13"/>
+      <c r="G376" s="13"/>
+      <c r="H376" s="13"/>
+      <c r="I376" s="13"/>
+      <c r="J376" s="13"/>
+      <c r="K376" s="13"/>
+      <c r="L376" s="13"/>
+      <c r="M376" s="13"/>
+      <c r="N376" s="13"/>
+      <c r="O376" s="13"/>
+      <c r="P376" s="13"/>
+    </row>
+    <row r="377" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B377" s="13"/>
+      <c r="C377" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="D377" s="13"/>
+      <c r="E377" s="13"/>
+      <c r="F377" s="13"/>
+      <c r="G377" s="13"/>
+      <c r="H377" s="13"/>
+      <c r="I377" s="13"/>
+      <c r="J377" s="13"/>
+      <c r="K377" s="13"/>
+      <c r="L377" s="13"/>
+      <c r="M377" s="13"/>
+      <c r="N377" s="13"/>
+      <c r="O377" s="13"/>
+      <c r="P377" s="13"/>
+    </row>
+    <row r="378" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B378" s="13"/>
+      <c r="C378" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="D378" s="13"/>
+      <c r="E378" s="13"/>
+      <c r="F378" s="13"/>
+      <c r="G378" s="13"/>
+      <c r="H378" s="13"/>
+      <c r="I378" s="13"/>
+      <c r="J378" s="13"/>
+      <c r="K378" s="13"/>
+      <c r="L378" s="13"/>
+      <c r="M378" s="13"/>
+      <c r="N378" s="13"/>
+      <c r="O378" s="13"/>
+      <c r="P378" s="13"/>
+    </row>
+    <row r="379" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B379" s="13"/>
+      <c r="C379" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D379" s="13"/>
+      <c r="E379" s="13"/>
+      <c r="F379" s="13"/>
+      <c r="G379" s="13"/>
+      <c r="H379" s="13"/>
+      <c r="I379" s="13"/>
+      <c r="J379" s="13"/>
+      <c r="K379" s="13"/>
+      <c r="L379" s="13"/>
+      <c r="M379" s="13"/>
+      <c r="N379" s="13"/>
+      <c r="O379" s="13"/>
+      <c r="P379" s="13"/>
+    </row>
+    <row r="380" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B380" s="13"/>
+      <c r="C380" s="13"/>
+      <c r="D380" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="E380" s="13"/>
+      <c r="F380" s="13"/>
+      <c r="G380" s="13"/>
+      <c r="H380" s="13"/>
+      <c r="I380" s="13"/>
+      <c r="J380" s="13"/>
+      <c r="K380" s="13"/>
+      <c r="L380" s="13"/>
+      <c r="M380" s="13"/>
+      <c r="N380" s="13"/>
+      <c r="O380" s="13"/>
+      <c r="P380" s="13"/>
+    </row>
+    <row r="381" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B381" s="13"/>
+      <c r="C381" s="13"/>
+      <c r="D381" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="E381" s="13"/>
+      <c r="F381" s="13"/>
+      <c r="G381" s="13"/>
+      <c r="H381" s="13"/>
+      <c r="I381" s="13"/>
+      <c r="J381" s="13"/>
+      <c r="K381" s="13"/>
+      <c r="L381" s="13"/>
+      <c r="M381" s="13"/>
+      <c r="N381" s="13"/>
+      <c r="O381" s="13"/>
+      <c r="P381" s="13"/>
+    </row>
+    <row r="382" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B382" s="13"/>
+      <c r="C382" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D382" s="13"/>
+      <c r="E382" s="13"/>
+      <c r="F382" s="13"/>
+      <c r="G382" s="13"/>
+      <c r="H382" s="13"/>
+      <c r="I382" s="13"/>
+      <c r="J382" s="13"/>
+      <c r="K382" s="13"/>
+      <c r="L382" s="13"/>
+      <c r="M382" s="13"/>
+      <c r="N382" s="13"/>
+      <c r="O382" s="13"/>
+      <c r="P382" s="13"/>
+    </row>
+    <row r="383" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B383" s="13"/>
+      <c r="C383" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="D383" s="13"/>
+      <c r="E383" s="13"/>
+      <c r="F383" s="13"/>
+      <c r="G383" s="13"/>
+      <c r="H383" s="13"/>
+      <c r="I383" s="13"/>
+      <c r="J383" s="13"/>
+      <c r="K383" s="13"/>
+      <c r="L383" s="13"/>
+      <c r="M383" s="13"/>
+      <c r="N383" s="13"/>
+      <c r="O383" s="13"/>
+      <c r="P383" s="13"/>
+    </row>
+    <row r="384" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B384" s="13"/>
+      <c r="C384" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="D384" s="13"/>
+      <c r="E384" s="13"/>
+      <c r="F384" s="13"/>
+      <c r="G384" s="13"/>
+      <c r="H384" s="13"/>
+      <c r="I384" s="13"/>
+      <c r="J384" s="13"/>
+      <c r="K384" s="13"/>
+      <c r="L384" s="13"/>
+      <c r="M384" s="13"/>
+      <c r="N384" s="13"/>
+      <c r="O384" s="13"/>
+      <c r="P384" s="13"/>
+    </row>
+    <row r="385" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B385" s="13"/>
+      <c r="C385" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D385" s="13"/>
+      <c r="E385" s="13"/>
+      <c r="F385" s="13"/>
+      <c r="G385" s="13"/>
+      <c r="H385" s="13"/>
+      <c r="I385" s="13"/>
+      <c r="J385" s="13"/>
+      <c r="K385" s="13"/>
+      <c r="L385" s="13"/>
+      <c r="M385" s="13"/>
+      <c r="N385" s="13"/>
+      <c r="O385" s="13"/>
+      <c r="P385" s="13"/>
+    </row>
+    <row r="386" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B386" s="13"/>
+      <c r="C386" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="D386" s="13"/>
+      <c r="E386" s="13"/>
+      <c r="F386" s="13"/>
+      <c r="G386" s="13"/>
+      <c r="H386" s="13"/>
+      <c r="I386" s="13"/>
+      <c r="J386" s="13"/>
+      <c r="K386" s="13"/>
+      <c r="L386" s="13"/>
+      <c r="M386" s="13"/>
+      <c r="N386" s="13"/>
+      <c r="O386" s="13"/>
+      <c r="P386" s="13"/>
+    </row>
+    <row r="387" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B387" s="13"/>
+      <c r="C387" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D387" s="13"/>
+      <c r="E387" s="13"/>
+      <c r="F387" s="13"/>
+      <c r="G387" s="13"/>
+      <c r="H387" s="13"/>
+      <c r="I387" s="13"/>
+      <c r="J387" s="13"/>
+      <c r="K387" s="13"/>
+      <c r="L387" s="13"/>
+      <c r="M387" s="13"/>
+      <c r="N387" s="13"/>
+      <c r="O387" s="13"/>
+      <c r="P387" s="13"/>
+    </row>
+    <row r="388" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B388" s="13"/>
+      <c r="C388" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="D388" s="13"/>
+      <c r="E388" s="13"/>
+      <c r="F388" s="13"/>
+      <c r="G388" s="13"/>
+      <c r="H388" s="13"/>
+      <c r="I388" s="13"/>
+      <c r="J388" s="13"/>
+      <c r="K388" s="13"/>
+      <c r="L388" s="13"/>
+      <c r="M388" s="13"/>
+      <c r="N388" s="13"/>
+      <c r="O388" s="13"/>
+      <c r="P388" s="13"/>
+    </row>
+    <row r="389" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B389" s="13"/>
+      <c r="C389" s="13"/>
+      <c r="D389" s="13"/>
+      <c r="E389" s="13"/>
+      <c r="F389" s="13"/>
+      <c r="G389" s="13"/>
+      <c r="H389" s="13"/>
+      <c r="I389" s="13"/>
+      <c r="J389" s="13"/>
+      <c r="K389" s="13"/>
+      <c r="L389" s="13"/>
+      <c r="M389" s="13"/>
+      <c r="N389" s="13"/>
+      <c r="O389" s="13"/>
+      <c r="P389" s="13"/>
+    </row>
+    <row r="390" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B390" s="13"/>
+      <c r="C390" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="D390" s="13"/>
+      <c r="E390" s="13"/>
+      <c r="F390" s="13"/>
+      <c r="G390" s="13"/>
+      <c r="H390" s="13"/>
+      <c r="I390" s="13"/>
+      <c r="J390" s="13"/>
+      <c r="K390" s="13"/>
+      <c r="L390" s="13"/>
+      <c r="M390" s="13"/>
+      <c r="N390" s="13"/>
+      <c r="O390" s="13"/>
+      <c r="P390" s="13"/>
+    </row>
+    <row r="391" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B391" s="13"/>
+      <c r="C391" s="13"/>
+      <c r="D391" s="13"/>
+      <c r="E391" s="13"/>
+      <c r="F391" s="13"/>
+      <c r="G391" s="13"/>
+      <c r="H391" s="13"/>
+      <c r="I391" s="13"/>
+      <c r="J391" s="13"/>
+      <c r="K391" s="13"/>
+      <c r="L391" s="13"/>
+      <c r="M391" s="13"/>
+      <c r="N391" s="13"/>
+      <c r="O391" s="13"/>
+      <c r="P391" s="13"/>
+    </row>
+    <row r="392" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B392" s="13"/>
+      <c r="C392" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="D392" s="13"/>
+      <c r="E392" s="13"/>
+      <c r="F392" s="13"/>
+      <c r="G392" s="13"/>
+      <c r="H392" s="13"/>
+      <c r="I392" s="13"/>
+      <c r="J392" s="13"/>
+      <c r="K392" s="13"/>
+      <c r="L392" s="13"/>
+      <c r="M392" s="13"/>
+      <c r="N392" s="13"/>
+      <c r="O392" s="13"/>
+      <c r="P392" s="13"/>
+    </row>
+    <row r="393" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B393" s="13"/>
+      <c r="C393" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D393" s="13"/>
+      <c r="E393" s="13"/>
+      <c r="F393" s="13"/>
+      <c r="G393" s="13"/>
+      <c r="H393" s="13"/>
+      <c r="I393" s="13"/>
+      <c r="J393" s="13"/>
+      <c r="K393" s="13"/>
+      <c r="L393" s="13"/>
+      <c r="M393" s="13"/>
+      <c r="N393" s="13"/>
+      <c r="O393" s="13"/>
+      <c r="P393" s="13"/>
+    </row>
+    <row r="394" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B394" s="13"/>
+      <c r="C394" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="D394" s="13"/>
+      <c r="E394" s="13"/>
+      <c r="F394" s="13"/>
+      <c r="G394" s="13"/>
+      <c r="H394" s="13"/>
+      <c r="I394" s="13"/>
+      <c r="J394" s="13"/>
+      <c r="K394" s="13"/>
+      <c r="L394" s="13"/>
+      <c r="M394" s="13"/>
+      <c r="N394" s="13"/>
+      <c r="O394" s="13"/>
+      <c r="P394" s="13"/>
+    </row>
+    <row r="395" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B395" s="13"/>
+      <c r="C395" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D395" s="13"/>
+      <c r="E395" s="13"/>
+      <c r="F395" s="13"/>
+      <c r="G395" s="13"/>
+      <c r="H395" s="13"/>
+      <c r="I395" s="13"/>
+      <c r="J395" s="13"/>
+      <c r="K395" s="13"/>
+      <c r="L395" s="13"/>
+      <c r="M395" s="13"/>
+      <c r="N395" s="13"/>
+      <c r="O395" s="13"/>
+      <c r="P395" s="13"/>
+    </row>
+    <row r="396" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B396" s="13"/>
+      <c r="C396" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="D396" s="13"/>
+      <c r="E396" s="13"/>
+      <c r="F396" s="13"/>
+      <c r="G396" s="13"/>
+      <c r="H396" s="13"/>
+      <c r="I396" s="13"/>
+      <c r="J396" s="13"/>
+      <c r="K396" s="13"/>
+      <c r="L396" s="13"/>
+      <c r="M396" s="13"/>
+      <c r="N396" s="13"/>
+      <c r="O396" s="13"/>
+      <c r="P396" s="13"/>
+    </row>
+    <row r="397" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B397" s="13"/>
+      <c r="C397" s="13"/>
+      <c r="D397" s="13"/>
+      <c r="E397" s="13"/>
+      <c r="F397" s="13"/>
+      <c r="G397" s="13"/>
+      <c r="H397" s="13"/>
+      <c r="I397" s="13"/>
+      <c r="J397" s="13"/>
+      <c r="K397" s="13"/>
+      <c r="L397" s="13"/>
+      <c r="M397" s="13"/>
+      <c r="N397" s="13"/>
+      <c r="O397" s="13"/>
+      <c r="P397" s="13"/>
+    </row>
+    <row r="398" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B398" s="13"/>
+      <c r="C398" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="D398" s="13"/>
+      <c r="E398" s="13"/>
+      <c r="F398" s="13"/>
+      <c r="G398" s="13"/>
+      <c r="H398" s="13"/>
+      <c r="I398" s="13"/>
+      <c r="J398" s="13"/>
+      <c r="K398" s="13"/>
+      <c r="L398" s="13"/>
+      <c r="M398" s="13"/>
+      <c r="N398" s="13"/>
+      <c r="O398" s="13"/>
+      <c r="P398" s="13"/>
+    </row>
+    <row r="399" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B399" s="13"/>
+      <c r="C399" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="D399" s="13"/>
+      <c r="E399" s="13"/>
+      <c r="F399" s="13"/>
+      <c r="G399" s="13"/>
+      <c r="H399" s="13"/>
+      <c r="I399" s="13"/>
+      <c r="J399" s="13"/>
+      <c r="K399" s="13"/>
+      <c r="L399" s="13"/>
+      <c r="M399" s="13"/>
+      <c r="N399" s="13"/>
+      <c r="O399" s="13"/>
+      <c r="P399" s="13"/>
+    </row>
+    <row r="400" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B400" s="13"/>
+      <c r="C400" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="D400" s="13"/>
+      <c r="E400" s="13"/>
+      <c r="F400" s="13"/>
+      <c r="G400" s="13"/>
+      <c r="H400" s="13"/>
+      <c r="I400" s="13"/>
+      <c r="J400" s="13"/>
+      <c r="K400" s="13"/>
+      <c r="L400" s="13"/>
+      <c r="M400" s="13"/>
+      <c r="N400" s="13"/>
+      <c r="O400" s="13"/>
+      <c r="P400" s="13"/>
+    </row>
+    <row r="401" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B401" s="13"/>
+      <c r="C401" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="D401" s="13"/>
+      <c r="E401" s="13"/>
+      <c r="F401" s="13"/>
+      <c r="G401" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="H401" s="13"/>
+      <c r="I401" s="13"/>
+      <c r="J401" s="13"/>
+      <c r="K401" s="13"/>
+      <c r="L401" s="13"/>
+      <c r="M401" s="13"/>
+      <c r="N401" s="13"/>
+      <c r="O401" s="13"/>
+      <c r="P401" s="13"/>
+    </row>
+    <row r="402" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B402" s="13"/>
+      <c r="C402" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="D402" s="13"/>
+      <c r="E402" s="13"/>
+      <c r="F402" s="13"/>
+      <c r="G402" s="13"/>
+      <c r="H402" s="13"/>
+      <c r="I402" s="13"/>
+      <c r="J402" s="13"/>
+      <c r="K402" s="13"/>
+      <c r="L402" s="13"/>
+      <c r="M402" s="13"/>
+      <c r="N402" s="13"/>
+      <c r="O402" s="13"/>
+      <c r="P402" s="13"/>
+    </row>
+    <row r="403" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B403" s="13"/>
+      <c r="C403" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="D403" s="13"/>
+      <c r="E403" s="13"/>
+      <c r="F403" s="13"/>
+      <c r="G403" s="13"/>
+      <c r="H403" s="13"/>
+      <c r="I403" s="13"/>
+      <c r="J403" s="13"/>
+      <c r="K403" s="13"/>
+      <c r="L403" s="13"/>
+      <c r="M403" s="13"/>
+      <c r="N403" s="13"/>
+      <c r="O403" s="13"/>
+      <c r="P403" s="13"/>
+    </row>
+    <row r="404" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B404" s="13"/>
+      <c r="C404" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="D404" s="13"/>
+      <c r="E404" s="13"/>
+      <c r="F404" s="13"/>
+      <c r="G404" s="13"/>
+      <c r="H404" s="13"/>
+      <c r="I404" s="13"/>
+      <c r="J404" s="13"/>
+      <c r="K404" s="13"/>
+      <c r="L404" s="13"/>
+      <c r="M404" s="13"/>
+      <c r="N404" s="13"/>
+      <c r="O404" s="13"/>
+      <c r="P404" s="13"/>
+    </row>
+    <row r="405" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B405" s="13"/>
+      <c r="C405" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="D405" s="13"/>
+      <c r="E405" s="13"/>
+      <c r="F405" s="13"/>
+      <c r="G405" s="13"/>
+      <c r="H405" s="13"/>
+      <c r="I405" s="13"/>
+      <c r="J405" s="13"/>
+      <c r="K405" s="13"/>
+      <c r="L405" s="13"/>
+      <c r="M405" s="13"/>
+      <c r="N405" s="13"/>
+      <c r="O405" s="13"/>
+      <c r="P405" s="13"/>
+    </row>
+    <row r="406" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B406" s="13"/>
+      <c r="C406" s="13"/>
+      <c r="D406" s="13"/>
+      <c r="E406" s="13"/>
+      <c r="F406" s="13"/>
+      <c r="G406" s="13"/>
+      <c r="H406" s="13"/>
+      <c r="I406" s="13"/>
+      <c r="J406" s="13"/>
+      <c r="K406" s="13"/>
+      <c r="L406" s="13"/>
+      <c r="M406" s="13"/>
+      <c r="N406" s="13"/>
+      <c r="O406" s="13"/>
+      <c r="P406" s="13"/>
+    </row>
+    <row r="407" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B407" s="13"/>
+      <c r="C407" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="D407" s="13"/>
+      <c r="E407" s="13"/>
+      <c r="F407" s="13"/>
+      <c r="G407" s="13"/>
+      <c r="H407" s="13"/>
+      <c r="I407" s="13"/>
+      <c r="J407" s="13"/>
+      <c r="K407" s="13"/>
+      <c r="L407" s="13"/>
+      <c r="M407" s="13"/>
+      <c r="N407" s="13"/>
+      <c r="O407" s="13"/>
+      <c r="P407" s="13"/>
+    </row>
+    <row r="408" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B408" s="13"/>
+      <c r="C408" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="D408" s="13"/>
+      <c r="E408" s="13"/>
+      <c r="F408" s="13"/>
+      <c r="G408" s="13"/>
+      <c r="H408" s="13"/>
+      <c r="I408" s="13"/>
+      <c r="J408" s="13"/>
+      <c r="K408" s="13"/>
+      <c r="L408" s="13"/>
+      <c r="M408" s="13"/>
+      <c r="N408" s="13"/>
+      <c r="O408" s="13"/>
+      <c r="P408" s="13"/>
+    </row>
+    <row r="409" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B409" s="13"/>
+      <c r="C409" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="D409" s="13"/>
+      <c r="E409" s="13"/>
+      <c r="F409" s="13"/>
+      <c r="G409" s="13"/>
+      <c r="H409" s="13"/>
+      <c r="I409" s="13"/>
+      <c r="J409" s="13"/>
+      <c r="K409" s="13"/>
+      <c r="L409" s="13"/>
+      <c r="M409" s="13"/>
+      <c r="N409" s="13"/>
+      <c r="O409" s="13"/>
+      <c r="P409" s="13"/>
+    </row>
+    <row r="410" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B410" s="13"/>
+      <c r="C410" s="13"/>
+      <c r="D410" s="13"/>
+      <c r="E410" s="13"/>
+      <c r="F410" s="13"/>
+      <c r="G410" s="13"/>
+      <c r="H410" s="13"/>
+      <c r="I410" s="13"/>
+      <c r="J410" s="13"/>
+      <c r="K410" s="13"/>
+      <c r="L410" s="13"/>
+      <c r="M410" s="13"/>
+      <c r="N410" s="13"/>
+      <c r="O410" s="13"/>
+      <c r="P410" s="13"/>
+    </row>
+    <row r="411" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B411" s="13"/>
+      <c r="C411" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="D411" s="13"/>
+      <c r="E411" s="13"/>
+      <c r="F411" s="13"/>
+      <c r="G411" s="13"/>
+      <c r="H411" s="13"/>
+      <c r="I411" s="13"/>
+      <c r="J411" s="13"/>
+      <c r="K411" s="13"/>
+      <c r="L411" s="13"/>
+      <c r="M411" s="13"/>
+      <c r="N411" s="13"/>
+      <c r="O411" s="13"/>
+      <c r="P411" s="13"/>
+    </row>
+    <row r="412" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B412" s="13"/>
+      <c r="C412" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="D412" s="13"/>
+      <c r="E412" s="13"/>
+      <c r="F412" s="13"/>
+      <c r="G412" s="13"/>
+      <c r="H412" s="13"/>
+      <c r="I412" s="13"/>
+      <c r="J412" s="13"/>
+      <c r="K412" s="13"/>
+      <c r="L412" s="13"/>
+      <c r="M412" s="13"/>
+      <c r="N412" s="13"/>
+      <c r="O412" s="13"/>
+      <c r="P412" s="13"/>
+    </row>
+    <row r="413" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B413" s="13"/>
+      <c r="C413" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="D413" s="13"/>
+      <c r="E413" s="13"/>
+      <c r="F413" s="13"/>
+      <c r="G413" s="13"/>
+      <c r="H413" s="13"/>
+      <c r="I413" s="13"/>
+      <c r="J413" s="13"/>
+      <c r="K413" s="13"/>
+      <c r="L413" s="13"/>
+      <c r="M413" s="13"/>
+      <c r="N413" s="13"/>
+      <c r="O413" s="13"/>
+      <c r="P413" s="13"/>
+    </row>
+    <row r="414" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B414" s="13"/>
+      <c r="C414" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="D414" s="13"/>
+      <c r="E414" s="13"/>
+      <c r="F414" s="13"/>
+      <c r="G414" s="13"/>
+      <c r="H414" s="13"/>
+      <c r="I414" s="13"/>
+      <c r="J414" s="13"/>
+      <c r="K414" s="13"/>
+      <c r="L414" s="13"/>
+      <c r="M414" s="13"/>
+      <c r="N414" s="13"/>
+      <c r="O414" s="13"/>
+      <c r="P414" s="13"/>
+    </row>
+    <row r="415" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B415" s="13"/>
+      <c r="C415" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="D415" s="13"/>
+      <c r="E415" s="13"/>
+      <c r="F415" s="13"/>
+      <c r="G415" s="13"/>
+      <c r="H415" s="13"/>
+      <c r="I415" s="13"/>
+      <c r="J415" s="13"/>
+      <c r="K415" s="13"/>
+      <c r="L415" s="13"/>
+      <c r="M415" s="13"/>
+      <c r="N415" s="13"/>
+      <c r="O415" s="13"/>
+      <c r="P415" s="13"/>
+    </row>
+    <row r="416" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B416" s="13"/>
+      <c r="C416" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="D416" s="13"/>
+      <c r="E416" s="13"/>
+      <c r="F416" s="13"/>
+      <c r="G416" s="13"/>
+      <c r="H416" s="13"/>
+      <c r="I416" s="13"/>
+      <c r="J416" s="13"/>
+      <c r="K416" s="13"/>
+      <c r="L416" s="13"/>
+      <c r="M416" s="13"/>
+      <c r="N416" s="13"/>
+      <c r="O416" s="13"/>
+      <c r="P416" s="13"/>
+    </row>
+    <row r="417" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B417" s="13"/>
+      <c r="C417" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="D417" s="13"/>
+      <c r="E417" s="13"/>
+      <c r="F417" s="13"/>
+      <c r="G417" s="13"/>
+      <c r="H417" s="13"/>
+      <c r="I417" s="13"/>
+      <c r="J417" s="13"/>
+      <c r="K417" s="13"/>
+      <c r="L417" s="13"/>
+      <c r="M417" s="13"/>
+      <c r="N417" s="13"/>
+      <c r="O417" s="13"/>
+      <c r="P417" s="13"/>
+    </row>
+    <row r="418" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B418" s="13"/>
+      <c r="C418" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="D418" s="13"/>
+      <c r="E418" s="13"/>
+      <c r="F418" s="13"/>
+      <c r="G418" s="13"/>
+      <c r="H418" s="13"/>
+      <c r="I418" s="13"/>
+      <c r="J418" s="13"/>
+      <c r="K418" s="13"/>
+      <c r="L418" s="13"/>
+      <c r="M418" s="13"/>
+      <c r="N418" s="13"/>
+      <c r="O418" s="13"/>
+      <c r="P418" s="13"/>
+    </row>
+    <row r="419" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B419" s="13"/>
+      <c r="C419" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="D419" s="13"/>
+      <c r="E419" s="13"/>
+      <c r="F419" s="13"/>
+      <c r="G419" s="13"/>
+      <c r="H419" s="13"/>
+      <c r="I419" s="13"/>
+      <c r="J419" s="13"/>
+      <c r="K419" s="13"/>
+      <c r="L419" s="13"/>
+      <c r="M419" s="13"/>
+      <c r="N419" s="13"/>
+      <c r="O419" s="13"/>
+      <c r="P419" s="13"/>
+    </row>
+    <row r="420" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B420" s="13"/>
+      <c r="C420" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="D420" s="13"/>
+      <c r="E420" s="13"/>
+      <c r="F420" s="13"/>
+      <c r="G420" s="13"/>
+      <c r="H420" s="13"/>
+      <c r="I420" s="13"/>
+      <c r="J420" s="13"/>
+      <c r="K420" s="13"/>
+      <c r="L420" s="13"/>
+      <c r="M420" s="13"/>
+      <c r="N420" s="13"/>
+      <c r="O420" s="13"/>
+      <c r="P420" s="13"/>
+    </row>
+    <row r="421" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B421" s="13"/>
+      <c r="C421" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="D421" s="13"/>
+      <c r="E421" s="13"/>
+      <c r="F421" s="13"/>
+      <c r="G421" s="13"/>
+      <c r="H421" s="13"/>
+      <c r="I421" s="13"/>
+      <c r="J421" s="13"/>
+      <c r="K421" s="13"/>
+      <c r="L421" s="13"/>
+      <c r="M421" s="13"/>
+      <c r="N421" s="13"/>
+      <c r="O421" s="13"/>
+      <c r="P421" s="13"/>
+    </row>
+    <row r="422" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B422" s="13"/>
+      <c r="C422" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="D422" s="13"/>
+      <c r="E422" s="13"/>
+      <c r="F422" s="13"/>
+      <c r="G422" s="13"/>
+      <c r="H422" s="13"/>
+      <c r="I422" s="13"/>
+      <c r="J422" s="13"/>
+      <c r="K422" s="13"/>
+      <c r="L422" s="13"/>
+      <c r="M422" s="13"/>
+      <c r="N422" s="13"/>
+      <c r="O422" s="13"/>
+      <c r="P422" s="13"/>
+    </row>
+    <row r="423" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B423" s="13"/>
+      <c r="C423" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="D423" s="13"/>
+      <c r="E423" s="13"/>
+      <c r="F423" s="13"/>
+      <c r="G423" s="13"/>
+      <c r="H423" s="13"/>
+      <c r="I423" s="13"/>
+      <c r="J423" s="13"/>
+      <c r="K423" s="13"/>
+      <c r="L423" s="13"/>
+      <c r="M423" s="13"/>
+      <c r="N423" s="13"/>
+      <c r="O423" s="13"/>
+      <c r="P423" s="13"/>
+    </row>
+    <row r="424" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B424" s="13"/>
+      <c r="C424" s="13"/>
+      <c r="D424" s="13"/>
+      <c r="E424" s="13"/>
+      <c r="F424" s="13"/>
+      <c r="G424" s="13"/>
+      <c r="H424" s="13"/>
+      <c r="I424" s="13"/>
+      <c r="J424" s="13"/>
+      <c r="K424" s="13"/>
+      <c r="L424" s="13"/>
+      <c r="M424" s="13"/>
+      <c r="N424" s="13"/>
+      <c r="O424" s="13"/>
+      <c r="P424" s="13"/>
+    </row>
+    <row r="425" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B425" s="13"/>
+      <c r="C425" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="D425" s="13"/>
+      <c r="E425" s="13"/>
+      <c r="F425" s="13"/>
+      <c r="G425" s="13"/>
+      <c r="H425" s="13"/>
+      <c r="I425" s="13"/>
+      <c r="J425" s="13"/>
+      <c r="K425" s="13"/>
+      <c r="L425" s="13"/>
+      <c r="M425" s="13"/>
+      <c r="N425" s="13"/>
+      <c r="O425" s="13"/>
+      <c r="P425" s="13"/>
+    </row>
+    <row r="426" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B426" s="13"/>
+      <c r="C426" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="D426" s="13"/>
+      <c r="E426" s="13"/>
+      <c r="F426" s="13"/>
+      <c r="G426" s="13"/>
+      <c r="H426" s="13"/>
+      <c r="I426" s="13"/>
+      <c r="J426" s="13"/>
+      <c r="K426" s="13"/>
+      <c r="L426" s="13"/>
+      <c r="M426" s="13"/>
+      <c r="N426" s="13"/>
+      <c r="O426" s="13"/>
+      <c r="P426" s="13"/>
+    </row>
+    <row r="427" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B427" s="13"/>
+      <c r="C427" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D427" s="13"/>
+      <c r="E427" s="13"/>
+      <c r="F427" s="13"/>
+      <c r="G427" s="13"/>
+      <c r="H427" s="13"/>
+      <c r="I427" s="13"/>
+      <c r="J427" s="13"/>
+      <c r="K427" s="13"/>
+      <c r="L427" s="13"/>
+      <c r="M427" s="13"/>
+      <c r="N427" s="13"/>
+      <c r="O427" s="13"/>
+      <c r="P427" s="13"/>
+    </row>
+    <row r="428" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B428" s="13"/>
+      <c r="C428" s="13"/>
+      <c r="D428" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="E428" s="13"/>
+      <c r="F428" s="13"/>
+      <c r="G428" s="13"/>
+      <c r="H428" s="13"/>
+      <c r="I428" s="13"/>
+      <c r="J428" s="13"/>
+      <c r="K428" s="13"/>
+      <c r="L428" s="13"/>
+      <c r="M428" s="13"/>
+      <c r="N428" s="13"/>
+      <c r="O428" s="13"/>
+      <c r="P428" s="13"/>
+    </row>
+    <row r="429" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B429" s="13"/>
+      <c r="C429" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D429" s="13"/>
+      <c r="E429" s="13"/>
+      <c r="F429" s="13"/>
+      <c r="G429" s="13"/>
+      <c r="H429" s="13"/>
+      <c r="I429" s="13"/>
+      <c r="J429" s="13"/>
+      <c r="K429" s="13"/>
+      <c r="L429" s="13"/>
+      <c r="M429" s="13"/>
+      <c r="N429" s="13"/>
+      <c r="O429" s="13"/>
+      <c r="P429" s="13"/>
+    </row>
+    <row r="430" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B430" s="13"/>
+      <c r="C430" s="13"/>
+      <c r="D430" s="13"/>
+      <c r="E430" s="13"/>
+      <c r="F430" s="13"/>
+      <c r="G430" s="13"/>
+      <c r="H430" s="13"/>
+      <c r="I430" s="13"/>
+      <c r="J430" s="13"/>
+      <c r="K430" s="13"/>
+      <c r="L430" s="13"/>
+      <c r="M430" s="13"/>
+      <c r="N430" s="13"/>
+      <c r="O430" s="13"/>
+      <c r="P430" s="13"/>
+    </row>
+    <row r="431" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B431" s="13"/>
+      <c r="C431" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="D431" s="13"/>
+      <c r="E431" s="13"/>
+      <c r="F431" s="13"/>
+      <c r="G431" s="13"/>
+      <c r="H431" s="13"/>
+      <c r="I431" s="13"/>
+      <c r="J431" s="13"/>
+      <c r="K431" s="13"/>
+      <c r="L431" s="13"/>
+      <c r="M431" s="13"/>
+      <c r="N431" s="13"/>
+      <c r="O431" s="13"/>
+      <c r="P431" s="13"/>
+    </row>
+    <row r="432" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B432" s="13"/>
+      <c r="C432" s="13" t="s">
+        <v>540</v>
+      </c>
+      <c r="D432" s="13"/>
+      <c r="E432" s="13"/>
+      <c r="F432" s="13"/>
+      <c r="G432" s="13"/>
+      <c r="H432" s="13"/>
+      <c r="I432" s="13"/>
+      <c r="J432" s="13"/>
+      <c r="K432" s="13"/>
+      <c r="L432" s="13"/>
+      <c r="M432" s="13"/>
+      <c r="N432" s="13"/>
+      <c r="O432" s="13"/>
+      <c r="P432" s="13"/>
+    </row>
+    <row r="433" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B433" s="13"/>
+      <c r="C433" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="D433" s="13"/>
+      <c r="E433" s="13"/>
+      <c r="F433" s="13"/>
+      <c r="G433" s="13"/>
+      <c r="H433" s="13"/>
+      <c r="I433" s="13"/>
+      <c r="J433" s="13"/>
+      <c r="K433" s="13"/>
+      <c r="L433" s="13"/>
+      <c r="M433" s="13"/>
+      <c r="N433" s="13"/>
+      <c r="O433" s="13"/>
+      <c r="P433" s="13"/>
+    </row>
+    <row r="434" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B434" s="13"/>
+      <c r="C434" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="D434" s="13"/>
+      <c r="E434" s="13"/>
+      <c r="F434" s="13"/>
+      <c r="G434" s="13"/>
+      <c r="H434" s="13"/>
+      <c r="I434" s="13"/>
+      <c r="J434" s="13"/>
+      <c r="K434" s="13"/>
+      <c r="L434" s="13"/>
+      <c r="M434" s="13"/>
+      <c r="N434" s="13"/>
+      <c r="O434" s="13"/>
+      <c r="P434" s="13"/>
+    </row>
+    <row r="435" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B435" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C435" s="13"/>
+      <c r="D435" s="13"/>
+      <c r="E435" s="13"/>
+      <c r="F435" s="13"/>
+      <c r="G435" s="13"/>
+      <c r="H435" s="13"/>
+      <c r="I435" s="13"/>
+      <c r="J435" s="13"/>
+      <c r="K435" s="13"/>
+      <c r="L435" s="13"/>
+      <c r="M435" s="13"/>
+      <c r="N435" s="13"/>
+      <c r="O435" s="13"/>
+      <c r="P435" s="13"/>
+    </row>
+    <row r="436" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B436" s="13"/>
+      <c r="C436" s="13"/>
+      <c r="D436" s="13"/>
+      <c r="E436" s="13"/>
+      <c r="F436" s="13"/>
+      <c r="G436" s="13"/>
+      <c r="H436" s="13"/>
+      <c r="I436" s="13"/>
+      <c r="J436" s="13"/>
+      <c r="K436" s="13"/>
+      <c r="L436" s="13"/>
+      <c r="M436" s="13"/>
+      <c r="N436" s="13"/>
+      <c r="O436" s="13"/>
+      <c r="P436" s="13"/>
+    </row>
+    <row r="437" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B437" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C437" s="13"/>
+      <c r="D437" s="13"/>
+      <c r="E437" s="13"/>
+      <c r="F437" s="13"/>
+      <c r="G437" s="13"/>
+      <c r="H437" s="13"/>
+      <c r="I437" s="13"/>
+      <c r="J437" s="13"/>
+      <c r="K437" s="13"/>
+      <c r="L437" s="13"/>
+      <c r="M437" s="13"/>
+      <c r="N437" s="13"/>
+      <c r="O437" s="13"/>
+      <c r="P437" s="13"/>
+    </row>
+    <row r="438" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B438" s="13"/>
+      <c r="C438" s="13"/>
+      <c r="D438" s="13"/>
+      <c r="E438" s="13"/>
+      <c r="F438" s="13"/>
+      <c r="G438" s="13"/>
+      <c r="H438" s="13"/>
+      <c r="I438" s="13"/>
+      <c r="J438" s="13"/>
+      <c r="K438" s="13"/>
+      <c r="L438" s="13"/>
+      <c r="M438" s="13"/>
+      <c r="N438" s="13"/>
+      <c r="O438" s="13"/>
+      <c r="P438" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -10972,7 +13192,7 @@
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -10986,7 +13206,7 @@
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -11000,7 +13220,7 @@
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -11026,7 +13246,7 @@
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -11040,7 +13260,7 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -11066,7 +13286,7 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -11080,7 +13300,7 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -11094,7 +13314,7 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -11144,7 +13364,7 @@
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -11173,7 +13393,7 @@
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="13"/>
       <c r="C18" s="13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
@@ -11202,7 +13422,7 @@
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
@@ -11220,7 +13440,7 @@
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
@@ -11234,7 +13454,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
@@ -11248,7 +13468,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
@@ -11262,7 +13482,7 @@
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
@@ -11276,7 +13496,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
@@ -11290,7 +13510,7 @@
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
@@ -11304,7 +13524,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
@@ -11318,7 +13538,7 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
@@ -11332,7 +13552,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
@@ -11346,7 +13566,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
@@ -11360,7 +13580,7 @@
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
       <c r="H31" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I31" s="13"/>
       <c r="J31" s="13"/>
@@ -11374,7 +13594,7 @@
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I32" s="13"/>
       <c r="J32" s="13"/>
@@ -11388,7 +13608,7 @@
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I33" s="13"/>
       <c r="J33" s="13"/>
@@ -11402,7 +13622,7 @@
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
@@ -11416,7 +13636,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
@@ -11430,7 +13650,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I36" s="13"/>
       <c r="J36" s="13"/>
@@ -11444,7 +13664,7 @@
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
       <c r="H37" s="13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I37" s="13"/>
       <c r="J37" s="13"/>
@@ -11458,7 +13678,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
       <c r="H38" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I38" s="13"/>
       <c r="J38" s="13"/>
@@ -11480,7 +13700,7 @@
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
@@ -11495,7 +13715,7 @@
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
@@ -11509,7 +13729,7 @@
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
@@ -11523,7 +13743,7 @@
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
@@ -11537,7 +13757,7 @@
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
@@ -11551,7 +13771,7 @@
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
@@ -11565,7 +13785,7 @@
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
       <c r="E46" s="13" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
@@ -11579,7 +13799,7 @@
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
       <c r="E47" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
@@ -11593,7 +13813,7 @@
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
       <c r="E48" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
@@ -11607,7 +13827,7 @@
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
@@ -11621,7 +13841,7 @@
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
@@ -11635,7 +13855,7 @@
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
@@ -11649,7 +13869,7 @@
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
       <c r="E52" s="13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
@@ -11663,7 +13883,7 @@
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F53" s="13"/>
       <c r="G53" s="13"/>
@@ -11677,7 +13897,7 @@
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
@@ -11691,7 +13911,7 @@
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
       <c r="E55" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
@@ -11705,7 +13925,7 @@
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
@@ -11719,7 +13939,7 @@
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
       <c r="E57" s="13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
@@ -11733,7 +13953,7 @@
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F58" s="13"/>
       <c r="G58" s="13"/>
@@ -11751,7 +13971,7 @@
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
       <c r="I59" s="13" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J59" s="13"/>
       <c r="K59" s="13"/>
@@ -11765,7 +13985,7 @@
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
       <c r="I60" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J60" s="13"/>
       <c r="K60" s="13"/>
@@ -11775,7 +13995,7 @@
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
       <c r="E61" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
@@ -11802,7 +14022,7 @@
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
       <c r="D63" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E63" s="13"/>
       <c r="F63" s="13"/>
@@ -11890,7 +14110,7 @@
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
@@ -11919,7 +14139,7 @@
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B72" s="13"/>
       <c r="C72" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13"/>
@@ -11948,7 +14168,7 @@
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
       <c r="D74" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E74" s="13"/>
       <c r="F74" s="13"/>
@@ -11966,7 +14186,7 @@
       <c r="F75" s="13"/>
       <c r="G75" s="13"/>
       <c r="H75" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I75" s="13"/>
       <c r="J75" s="13"/>
@@ -11980,7 +14200,7 @@
       <c r="F76" s="13"/>
       <c r="G76" s="13"/>
       <c r="H76" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I76" s="13"/>
       <c r="J76" s="13"/>
@@ -11990,7 +14210,7 @@
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
       <c r="D77" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E77" s="13"/>
       <c r="F77" s="13"/>
@@ -12006,7 +14226,7 @@
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
       <c r="F78" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G78" s="13"/>
       <c r="H78" s="13"/>
@@ -12020,7 +14240,7 @@
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
       <c r="F79" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G79" s="13"/>
       <c r="H79" s="13"/>
@@ -12034,7 +14254,7 @@
       <c r="D80" s="13"/>
       <c r="E80" s="13"/>
       <c r="F80" s="13" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G80" s="13"/>
       <c r="H80" s="13"/>
@@ -12072,7 +14292,7 @@
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
       <c r="D83" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E83" s="13"/>
       <c r="F83" s="13"/>
@@ -12148,7 +14368,7 @@
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B89" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
@@ -12177,7 +14397,7 @@
     <row r="91" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B91" s="13"/>
       <c r="C91" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D91" s="13"/>
       <c r="E91" s="13"/>
@@ -12206,7 +14426,7 @@
       <c r="B93" s="13"/>
       <c r="C93" s="13"/>
       <c r="D93" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E93" s="13"/>
       <c r="F93" s="13"/>
@@ -12224,7 +14444,7 @@
       <c r="F94" s="13"/>
       <c r="G94" s="13"/>
       <c r="H94" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I94" s="13"/>
       <c r="J94" s="13"/>
@@ -12238,7 +14458,7 @@
       <c r="F95" s="13"/>
       <c r="G95" s="13"/>
       <c r="H95" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I95" s="13"/>
       <c r="J95" s="13"/>
@@ -12252,7 +14472,7 @@
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
       <c r="H96" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I96" s="13"/>
       <c r="J96" s="13"/>
@@ -12266,7 +14486,7 @@
       <c r="F97" s="13"/>
       <c r="G97" s="13"/>
       <c r="H97" s="13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I97" s="13"/>
       <c r="J97" s="13"/>
@@ -12280,7 +14500,7 @@
       <c r="F98" s="13"/>
       <c r="G98" s="13"/>
       <c r="H98" s="13" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I98" s="13"/>
       <c r="J98" s="13"/>
@@ -12294,7 +14514,7 @@
       <c r="F99" s="13"/>
       <c r="G99" s="13"/>
       <c r="H99" s="13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I99" s="13"/>
       <c r="J99" s="13"/>
@@ -12308,7 +14528,7 @@
       <c r="F100" s="13"/>
       <c r="G100" s="13"/>
       <c r="H100" s="13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I100" s="13"/>
       <c r="J100" s="13"/>
@@ -12318,7 +14538,7 @@
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
       <c r="D101" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E101" s="13"/>
       <c r="F101" s="13"/>
@@ -12334,7 +14554,7 @@
       <c r="D102" s="13"/>
       <c r="E102" s="13"/>
       <c r="F102" s="13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G102" s="13"/>
       <c r="H102" s="13"/>
@@ -12348,7 +14568,7 @@
       <c r="D103" s="13"/>
       <c r="E103" s="13"/>
       <c r="F103" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G103" s="13"/>
       <c r="H103" s="13"/>
@@ -12362,7 +14582,7 @@
       <c r="D104" s="13"/>
       <c r="E104" s="13"/>
       <c r="F104" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G104" s="13"/>
       <c r="H104" s="13"/>
@@ -12376,7 +14596,7 @@
       <c r="D105" s="13"/>
       <c r="E105" s="13"/>
       <c r="F105" s="13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G105" s="13"/>
       <c r="H105" s="13"/>
@@ -12390,7 +14610,7 @@
       <c r="D106" s="13"/>
       <c r="E106" s="13"/>
       <c r="F106" s="13" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G106" s="13"/>
       <c r="H106" s="13"/>
@@ -12404,7 +14624,7 @@
       <c r="D107" s="13"/>
       <c r="E107" s="13"/>
       <c r="F107" s="13" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G107" s="13"/>
       <c r="H107" s="13"/>
@@ -12418,7 +14638,7 @@
       <c r="D108" s="13"/>
       <c r="E108" s="13"/>
       <c r="F108" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G108" s="13"/>
       <c r="H108" s="13"/>
@@ -12456,7 +14676,7 @@
       <c r="B111" s="13"/>
       <c r="C111" s="13"/>
       <c r="D111" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E111" s="13"/>
       <c r="F111" s="13"/>
@@ -12532,7 +14752,7 @@
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B117" s="13" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C117" s="13"/>
       <c r="D117" s="13"/>
@@ -12561,7 +14781,7 @@
     <row r="119" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B119" s="13"/>
       <c r="C119" s="13" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D119" s="13"/>
       <c r="E119" s="13"/>
@@ -12590,7 +14810,7 @@
       <c r="B121" s="13"/>
       <c r="C121" s="13"/>
       <c r="D121" s="13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E121" s="13"/>
       <c r="F121" s="13"/>
@@ -12608,7 +14828,7 @@
       <c r="F122" s="13"/>
       <c r="G122" s="13"/>
       <c r="H122" s="13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I122" s="13"/>
       <c r="J122" s="13"/>
@@ -12622,7 +14842,7 @@
       <c r="F123" s="13"/>
       <c r="G123" s="13"/>
       <c r="H123" s="13" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I123" s="13"/>
       <c r="J123" s="13"/>
@@ -12636,7 +14856,7 @@
       <c r="F124" s="13"/>
       <c r="G124" s="13"/>
       <c r="H124" s="13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I124" s="13"/>
       <c r="J124" s="13"/>
@@ -12650,7 +14870,7 @@
       <c r="F125" s="13"/>
       <c r="G125" s="13"/>
       <c r="H125" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I125" s="13"/>
       <c r="J125" s="13"/>
@@ -12664,7 +14884,7 @@
       <c r="F126" s="13"/>
       <c r="G126" s="13"/>
       <c r="H126" s="13" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I126" s="13"/>
       <c r="J126" s="13"/>
@@ -12678,7 +14898,7 @@
       <c r="F127" s="13"/>
       <c r="G127" s="13"/>
       <c r="H127" s="13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I127" s="13"/>
       <c r="J127" s="13"/>
@@ -12692,7 +14912,7 @@
       <c r="F128" s="13"/>
       <c r="G128" s="13"/>
       <c r="H128" s="13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I128" s="13"/>
       <c r="J128" s="13"/>
@@ -12706,7 +14926,7 @@
       <c r="F129" s="13"/>
       <c r="G129" s="13"/>
       <c r="H129" s="13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I129" s="13"/>
       <c r="J129" s="13"/>
@@ -12720,7 +14940,7 @@
       <c r="F130" s="13"/>
       <c r="G130" s="13"/>
       <c r="H130" s="13" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I130" s="13"/>
       <c r="J130" s="13"/>
@@ -12734,7 +14954,7 @@
       <c r="F131" s="13"/>
       <c r="G131" s="13"/>
       <c r="H131" s="13" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I131" s="13"/>
       <c r="J131" s="13"/>
@@ -12748,7 +14968,7 @@
       <c r="F132" s="13"/>
       <c r="G132" s="13"/>
       <c r="H132" s="13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I132" s="13"/>
       <c r="J132" s="13"/>
@@ -12762,7 +14982,7 @@
       <c r="F133" s="13"/>
       <c r="G133" s="13"/>
       <c r="H133" s="13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I133" s="13"/>
       <c r="J133" s="13"/>
@@ -12776,7 +14996,7 @@
       <c r="F134" s="13"/>
       <c r="G134" s="13"/>
       <c r="H134" s="13" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I134" s="13"/>
       <c r="J134" s="13"/>
@@ -12790,7 +15010,7 @@
       <c r="F135" s="13"/>
       <c r="G135" s="13"/>
       <c r="H135" s="13" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I135" s="13"/>
       <c r="J135" s="13"/>
@@ -12804,7 +15024,7 @@
       <c r="F136" s="13"/>
       <c r="G136" s="13"/>
       <c r="H136" s="13" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I136" s="13"/>
       <c r="J136" s="13"/>
@@ -12818,7 +15038,7 @@
       <c r="F137" s="13"/>
       <c r="G137" s="13"/>
       <c r="H137" s="13" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I137" s="13"/>
       <c r="J137" s="13"/>
@@ -12832,7 +15052,7 @@
       <c r="F138" s="13"/>
       <c r="G138" s="13"/>
       <c r="H138" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I138" s="13"/>
       <c r="J138" s="13"/>
@@ -12846,7 +15066,7 @@
       <c r="F139" s="13"/>
       <c r="G139" s="13"/>
       <c r="H139" s="13" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I139" s="13"/>
       <c r="J139" s="13"/>
@@ -12860,7 +15080,7 @@
       <c r="F140" s="13"/>
       <c r="G140" s="13"/>
       <c r="H140" s="13" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I140" s="13"/>
       <c r="J140" s="13"/>
@@ -12874,7 +15094,7 @@
       <c r="F141" s="13"/>
       <c r="G141" s="13"/>
       <c r="H141" s="13" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I141" s="13"/>
       <c r="J141" s="13"/>
@@ -12888,7 +15108,7 @@
       <c r="F142" s="13"/>
       <c r="G142" s="13"/>
       <c r="H142" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I142" s="13"/>
       <c r="J142" s="13"/>
@@ -12902,7 +15122,7 @@
       <c r="F143" s="13"/>
       <c r="G143" s="13"/>
       <c r="H143" s="13" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I143" s="13"/>
       <c r="J143" s="13"/>
@@ -12916,7 +15136,7 @@
       <c r="F144" s="13"/>
       <c r="G144" s="13"/>
       <c r="H144" s="13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I144" s="13"/>
       <c r="J144" s="13"/>
@@ -12930,7 +15150,7 @@
       <c r="F145" s="13"/>
       <c r="G145" s="13"/>
       <c r="H145" s="13" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I145" s="13"/>
       <c r="J145" s="13"/>
@@ -12944,7 +15164,7 @@
       <c r="F146" s="13"/>
       <c r="G146" s="13"/>
       <c r="H146" s="13" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I146" s="13"/>
       <c r="J146" s="13"/>
@@ -12958,7 +15178,7 @@
       <c r="F147" s="13"/>
       <c r="G147" s="13"/>
       <c r="H147" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I147" s="13"/>
       <c r="J147" s="13"/>
@@ -12972,7 +15192,7 @@
       <c r="F148" s="13"/>
       <c r="G148" s="13"/>
       <c r="H148" s="13" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I148" s="13"/>
       <c r="J148" s="13"/>
@@ -12986,7 +15206,7 @@
       <c r="F149" s="13"/>
       <c r="G149" s="13"/>
       <c r="H149" s="13" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I149" s="13"/>
       <c r="J149" s="13"/>
@@ -13000,7 +15220,7 @@
       <c r="F150" s="13"/>
       <c r="G150" s="13"/>
       <c r="H150" s="13" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I150" s="13"/>
       <c r="J150" s="13"/>
@@ -13014,7 +15234,7 @@
       <c r="F151" s="13"/>
       <c r="G151" s="13"/>
       <c r="H151" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I151" s="13"/>
       <c r="J151" s="13"/>
@@ -13028,7 +15248,7 @@
       <c r="F152" s="13"/>
       <c r="G152" s="13"/>
       <c r="H152" s="13" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I152" s="13"/>
       <c r="J152" s="13"/>
@@ -13038,7 +15258,7 @@
       <c r="B153" s="13"/>
       <c r="C153" s="13"/>
       <c r="D153" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E153" s="13"/>
       <c r="F153" s="13"/>
@@ -13054,7 +15274,7 @@
       <c r="D154" s="13"/>
       <c r="E154" s="13"/>
       <c r="F154" s="13" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G154" s="13"/>
       <c r="H154" s="13"/>
@@ -13068,7 +15288,7 @@
       <c r="D155" s="13"/>
       <c r="E155" s="13"/>
       <c r="F155" s="13" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G155" s="13"/>
       <c r="H155" s="13"/>
@@ -13082,7 +15302,7 @@
       <c r="D156" s="13"/>
       <c r="E156" s="13"/>
       <c r="F156" s="13" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G156" s="13"/>
       <c r="H156" s="13"/>
@@ -13096,7 +15316,7 @@
       <c r="D157" s="13"/>
       <c r="E157" s="13"/>
       <c r="F157" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G157" s="13"/>
       <c r="H157" s="13"/>
@@ -13110,7 +15330,7 @@
       <c r="D158" s="13"/>
       <c r="E158" s="13"/>
       <c r="F158" s="13" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G158" s="13"/>
       <c r="H158" s="13"/>
@@ -13124,7 +15344,7 @@
       <c r="D159" s="13"/>
       <c r="E159" s="13"/>
       <c r="F159" s="13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G159" s="13"/>
       <c r="H159" s="13"/>
@@ -13138,7 +15358,7 @@
       <c r="D160" s="13"/>
       <c r="E160" s="13"/>
       <c r="F160" s="13" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G160" s="13"/>
       <c r="H160" s="13"/>
@@ -13152,7 +15372,7 @@
       <c r="D161" s="13"/>
       <c r="E161" s="13"/>
       <c r="F161" s="13" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G161" s="13"/>
       <c r="H161" s="13"/>
@@ -13166,7 +15386,7 @@
       <c r="D162" s="13"/>
       <c r="E162" s="13"/>
       <c r="F162" s="13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G162" s="13"/>
       <c r="H162" s="13"/>
@@ -13180,7 +15400,7 @@
       <c r="D163" s="13"/>
       <c r="E163" s="13"/>
       <c r="F163" s="13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G163" s="13"/>
       <c r="H163" s="13"/>
@@ -13194,7 +15414,7 @@
       <c r="D164" s="13"/>
       <c r="E164" s="13"/>
       <c r="F164" s="13" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G164" s="13"/>
       <c r="H164" s="13"/>
@@ -13208,7 +15428,7 @@
       <c r="D165" s="13"/>
       <c r="E165" s="13"/>
       <c r="F165" s="13" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G165" s="13"/>
       <c r="H165" s="13"/>
@@ -13222,7 +15442,7 @@
       <c r="D166" s="13"/>
       <c r="E166" s="13"/>
       <c r="F166" s="13" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G166" s="13"/>
       <c r="H166" s="13"/>
@@ -13236,7 +15456,7 @@
       <c r="D167" s="13"/>
       <c r="E167" s="13"/>
       <c r="F167" s="13" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G167" s="13"/>
       <c r="H167" s="13"/>
@@ -13250,7 +15470,7 @@
       <c r="D168" s="13"/>
       <c r="E168" s="13"/>
       <c r="F168" s="13" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G168" s="13"/>
       <c r="H168" s="13"/>
@@ -13264,7 +15484,7 @@
       <c r="D169" s="13"/>
       <c r="E169" s="13"/>
       <c r="F169" s="13" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G169" s="13"/>
       <c r="H169" s="13"/>
@@ -13278,7 +15498,7 @@
       <c r="D170" s="13"/>
       <c r="E170" s="13"/>
       <c r="F170" s="13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G170" s="13"/>
       <c r="H170" s="13"/>
@@ -13292,7 +15512,7 @@
       <c r="D171" s="13"/>
       <c r="E171" s="13"/>
       <c r="F171" s="13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G171" s="13"/>
       <c r="H171" s="13"/>
@@ -13306,7 +15526,7 @@
       <c r="D172" s="13"/>
       <c r="E172" s="13"/>
       <c r="F172" s="13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G172" s="13"/>
       <c r="H172" s="13"/>
@@ -13320,7 +15540,7 @@
       <c r="D173" s="13"/>
       <c r="E173" s="13"/>
       <c r="F173" s="13" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G173" s="13"/>
       <c r="H173" s="13"/>
@@ -13334,7 +15554,7 @@
       <c r="D174" s="13"/>
       <c r="E174" s="13"/>
       <c r="F174" s="13" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G174" s="13"/>
       <c r="H174" s="13"/>
@@ -13348,7 +15568,7 @@
       <c r="D175" s="13"/>
       <c r="E175" s="13"/>
       <c r="F175" s="13" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G175" s="13"/>
       <c r="H175" s="13"/>
@@ -13362,7 +15582,7 @@
       <c r="D176" s="13"/>
       <c r="E176" s="13"/>
       <c r="F176" s="13" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G176" s="13"/>
       <c r="H176" s="13"/>
@@ -13376,7 +15596,7 @@
       <c r="D177" s="13"/>
       <c r="E177" s="13"/>
       <c r="F177" s="13" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G177" s="13"/>
       <c r="H177" s="13"/>
@@ -13390,7 +15610,7 @@
       <c r="D178" s="13"/>
       <c r="E178" s="13"/>
       <c r="F178" s="13" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G178" s="13"/>
       <c r="H178" s="13"/>
@@ -13404,7 +15624,7 @@
       <c r="D179" s="13"/>
       <c r="E179" s="13"/>
       <c r="F179" s="13" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G179" s="13"/>
       <c r="H179" s="13"/>
@@ -13418,7 +15638,7 @@
       <c r="D180" s="13"/>
       <c r="E180" s="13"/>
       <c r="F180" s="13" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G180" s="13"/>
       <c r="H180" s="13"/>
@@ -13432,7 +15652,7 @@
       <c r="D181" s="13"/>
       <c r="E181" s="13"/>
       <c r="F181" s="13" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G181" s="13"/>
       <c r="H181" s="13"/>
@@ -13446,7 +15666,7 @@
       <c r="D182" s="13"/>
       <c r="E182" s="13"/>
       <c r="F182" s="13" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G182" s="13"/>
       <c r="H182" s="13"/>
@@ -13460,7 +15680,7 @@
       <c r="D183" s="13"/>
       <c r="E183" s="13"/>
       <c r="F183" s="13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G183" s="13"/>
       <c r="H183" s="13"/>
@@ -13474,7 +15694,7 @@
       <c r="D184" s="13"/>
       <c r="E184" s="13"/>
       <c r="F184" s="13" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G184" s="13"/>
       <c r="H184" s="13"/>
@@ -13500,7 +15720,7 @@
       <c r="B186" s="13"/>
       <c r="C186" s="13"/>
       <c r="D186" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E186" s="13"/>
       <c r="F186" s="13"/>
@@ -13576,7 +15796,7 @@
     </row>
     <row r="192" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B192" s="13" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C192" s="13"/>
       <c r="D192" s="13"/>
@@ -13617,7 +15837,7 @@
     <row r="195" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B195" s="13"/>
       <c r="C195" s="13" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D195" s="13"/>
       <c r="E195" s="13"/>
@@ -13646,7 +15866,7 @@
       <c r="B197" s="13"/>
       <c r="C197" s="13"/>
       <c r="D197" s="13" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E197" s="13"/>
       <c r="F197" s="13"/>
@@ -13664,7 +15884,7 @@
       <c r="F198" s="13"/>
       <c r="G198" s="13"/>
       <c r="H198" s="13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I198" s="13"/>
       <c r="J198" s="13"/>
@@ -13678,7 +15898,7 @@
       <c r="F199" s="13"/>
       <c r="G199" s="13"/>
       <c r="H199" s="13" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I199" s="13"/>
       <c r="J199" s="13"/>
@@ -13692,7 +15912,7 @@
       <c r="F200" s="13"/>
       <c r="G200" s="13"/>
       <c r="H200" s="13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I200" s="13"/>
       <c r="J200" s="13"/>
@@ -13706,7 +15926,7 @@
       <c r="F201" s="13"/>
       <c r="G201" s="13"/>
       <c r="H201" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I201" s="13"/>
       <c r="J201" s="13"/>
@@ -13720,7 +15940,7 @@
       <c r="F202" s="13"/>
       <c r="G202" s="13"/>
       <c r="H202" s="13" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I202" s="13"/>
       <c r="J202" s="13"/>
@@ -13734,7 +15954,7 @@
       <c r="F203" s="13"/>
       <c r="G203" s="13"/>
       <c r="H203" s="13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I203" s="13"/>
       <c r="J203" s="13"/>
@@ -13748,7 +15968,7 @@
       <c r="F204" s="13"/>
       <c r="G204" s="13"/>
       <c r="H204" s="13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I204" s="13"/>
       <c r="J204" s="13"/>
@@ -13762,7 +15982,7 @@
       <c r="F205" s="13"/>
       <c r="G205" s="13"/>
       <c r="H205" s="13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I205" s="13"/>
       <c r="J205" s="13"/>
@@ -13776,10 +15996,10 @@
       <c r="F206" s="13"/>
       <c r="G206" s="13"/>
       <c r="H206" s="13" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I206" s="13" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J206" s="13"/>
       <c r="K206" s="13"/>
@@ -13792,7 +16012,7 @@
       <c r="F207" s="13"/>
       <c r="G207" s="13"/>
       <c r="H207" s="13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I207" s="13"/>
       <c r="J207" s="13"/>
@@ -13806,7 +16026,7 @@
       <c r="F208" s="13"/>
       <c r="G208" s="13"/>
       <c r="H208" s="13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I208" s="13"/>
       <c r="J208" s="13"/>
@@ -13820,7 +16040,7 @@
       <c r="F209" s="13"/>
       <c r="G209" s="13"/>
       <c r="H209" s="13" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I209" s="13"/>
       <c r="J209" s="13"/>
@@ -13834,7 +16054,7 @@
       <c r="F210" s="13"/>
       <c r="G210" s="13"/>
       <c r="H210" s="13" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I210" s="13"/>
       <c r="J210" s="13"/>
@@ -13848,7 +16068,7 @@
       <c r="F211" s="13"/>
       <c r="G211" s="13"/>
       <c r="H211" s="13" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I211" s="13"/>
       <c r="J211" s="13"/>
@@ -13862,7 +16082,7 @@
       <c r="F212" s="13"/>
       <c r="G212" s="13"/>
       <c r="H212" s="13" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I212" s="13"/>
       <c r="J212" s="13"/>
@@ -13876,7 +16096,7 @@
       <c r="F213" s="13"/>
       <c r="G213" s="13"/>
       <c r="H213" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I213" s="13"/>
       <c r="J213" s="13"/>
@@ -13890,7 +16110,7 @@
       <c r="F214" s="13"/>
       <c r="G214" s="13"/>
       <c r="H214" s="13" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I214" s="13"/>
       <c r="J214" s="13"/>
@@ -13904,7 +16124,7 @@
       <c r="F215" s="13"/>
       <c r="G215" s="13"/>
       <c r="H215" s="13" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I215" s="13"/>
       <c r="J215" s="13"/>
@@ -13918,7 +16138,7 @@
       <c r="F216" s="13"/>
       <c r="G216" s="13"/>
       <c r="H216" s="13" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I216" s="13"/>
       <c r="J216" s="13"/>
@@ -13932,7 +16152,7 @@
       <c r="F217" s="13"/>
       <c r="G217" s="13"/>
       <c r="H217" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I217" s="13"/>
       <c r="J217" s="13"/>
@@ -13946,7 +16166,7 @@
       <c r="F218" s="13"/>
       <c r="G218" s="13"/>
       <c r="H218" s="13" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I218" s="13"/>
       <c r="J218" s="13"/>
@@ -13960,7 +16180,7 @@
       <c r="F219" s="13"/>
       <c r="G219" s="13"/>
       <c r="H219" s="13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I219" s="13"/>
       <c r="J219" s="13"/>
@@ -13974,7 +16194,7 @@
       <c r="F220" s="13"/>
       <c r="G220" s="13"/>
       <c r="H220" s="13" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I220" s="13"/>
       <c r="J220" s="13"/>
@@ -13988,7 +16208,7 @@
       <c r="F221" s="13"/>
       <c r="G221" s="13"/>
       <c r="H221" s="13" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I221" s="13"/>
       <c r="J221" s="13"/>
@@ -14002,7 +16222,7 @@
       <c r="F222" s="13"/>
       <c r="G222" s="13"/>
       <c r="H222" s="13" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I222" s="13"/>
       <c r="J222" s="13"/>
@@ -14016,7 +16236,7 @@
       <c r="F223" s="13"/>
       <c r="G223" s="13"/>
       <c r="H223" s="13" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I223" s="13"/>
       <c r="J223" s="13"/>
@@ -14030,7 +16250,7 @@
       <c r="F224" s="13"/>
       <c r="G224" s="13"/>
       <c r="H224" s="13" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I224" s="13"/>
       <c r="J224" s="13"/>
@@ -14044,7 +16264,7 @@
       <c r="F225" s="13"/>
       <c r="G225" s="13"/>
       <c r="H225" s="13" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I225" s="13"/>
       <c r="J225" s="13"/>
@@ -14058,7 +16278,7 @@
       <c r="F226" s="13"/>
       <c r="G226" s="13"/>
       <c r="H226" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I226" s="13"/>
       <c r="J226" s="13"/>
@@ -14072,7 +16292,7 @@
       <c r="F227" s="13"/>
       <c r="G227" s="13"/>
       <c r="H227" s="13" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I227" s="13"/>
       <c r="J227" s="13"/>
@@ -14082,7 +16302,7 @@
       <c r="B228" s="13"/>
       <c r="C228" s="13"/>
       <c r="D228" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E228" s="13"/>
       <c r="F228" s="13"/>
@@ -14098,7 +16318,7 @@
       <c r="D229" s="13"/>
       <c r="E229" s="13"/>
       <c r="F229" s="13" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G229" s="13"/>
       <c r="H229" s="13"/>
@@ -14112,7 +16332,7 @@
       <c r="D230" s="13"/>
       <c r="E230" s="13"/>
       <c r="F230" s="13" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G230" s="13"/>
       <c r="H230" s="13"/>
@@ -14126,7 +16346,7 @@
       <c r="D231" s="13"/>
       <c r="E231" s="13"/>
       <c r="F231" s="13" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G231" s="13"/>
       <c r="H231" s="13"/>
@@ -14140,7 +16360,7 @@
       <c r="D232" s="13"/>
       <c r="E232" s="13"/>
       <c r="F232" s="13" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G232" s="13"/>
       <c r="H232" s="13"/>
@@ -14154,7 +16374,7 @@
       <c r="D233" s="13"/>
       <c r="E233" s="13"/>
       <c r="F233" s="13" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G233" s="13"/>
       <c r="H233" s="13"/>
@@ -14168,7 +16388,7 @@
       <c r="D234" s="13"/>
       <c r="E234" s="13"/>
       <c r="F234" s="13" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G234" s="13"/>
       <c r="H234" s="13"/>
@@ -14182,7 +16402,7 @@
       <c r="D235" s="13"/>
       <c r="E235" s="13"/>
       <c r="F235" s="13" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G235" s="13"/>
       <c r="H235" s="13"/>
@@ -14196,7 +16416,7 @@
       <c r="D236" s="13"/>
       <c r="E236" s="13"/>
       <c r="F236" s="13" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G236" s="13"/>
       <c r="H236" s="13"/>
@@ -14210,7 +16430,7 @@
       <c r="D237" s="13"/>
       <c r="E237" s="13"/>
       <c r="F237" s="13" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G237" s="13"/>
       <c r="H237" s="13"/>
@@ -14224,7 +16444,7 @@
       <c r="D238" s="13"/>
       <c r="E238" s="13"/>
       <c r="F238" s="13" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G238" s="13"/>
       <c r="H238" s="13"/>
@@ -14238,7 +16458,7 @@
       <c r="D239" s="13"/>
       <c r="E239" s="13"/>
       <c r="F239" s="13" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G239" s="13"/>
       <c r="H239" s="13"/>
@@ -14252,7 +16472,7 @@
       <c r="D240" s="13"/>
       <c r="E240" s="13"/>
       <c r="F240" s="13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G240" s="13"/>
       <c r="H240" s="13"/>
@@ -14266,7 +16486,7 @@
       <c r="D241" s="13"/>
       <c r="E241" s="13"/>
       <c r="F241" s="13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G241" s="13"/>
       <c r="H241" s="13"/>
@@ -14280,7 +16500,7 @@
       <c r="D242" s="13"/>
       <c r="E242" s="13"/>
       <c r="F242" s="13" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G242" s="13"/>
       <c r="H242" s="13"/>
@@ -14294,7 +16514,7 @@
       <c r="D243" s="13"/>
       <c r="E243" s="13"/>
       <c r="F243" s="13" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G243" s="13"/>
       <c r="H243" s="13"/>
@@ -14308,7 +16528,7 @@
       <c r="D244" s="13"/>
       <c r="E244" s="13"/>
       <c r="F244" s="13" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G244" s="13"/>
       <c r="H244" s="13"/>
@@ -14322,7 +16542,7 @@
       <c r="D245" s="13"/>
       <c r="E245" s="13"/>
       <c r="F245" s="13" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G245" s="13"/>
       <c r="H245" s="13"/>
@@ -14336,7 +16556,7 @@
       <c r="D246" s="13"/>
       <c r="E246" s="13"/>
       <c r="F246" s="13" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G246" s="13"/>
       <c r="H246" s="13"/>
@@ -14350,7 +16570,7 @@
       <c r="D247" s="13"/>
       <c r="E247" s="13"/>
       <c r="F247" s="13" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G247" s="13"/>
       <c r="H247" s="13"/>
@@ -14364,7 +16584,7 @@
       <c r="D248" s="13"/>
       <c r="E248" s="13"/>
       <c r="F248" s="13" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G248" s="13"/>
       <c r="H248" s="13"/>
@@ -14378,7 +16598,7 @@
       <c r="D249" s="13"/>
       <c r="E249" s="13"/>
       <c r="F249" s="13" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G249" s="13"/>
       <c r="H249" s="13"/>
@@ -14392,7 +16612,7 @@
       <c r="D250" s="13"/>
       <c r="E250" s="13"/>
       <c r="F250" s="13" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G250" s="13"/>
       <c r="H250" s="13"/>
@@ -14406,7 +16626,7 @@
       <c r="D251" s="13"/>
       <c r="E251" s="13"/>
       <c r="F251" s="13" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G251" s="13"/>
       <c r="H251" s="13"/>
@@ -14420,7 +16640,7 @@
       <c r="D252" s="13"/>
       <c r="E252" s="13"/>
       <c r="F252" s="13" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G252" s="13"/>
       <c r="H252" s="13"/>
@@ -14434,7 +16654,7 @@
       <c r="D253" s="13"/>
       <c r="E253" s="13"/>
       <c r="F253" s="13" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G253" s="13"/>
       <c r="H253" s="13"/>
@@ -14448,7 +16668,7 @@
       <c r="D254" s="13"/>
       <c r="E254" s="13"/>
       <c r="F254" s="13" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G254" s="13"/>
       <c r="H254" s="13"/>
@@ -14462,7 +16682,7 @@
       <c r="D255" s="13"/>
       <c r="E255" s="13"/>
       <c r="F255" s="13" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G255" s="13"/>
       <c r="H255" s="13"/>
@@ -14476,7 +16696,7 @@
       <c r="D256" s="13"/>
       <c r="E256" s="13"/>
       <c r="F256" s="13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G256" s="13"/>
       <c r="H256" s="13"/>
@@ -14490,7 +16710,7 @@
       <c r="D257" s="13"/>
       <c r="E257" s="13"/>
       <c r="F257" s="13" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G257" s="13"/>
       <c r="H257" s="13"/>
@@ -14504,7 +16724,7 @@
       <c r="D258" s="13"/>
       <c r="E258" s="13"/>
       <c r="F258" s="13" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G258" s="13"/>
       <c r="H258" s="13"/>
@@ -14530,7 +16750,7 @@
       <c r="B260" s="13"/>
       <c r="C260" s="13"/>
       <c r="D260" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E260" s="13"/>
       <c r="F260" s="13"/>
@@ -14582,7 +16802,7 @@
     </row>
     <row r="264" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B264" s="13" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C264" s="13"/>
       <c r="D264" s="13"/>
@@ -14611,7 +16831,7 @@
     <row r="266" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B266" s="13"/>
       <c r="C266" s="13" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D266" s="13"/>
       <c r="E266" s="13"/>
@@ -14625,7 +16845,7 @@
     <row r="267" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B267" s="13"/>
       <c r="C267" s="13" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D267" s="13"/>
       <c r="E267" s="13"/>
@@ -14643,7 +16863,7 @@
       <c r="E268" s="13"/>
       <c r="F268" s="13"/>
       <c r="G268" s="13" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H268" s="13"/>
       <c r="I268" s="13"/>
@@ -14657,7 +16877,7 @@
       <c r="E269" s="13"/>
       <c r="F269" s="13"/>
       <c r="G269" s="13" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H269" s="13"/>
       <c r="I269" s="13"/>
@@ -14671,7 +16891,7 @@
       <c r="E270" s="13"/>
       <c r="F270" s="13"/>
       <c r="G270" s="13" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H270" s="13"/>
       <c r="I270" s="13"/>
@@ -14685,7 +16905,7 @@
       <c r="E271" s="13"/>
       <c r="F271" s="13"/>
       <c r="G271" s="13" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H271" s="13"/>
       <c r="I271" s="13"/>
@@ -14699,7 +16919,7 @@
       <c r="E272" s="13"/>
       <c r="F272" s="13"/>
       <c r="G272" s="13" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H272" s="13"/>
       <c r="I272" s="13"/>
@@ -14713,7 +16933,7 @@
       <c r="E273" s="13"/>
       <c r="F273" s="13"/>
       <c r="G273" s="13" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H273" s="13"/>
       <c r="I273" s="13"/>
@@ -14727,7 +16947,7 @@
       <c r="E274" s="13"/>
       <c r="F274" s="13"/>
       <c r="G274" s="13" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H274" s="13"/>
       <c r="I274" s="13"/>
@@ -14741,7 +16961,7 @@
       <c r="E275" s="13"/>
       <c r="F275" s="13"/>
       <c r="G275" s="13" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H275" s="13"/>
       <c r="I275" s="13"/>
@@ -14755,7 +16975,7 @@
       <c r="E276" s="13"/>
       <c r="F276" s="13"/>
       <c r="G276" s="13" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H276" s="13"/>
       <c r="I276" s="13"/>
@@ -14769,7 +16989,7 @@
       <c r="E277" s="13"/>
       <c r="F277" s="13"/>
       <c r="G277" s="13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H277" s="13"/>
       <c r="I277" s="13"/>
@@ -14779,7 +16999,7 @@
     <row r="278" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B278" s="13"/>
       <c r="C278" s="13" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D278" s="13"/>
       <c r="E278" s="13"/>
@@ -14793,7 +17013,7 @@
     <row r="279" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B279" s="13"/>
       <c r="C279" s="13" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D279" s="13"/>
       <c r="E279" s="13"/>
@@ -14807,7 +17027,7 @@
     <row r="280" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B280" s="13"/>
       <c r="C280" s="13" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D280" s="13"/>
       <c r="E280" s="13"/>
@@ -14821,7 +17041,7 @@
     <row r="281" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B281" s="13"/>
       <c r="C281" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D281" s="13"/>
       <c r="E281" s="13"/>
@@ -14837,7 +17057,7 @@
       <c r="C282" s="13"/>
       <c r="D282" s="13"/>
       <c r="E282" s="13" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F282" s="13"/>
       <c r="G282" s="13"/>
@@ -14851,7 +17071,7 @@
       <c r="C283" s="13"/>
       <c r="D283" s="13"/>
       <c r="E283" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F283" s="13"/>
       <c r="G283" s="13"/>
@@ -14865,7 +17085,7 @@
       <c r="C284" s="13"/>
       <c r="D284" s="13"/>
       <c r="E284" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F284" s="13"/>
       <c r="G284" s="13"/>
@@ -14879,7 +17099,7 @@
       <c r="C285" s="13"/>
       <c r="D285" s="13"/>
       <c r="E285" s="13" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F285" s="13"/>
       <c r="G285" s="13"/>
@@ -14893,7 +17113,7 @@
       <c r="C286" s="13"/>
       <c r="D286" s="13"/>
       <c r="E286" s="13" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F286" s="13"/>
       <c r="G286" s="13"/>
@@ -14907,7 +17127,7 @@
       <c r="C287" s="13"/>
       <c r="D287" s="13"/>
       <c r="E287" s="13" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F287" s="13"/>
       <c r="G287" s="13"/>
@@ -14921,7 +17141,7 @@
       <c r="C288" s="13"/>
       <c r="D288" s="13"/>
       <c r="E288" s="13" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F288" s="13"/>
       <c r="G288" s="13"/>
@@ -14935,7 +17155,7 @@
       <c r="C289" s="13"/>
       <c r="D289" s="13"/>
       <c r="E289" s="13" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F289" s="13"/>
       <c r="G289" s="13"/>
@@ -14949,7 +17169,7 @@
       <c r="C290" s="13"/>
       <c r="D290" s="13"/>
       <c r="E290" s="13" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F290" s="13"/>
       <c r="G290" s="13"/>
@@ -14963,7 +17183,7 @@
       <c r="C291" s="13"/>
       <c r="D291" s="13"/>
       <c r="E291" s="13" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F291" s="13"/>
       <c r="G291" s="13"/>
@@ -15036,7 +17256,7 @@
     </row>
     <row r="297" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B297" s="13" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C297" s="13"/>
       <c r="D297" s="13"/>
@@ -15066,7 +17286,7 @@
   <sheetData>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -15082,7 +17302,7 @@
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -15098,7 +17318,7 @@
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -15114,7 +17334,7 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -15144,7 +17364,7 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -15160,7 +17380,7 @@
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -15190,7 +17410,7 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -15206,7 +17426,7 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -15236,7 +17456,7 @@
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -15252,10 +17472,10 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -15270,7 +17490,7 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -15286,7 +17506,7 @@
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -15302,7 +17522,7 @@
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -15346,7 +17566,7 @@
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -15362,7 +17582,7 @@
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
@@ -15378,7 +17598,7 @@
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -15394,7 +17614,7 @@
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
@@ -15410,7 +17630,7 @@
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
@@ -15426,7 +17646,7 @@
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -15442,7 +17662,7 @@
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
@@ -15472,7 +17692,7 @@
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
@@ -15516,7 +17736,7 @@
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="13" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -15546,7 +17766,7 @@
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -15562,7 +17782,7 @@
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -15592,7 +17812,7 @@
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
@@ -15717,7 +17937,7 @@
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="13"/>
       <c r="C12" s="13" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -15741,7 +17961,7 @@
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="13"/>
       <c r="C14" s="13" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -15753,7 +17973,7 @@
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="13"/>
       <c r="C15" s="13" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -15775,7 +17995,7 @@
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="13"/>
       <c r="C17" s="13" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -15787,7 +18007,7 @@
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="13"/>
       <c r="C18" s="13" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
@@ -15809,7 +18029,7 @@
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="13"/>
       <c r="C20" s="13" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
@@ -15821,7 +18041,7 @@
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="13"/>
       <c r="C21" s="13" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
@@ -15855,7 +18075,7 @@
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="13"/>
       <c r="C24" s="21" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
@@ -15901,7 +18121,7 @@
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="13"/>
       <c r="C28" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
